--- a/Översikt SKÖVDE.xlsx
+++ b/Översikt SKÖVDE.xlsx
@@ -575,7 +575,7 @@
         <v>46025</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44277</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45743</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>44595</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>45876.88369212963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45979.53326388889</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>45306</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>46014.57848379629</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>45387</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1393,14 +1393,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 36627-2022</t>
+          <t>A 47058-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44804</v>
+        <v>45201</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1412,22 +1412,17 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1436,140 +1431,145 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>3</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Korallrot
+Grönvit nattviol
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 47058-2023 artfynd.xlsx", "A 47058-2023")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 47058-2023 karta.png", "A 47058-2023")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 47058-2023 FSC-klagomål.docx", "A 47058-2023")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 47058-2023 FSC-klagomål mail.docx", "A 47058-2023")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 47058-2023 tillsynsbegäran.docx", "A 47058-2023")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 47058-2023 tillsynsbegäran mail.docx", "A 47058-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 36627-2022</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44804</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Skogsalm
 Kråka
 Myskbock</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 36627-2022 artfynd.xlsx", "A 36627-2022")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 36627-2022 karta.png", "A 36627-2022")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 36627-2022 FSC-klagomål.docx", "A 36627-2022")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 36627-2022 FSC-klagomål mail.docx", "A 36627-2022")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 36627-2022 tillsynsbegäran.docx", "A 36627-2022")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 36627-2022 tillsynsbegäran mail.docx", "A 36627-2022")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/fåglar/A 36627-2022 prioriterade fågelarter.docx", "A 36627-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 47058-2023</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45201</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Korallrot
-Grönvit nattviol
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 47058-2023 artfynd.xlsx", "A 47058-2023")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 47058-2023 karta.png", "A 47058-2023")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 47058-2023 FSC-klagomål.docx", "A 47058-2023")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 47058-2023 FSC-klagomål mail.docx", "A 47058-2023")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 47058-2023 tillsynsbegäran.docx", "A 47058-2023")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 47058-2023 tillsynsbegäran mail.docx", "A 47058-2023")</f>
         <v/>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
         <v>44495</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45785</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>45506.47185185185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>44447</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2013,14 +2013,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 3410-2023</t>
+          <t>A 43003-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44949</v>
+        <v>45567.37613425926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2032,22 +2032,17 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2062,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2072,118 +2067,123 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
+          <t>Desmeknopp
+Scharlakansskål</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 43003-2024 artfynd.xlsx", "A 43003-2024")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 43003-2024 karta.png", "A 43003-2024")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 43003-2024 FSC-klagomål.docx", "A 43003-2024")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 43003-2024 FSC-klagomål mail.docx", "A 43003-2024")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 43003-2024 tillsynsbegäran.docx", "A 43003-2024")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 43003-2024 tillsynsbegäran mail.docx", "A 43003-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 3410-2023</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>44949</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
           <t>Västlig hakmossa
 Revlummer</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 3410-2023 artfynd.xlsx", "A 3410-2023")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 3410-2023 karta.png", "A 3410-2023")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 3410-2023 FSC-klagomål.docx", "A 3410-2023")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 3410-2023 FSC-klagomål mail.docx", "A 3410-2023")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 3410-2023 tillsynsbegäran.docx", "A 3410-2023")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 3410-2023 tillsynsbegäran mail.docx", "A 3410-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 43003-2024</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45567.37613425926</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Desmeknopp
-Scharlakansskål</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 43003-2024 artfynd.xlsx", "A 43003-2024")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 43003-2024 karta.png", "A 43003-2024")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 43003-2024 FSC-klagomål.docx", "A 43003-2024")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 43003-2024 FSC-klagomål mail.docx", "A 43003-2024")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 43003-2024 tillsynsbegäran.docx", "A 43003-2024")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 43003-2024 tillsynsbegäran mail.docx", "A 43003-2024")</f>
         <v/>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
         <v>45702.62541666667</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2276,14 +2276,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 43859-2022</t>
+          <t>A 6484-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44837</v>
+        <v>44235</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2296,16 +2296,16 @@
         </is>
       </c>
       <c r="G21" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2330,45 +2330,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Gullklöver</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 43859-2022 artfynd.xlsx", "A 43859-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 6484-2021 artfynd.xlsx", "A 6484-2021")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 43859-2022 karta.png", "A 43859-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 6484-2021 karta.png", "A 6484-2021")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 43859-2022 FSC-klagomål.docx", "A 43859-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 6484-2021 FSC-klagomål.docx", "A 6484-2021")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 43859-2022 FSC-klagomål mail.docx", "A 43859-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 6484-2021 FSC-klagomål mail.docx", "A 6484-2021")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 43859-2022 tillsynsbegäran.docx", "A 43859-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 6484-2021 tillsynsbegäran.docx", "A 6484-2021")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 43859-2022 tillsynsbegäran mail.docx", "A 43859-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 6484-2021 tillsynsbegäran mail.docx", "A 6484-2021")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 42017-2025</t>
+          <t>A 10602-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45903.58387731481</v>
+        <v>44988.39806712963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2380,29 +2380,24 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
@@ -2410,55 +2405,55 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 42017-2025 artfynd.xlsx", "A 42017-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 10602-2023 artfynd.xlsx", "A 10602-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 42017-2025 karta.png", "A 42017-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 10602-2023 karta.png", "A 10602-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 42017-2025 FSC-klagomål.docx", "A 42017-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 10602-2023 FSC-klagomål.docx", "A 10602-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 42017-2025 FSC-klagomål mail.docx", "A 42017-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 10602-2023 FSC-klagomål mail.docx", "A 10602-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 42017-2025 tillsynsbegäran.docx", "A 42017-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 10602-2023 tillsynsbegäran.docx", "A 10602-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 42017-2025 tillsynsbegäran mail.docx", "A 42017-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 10602-2023 tillsynsbegäran mail.docx", "A 10602-2023")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 4464-2026</t>
+          <t>A 25936-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>46045.6518287037</v>
+        <v>45804.59222222222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2471,7 +2466,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2505,45 +2500,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Myskmadra</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 4464-2026 artfynd.xlsx", "A 4464-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 25936-2025 artfynd.xlsx", "A 25936-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 4464-2026 karta.png", "A 4464-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 25936-2025 karta.png", "A 25936-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 4464-2026 FSC-klagomål.docx", "A 4464-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 25936-2025 FSC-klagomål.docx", "A 25936-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 4464-2026 FSC-klagomål mail.docx", "A 4464-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 25936-2025 FSC-klagomål mail.docx", "A 25936-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 4464-2026 tillsynsbegäran.docx", "A 4464-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 25936-2025 tillsynsbegäran.docx", "A 25936-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 4464-2026 tillsynsbegäran mail.docx", "A 4464-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 25936-2025 tillsynsbegäran mail.docx", "A 25936-2025")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 10602-2023</t>
+          <t>A 42017-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44988.39806712963</v>
+        <v>45903.58387731481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2555,11 +2550,16 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -2580,55 +2580,55 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 10602-2023 artfynd.xlsx", "A 10602-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 42017-2025 artfynd.xlsx", "A 42017-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 10602-2023 karta.png", "A 10602-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 42017-2025 karta.png", "A 42017-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 10602-2023 FSC-klagomål.docx", "A 10602-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 42017-2025 FSC-klagomål.docx", "A 42017-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 10602-2023 FSC-klagomål mail.docx", "A 10602-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 42017-2025 FSC-klagomål mail.docx", "A 42017-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 10602-2023 tillsynsbegäran.docx", "A 10602-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 42017-2025 tillsynsbegäran.docx", "A 42017-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 10602-2023 tillsynsbegäran mail.docx", "A 10602-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 42017-2025 tillsynsbegäran mail.docx", "A 42017-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 10610-2023</t>
+          <t>A 100-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44988</v>
+        <v>44928</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2646,17 +2646,17 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>8</v>
+        <v>1.4</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2680,45 +2680,45 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Borsttåg</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 10610-2023 artfynd.xlsx", "A 10610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 100-2023 artfynd.xlsx", "A 100-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 10610-2023 karta.png", "A 10610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 100-2023 karta.png", "A 100-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 10610-2023 FSC-klagomål.docx", "A 10610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 100-2023 FSC-klagomål.docx", "A 100-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 10610-2023 FSC-klagomål mail.docx", "A 10610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 100-2023 FSC-klagomål mail.docx", "A 100-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 10610-2023 tillsynsbegäran.docx", "A 10610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 100-2023 tillsynsbegäran.docx", "A 100-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 10610-2023 tillsynsbegäran mail.docx", "A 10610-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 100-2023 tillsynsbegäran mail.docx", "A 100-2023")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 60172-2021</t>
+          <t>A 58467-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44495</v>
+        <v>45635.3708912037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2731,17 +2731,17 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2765,31 +2765,31 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Sommarfibbla</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 60172-2021 artfynd.xlsx", "A 60172-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 58467-2024 artfynd.xlsx", "A 58467-2024")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 60172-2021 karta.png", "A 60172-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 58467-2024 karta.png", "A 58467-2024")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 60172-2021 FSC-klagomål.docx", "A 60172-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 58467-2024 FSC-klagomål.docx", "A 58467-2024")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 60172-2021 FSC-klagomål mail.docx", "A 60172-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 58467-2024 FSC-klagomål mail.docx", "A 58467-2024")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 60172-2021 tillsynsbegäran.docx", "A 60172-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 58467-2024 tillsynsbegäran.docx", "A 58467-2024")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 60172-2021 tillsynsbegäran mail.docx", "A 60172-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 58467-2024 tillsynsbegäran mail.docx", "A 58467-2024")</f>
         <v/>
       </c>
     </row>
@@ -2803,7 +2803,7 @@
         <v>45204.49358796296</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2881,14 +2881,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 39092-2022</t>
+          <t>A 42904-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44817</v>
+        <v>45182</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2900,14 +2900,19 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2935,45 +2940,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 39092-2022 artfynd.xlsx", "A 39092-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 42904-2023 artfynd.xlsx", "A 42904-2023")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 39092-2022 karta.png", "A 39092-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 42904-2023 karta.png", "A 42904-2023")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 39092-2022 FSC-klagomål.docx", "A 39092-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 42904-2023 FSC-klagomål.docx", "A 42904-2023")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 39092-2022 FSC-klagomål mail.docx", "A 39092-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 42904-2023 FSC-klagomål mail.docx", "A 42904-2023")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 39092-2022 tillsynsbegäran.docx", "A 39092-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 42904-2023 tillsynsbegäran.docx", "A 42904-2023")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 39092-2022 tillsynsbegäran mail.docx", "A 39092-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 42904-2023 tillsynsbegäran mail.docx", "A 42904-2023")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 6484-2021</t>
+          <t>A 4464-2026</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44235</v>
+        <v>46045.6518287037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2986,7 +2991,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3020,45 +3025,45 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Myskmadra</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 6484-2021 artfynd.xlsx", "A 6484-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 4464-2026 artfynd.xlsx", "A 4464-2026")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 6484-2021 karta.png", "A 6484-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 4464-2026 karta.png", "A 4464-2026")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 6484-2021 FSC-klagomål.docx", "A 6484-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 4464-2026 FSC-klagomål.docx", "A 4464-2026")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 6484-2021 FSC-klagomål mail.docx", "A 6484-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 4464-2026 FSC-klagomål mail.docx", "A 4464-2026")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 6484-2021 tillsynsbegäran.docx", "A 6484-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 4464-2026 tillsynsbegäran.docx", "A 4464-2026")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 6484-2021 tillsynsbegäran mail.docx", "A 6484-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 4464-2026 tillsynsbegäran mail.docx", "A 4464-2026")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 100-2023</t>
+          <t>A 10610-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44928</v>
+        <v>44988</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3076,16 +3081,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.4</v>
+        <v>8</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -3100,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3110,45 +3115,45 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Borsttåg</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 100-2023 artfynd.xlsx", "A 100-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 10610-2023 artfynd.xlsx", "A 10610-2023")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 100-2023 karta.png", "A 100-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 10610-2023 karta.png", "A 10610-2023")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 100-2023 FSC-klagomål.docx", "A 100-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 10610-2023 FSC-klagomål.docx", "A 10610-2023")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 100-2023 FSC-klagomål mail.docx", "A 100-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 10610-2023 FSC-klagomål mail.docx", "A 10610-2023")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 100-2023 tillsynsbegäran.docx", "A 100-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 10610-2023 tillsynsbegäran.docx", "A 10610-2023")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 100-2023 tillsynsbegäran mail.docx", "A 100-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 10610-2023 tillsynsbegäran mail.docx", "A 10610-2023")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 42904-2023</t>
+          <t>A 60172-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45182</v>
+        <v>44495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3160,13 +3165,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -3200,45 +3200,45 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 42904-2023 artfynd.xlsx", "A 42904-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 60172-2021 artfynd.xlsx", "A 60172-2021")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 42904-2023 karta.png", "A 42904-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 60172-2021 karta.png", "A 60172-2021")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 42904-2023 FSC-klagomål.docx", "A 42904-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 60172-2021 FSC-klagomål.docx", "A 60172-2021")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 42904-2023 FSC-klagomål mail.docx", "A 42904-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 60172-2021 FSC-klagomål mail.docx", "A 60172-2021")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 42904-2023 tillsynsbegäran.docx", "A 42904-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 60172-2021 tillsynsbegäran.docx", "A 60172-2021")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 42904-2023 tillsynsbegäran mail.docx", "A 42904-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 60172-2021 tillsynsbegäran mail.docx", "A 60172-2021")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 58467-2024</t>
+          <t>A 39092-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45635.3708912037</v>
+        <v>44817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3251,16 +3251,16 @@
         </is>
       </c>
       <c r="G32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3285,45 +3285,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Sommarfibbla</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 58467-2024 artfynd.xlsx", "A 58467-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 39092-2022 artfynd.xlsx", "A 39092-2022")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 58467-2024 karta.png", "A 58467-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 39092-2022 karta.png", "A 39092-2022")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 58467-2024 FSC-klagomål.docx", "A 58467-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 39092-2022 FSC-klagomål.docx", "A 39092-2022")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 58467-2024 FSC-klagomål mail.docx", "A 58467-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 39092-2022 FSC-klagomål mail.docx", "A 39092-2022")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 58467-2024 tillsynsbegäran.docx", "A 58467-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 39092-2022 tillsynsbegäran.docx", "A 39092-2022")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 58467-2024 tillsynsbegäran mail.docx", "A 58467-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 39092-2022 tillsynsbegäran mail.docx", "A 39092-2022")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 25936-2025</t>
+          <t>A 43859-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45804.59222222222</v>
+        <v>44837</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3336,17 +3336,17 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>1</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3370,31 +3370,31 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Gullklöver</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 25936-2025 artfynd.xlsx", "A 25936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 43859-2022 artfynd.xlsx", "A 43859-2022")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 25936-2025 karta.png", "A 25936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 43859-2022 karta.png", "A 43859-2022")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 25936-2025 FSC-klagomål.docx", "A 25936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 43859-2022 FSC-klagomål.docx", "A 43859-2022")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 25936-2025 FSC-klagomål mail.docx", "A 25936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 43859-2022 FSC-klagomål mail.docx", "A 43859-2022")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 25936-2025 tillsynsbegäran.docx", "A 25936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 43859-2022 tillsynsbegäran.docx", "A 43859-2022")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 25936-2025 tillsynsbegäran mail.docx", "A 25936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 43859-2022 tillsynsbegäran mail.docx", "A 43859-2022")</f>
         <v/>
       </c>
     </row>
@@ -3408,7 +3408,7 @@
         <v>44442.34412037037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>44421</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>44386</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3572,14 +3572,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 8134-2022</t>
+          <t>A 5192-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44609.60418981482</v>
+        <v>44594</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3591,8 +3591,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3629,14 +3634,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 5192-2022</t>
+          <t>A 8134-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44594</v>
+        <v>44609.60418981482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3648,13 +3653,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3698,7 +3698,7 @@
         <v>44445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>44417.56894675926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>44391</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>44239</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>44279.44748842593</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44543</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4038,14 +4038,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 65804-2021</t>
+          <t>A 45379-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44516</v>
+        <v>44844.66291666667</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.5</v>
+        <v>5.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4095,14 +4095,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 45379-2022</t>
+          <t>A 65804-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44844.66291666667</v>
+        <v>44516</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>5.3</v>
+        <v>1.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>44834</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44567</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44523.37583333333</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44421</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44277</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44748.33660879629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44748.34445601852</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4556,14 +4556,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 8817-2022</t>
+          <t>A 3488-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44614</v>
+        <v>44585</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4575,13 +4575,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>7</v>
+        <v>1.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4618,14 +4613,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 3488-2022</t>
+          <t>A 8817-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44585</v>
+        <v>44614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4637,8 +4632,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>1.3</v>
+        <v>7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4682,7 +4682,7 @@
         <v>44305</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>44698.71788194445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>44475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>44382.6750462963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>44740</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>44530.87890046297</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>44698.72146990741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>44847</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>44306</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>44299</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>44635.4016087963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>44823</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>44629.92052083334</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>44481.61975694444</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>44594</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5535,14 +5535,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 38499-2025</t>
+          <t>A 30560-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45884.37276620371</v>
+        <v>44762.55376157408</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5554,13 +5554,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>10</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5597,14 +5592,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 30560-2022</t>
+          <t>A 37451-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44762.55376157408</v>
+        <v>44809</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5617,7 +5612,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5654,14 +5649,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 37451-2022</t>
+          <t>A 27671-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44809</v>
+        <v>44743.39986111111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5674,7 +5669,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5711,14 +5706,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 39073-2025</t>
+          <t>A 5308-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45888</v>
+        <v>44959.55680555556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5730,13 +5725,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5773,14 +5763,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 35199-2025</t>
+          <t>A 48149-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45853</v>
+        <v>45201</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5793,7 +5783,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>6.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5830,14 +5820,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 62290-2023</t>
+          <t>A 46401-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45267.659375</v>
+        <v>45197.49450231482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5850,7 +5840,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5887,14 +5877,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 17326-2025</t>
+          <t>A 13422-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45756</v>
+        <v>45736.32023148148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5907,7 +5897,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5944,14 +5934,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 17070-2025</t>
+          <t>A 27577-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45755.61774305555</v>
+        <v>44353.76177083333</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5963,13 +5953,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6006,14 +5991,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 58456-2024</t>
+          <t>A 3946-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45635.36013888889</v>
+        <v>45322.65063657407</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6026,7 +6011,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6063,14 +6048,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 20600-2025</t>
+          <t>A 15417-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45775.79165509259</v>
+        <v>45019</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6083,7 +6068,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6120,14 +6105,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 26699-2022</t>
+          <t>A 37204-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44739.72042824074</v>
+        <v>45539.67663194444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6140,7 +6125,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6177,14 +6162,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 16716-2025</t>
+          <t>A 35919-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45754.48701388889</v>
+        <v>45148.64981481482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6197,7 +6182,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.1</v>
+        <v>6.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6234,14 +6219,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 7869-2025</t>
+          <t>A 15952-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45706.69854166666</v>
+        <v>45749.50174768519</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6253,8 +6238,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6291,14 +6281,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 10559-2025</t>
+          <t>A 10560-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45721.52329861111</v>
+        <v>45721.5255787037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6311,7 +6301,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6348,14 +6338,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 11917-2024</t>
+          <t>A 6598-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45376.60135416667</v>
+        <v>44601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6367,8 +6357,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6405,14 +6400,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 62272-2023</t>
+          <t>A 16113-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45267.63773148148</v>
+        <v>44291.42980324074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6425,7 +6420,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6462,14 +6457,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 3946-2024</t>
+          <t>A 58929-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45322.65063657407</v>
+        <v>44903</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6481,8 +6476,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>4.7</v>
+        <v>0.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6519,14 +6519,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 39238-2025</t>
+          <t>A 53740-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45889.33467592593</v>
+        <v>45230</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>6.8</v>
+        <v>3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6576,14 +6576,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 39243-2025</t>
+          <t>A 17326-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45889.34508101852</v>
+        <v>45756</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>9.199999999999999</v>
+        <v>3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6633,14 +6633,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 60587-2023</t>
+          <t>A 24996-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45259</v>
+        <v>45799.61603009259</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6652,8 +6652,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6690,14 +6695,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 50829-2022</t>
+          <t>A 26737-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44862</v>
+        <v>45093.42945601852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6710,7 +6715,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6747,14 +6752,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 6496-2021</t>
+          <t>A 38750-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44235</v>
+        <v>45163.40059027778</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6767,7 +6772,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6804,14 +6809,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 60558-2023</t>
+          <t>A 17070-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45259.86798611111</v>
+        <v>45755.61774305555</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6823,8 +6828,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6861,14 +6871,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 36556-2022</t>
+          <t>A 24553-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44804</v>
+        <v>45798.44869212963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6880,8 +6890,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6918,14 +6933,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 8557-2025</t>
+          <t>A 24962-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45709</v>
+        <v>45799.57716435185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6937,8 +6952,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6975,14 +6995,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 39993-2025</t>
+          <t>A 25003-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45894.31541666666</v>
+        <v>45799.62331018518</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6994,8 +7014,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7032,14 +7057,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 29011-2023</t>
+          <t>A 25642-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45104</v>
+        <v>45803.60490740741</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7051,13 +7076,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>5.4</v>
+        <v>2.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7094,14 +7114,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 16279-2021</t>
+          <t>A 60558-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44292.64375</v>
+        <v>45259.86798611111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7114,7 +7134,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7151,14 +7171,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 34211-2023</t>
+          <t>A 27109-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45138</v>
+        <v>45471.49974537037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7171,7 +7191,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7208,14 +7228,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 13802-2024</t>
+          <t>A 49954-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45391</v>
+        <v>45215.37692129629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7228,7 +7248,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>9.4</v>
+        <v>1.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7265,14 +7285,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 63751-2025</t>
+          <t>A 25271-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46017.75608796296</v>
+        <v>45800.55153935185</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7282,6 +7302,11 @@
       <c r="E101" t="inlineStr">
         <is>
           <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -7322,14 +7347,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 565-2024</t>
+          <t>A 25639-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45299</v>
+        <v>45800</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7342,7 +7367,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.2</v>
+        <v>0.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7379,14 +7404,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 952-2024</t>
+          <t>A 25093-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45301</v>
+        <v>45800.33357638889</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7398,8 +7423,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7436,14 +7466,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 58342-2023</t>
+          <t>A 38499-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45245</v>
+        <v>45884.37276620371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7455,8 +7485,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7493,14 +7528,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 2917-2024</t>
+          <t>A 25794-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45315.58524305555</v>
+        <v>45804.39341435185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7512,8 +7547,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7550,14 +7590,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 13800-2024</t>
+          <t>A 35199-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45391</v>
+        <v>45853</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7570,7 +7610,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7607,14 +7647,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 58929-2022</t>
+          <t>A 38264-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44903</v>
+        <v>45161</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7626,13 +7666,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7669,14 +7704,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 42837-2025</t>
+          <t>A 26712-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45908.58097222223</v>
+        <v>45810.46396990741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7688,8 +7723,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7726,14 +7766,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 3951-2024</t>
+          <t>A 39073-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45322</v>
+        <v>45888</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7745,8 +7785,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>10.7</v>
+        <v>0.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7783,14 +7828,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 2708-2024</t>
+          <t>A 39238-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45314</v>
+        <v>45889.33467592593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7803,7 +7848,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.9</v>
+        <v>6.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7840,14 +7885,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 1641-2024</t>
+          <t>A 39243-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45306.66873842593</v>
+        <v>45889.34508101852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7860,7 +7905,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7897,14 +7942,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 59366-2025</t>
+          <t>A 26618-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45989.44545138889</v>
+        <v>45810.30840277778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7916,13 +7961,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7959,14 +7999,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 59384-2025</t>
+          <t>A 20600-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45989.45657407407</v>
+        <v>45775.79165509259</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7978,13 +8018,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8021,14 +8056,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 37656-2023</t>
+          <t>A 26620-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45159.51996527778</v>
+        <v>45810.31511574074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8041,7 +8076,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8078,14 +8113,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 26737-2023</t>
+          <t>A 6419-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45093.42945601852</v>
+        <v>45699.47835648148</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8097,8 +8132,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8135,14 +8175,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 1780-2023</t>
+          <t>A 44867-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44938.598125</v>
+        <v>44840</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8155,7 +8195,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8192,14 +8232,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 1844-2026</t>
+          <t>A 58456-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>46035.40652777778</v>
+        <v>45635.36013888889</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8212,7 +8252,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8249,14 +8289,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 35610-2024</t>
+          <t>A 26614-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45531</v>
+        <v>45810.30189814815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8269,7 +8309,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>11.7</v>
+        <v>12.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8306,14 +8346,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 59893-2025</t>
+          <t>A 20912-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45992</v>
+        <v>45439.49229166667</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8326,7 +8366,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8363,14 +8403,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 2858-2024</t>
+          <t>A 67134-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45315.43131944445</v>
+        <v>44523.37474537037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8382,8 +8422,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8420,14 +8465,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 61130-2025</t>
+          <t>A 8557-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>46000.48894675926</v>
+        <v>45709</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8440,7 +8485,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8477,14 +8522,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 10560-2025</t>
+          <t>A 9284-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45721.5255787037</v>
+        <v>45714</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8496,8 +8541,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8534,14 +8584,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 46923-2025</t>
+          <t>A 12942-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45929.43701388889</v>
+        <v>45385.46519675926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8554,7 +8604,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8591,14 +8641,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 60968-2025</t>
+          <t>A 39993-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45999.68519675926</v>
+        <v>45894.31541666666</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8611,7 +8661,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8648,14 +8698,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 48575-2024</t>
+          <t>A 16621-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45593.41140046297</v>
+        <v>45754.32112268519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8668,7 +8718,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.9</v>
+        <v>6.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8705,14 +8755,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 42579-2025</t>
+          <t>A 29012-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45905</v>
+        <v>45821.40665509259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8725,7 +8775,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8762,14 +8812,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 47466-2024</t>
+          <t>A 29023-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45586</v>
+        <v>45821.43002314815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8782,7 +8832,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8819,14 +8869,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 47490-2024</t>
+          <t>A 29341-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45586</v>
+        <v>45824.5056712963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8838,8 +8888,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8876,14 +8931,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 47892-2025</t>
+          <t>A 42837-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45932.47384259259</v>
+        <v>45908.58097222223</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8896,7 +8951,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8933,14 +8988,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 2259-2026</t>
+          <t>A 29017-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>46036</v>
+        <v>45821.41775462963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8953,7 +9008,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>7.3</v>
+        <v>2.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8990,14 +9045,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 61421-2025</t>
+          <t>A 29335-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46001.54255787037</v>
+        <v>45824.49121527778</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9009,8 +9064,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9047,14 +9107,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 1629-2025</t>
+          <t>A 29015-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45670.6265162037</v>
+        <v>45821.41212962963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9067,7 +9127,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>11.8</v>
+        <v>2.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9104,14 +9164,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 61699-2025</t>
+          <t>A 30150-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>46002.53145833333</v>
+        <v>45827.31333333333</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9123,8 +9183,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9161,14 +9226,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 47869-2025</t>
+          <t>A 9281-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45932.44273148148</v>
+        <v>45714</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9180,8 +9245,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9218,14 +9288,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 61700-2025</t>
+          <t>A 6496-2021</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46002.53287037037</v>
+        <v>44235</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9275,14 +9345,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 38903-2024</t>
+          <t>A 62271-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45547</v>
+        <v>45267.6362037037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9295,7 +9365,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9332,14 +9402,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 61420-2025</t>
+          <t>A 50829-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46001.54215277778</v>
+        <v>44862</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9352,7 +9422,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9389,14 +9459,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 61422-2025</t>
+          <t>A 46923-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46001.54291666667</v>
+        <v>45929.43701388889</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9409,7 +9479,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9446,14 +9516,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 48890-2025</t>
+          <t>A 60588-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45937.46953703704</v>
+        <v>45259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9466,7 +9536,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9503,14 +9573,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 51886-2021</t>
+          <t>A 48983-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44462.82854166667</v>
+        <v>45594.46991898148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9523,7 +9593,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9560,14 +9630,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 48766-2025</t>
+          <t>A 42579-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45936.86329861111</v>
+        <v>45905</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9580,7 +9650,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9617,14 +9687,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 1784-2023</t>
+          <t>A 62290-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44938.60303240741</v>
+        <v>45267.659375</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9637,7 +9707,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9674,14 +9744,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 15388-2024</t>
+          <t>A 47869-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45401.23033564815</v>
+        <v>45932.44273148148</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9694,7 +9764,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9731,14 +9801,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 5470-2025</t>
+          <t>A 32837-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45693.3281712963</v>
+        <v>45839.55925925926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9751,7 +9821,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9788,14 +9858,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 5995-2022</t>
+          <t>A 47892-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44599.43216435185</v>
+        <v>45932.47384259259</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9807,13 +9877,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9850,14 +9915,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 2901-2026</t>
+          <t>A 1629-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46038</v>
+        <v>45670.6265162037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9870,7 +9935,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.1</v>
+        <v>11.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9907,14 +9972,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 62811-2025</t>
+          <t>A 33053-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46008</v>
+        <v>45840.42666666667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9927,7 +9992,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9964,14 +10029,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 62803-2025</t>
+          <t>A 48890-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>46008</v>
+        <v>45937.46953703704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9984,7 +10049,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>6.8</v>
+        <v>2.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10021,14 +10086,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 4335-2026</t>
+          <t>A 48766-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46045</v>
+        <v>45936.86329861111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10041,7 +10106,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10078,14 +10143,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 51193-2025</t>
+          <t>A 950-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45947</v>
+        <v>45301</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10098,7 +10163,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>7.2</v>
+        <v>0.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10135,14 +10200,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 51217-2025</t>
+          <t>A 33861-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45947.64515046297</v>
+        <v>45842.52964120371</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10155,7 +10220,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10192,14 +10257,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 51155-2025</t>
+          <t>A 34416-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45947</v>
+        <v>45846.6525462963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10212,7 +10277,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10249,14 +10314,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 20912-2024</t>
+          <t>A 47900-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45439.49229166667</v>
+        <v>45204</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10269,7 +10334,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10306,14 +10371,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 15417-2023</t>
+          <t>A 34410-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45019</v>
+        <v>45846.64479166667</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10326,7 +10391,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10363,14 +10428,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 52172-2025</t>
+          <t>A 34414-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45953.37298611111</v>
+        <v>45846</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10382,13 +10447,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10425,14 +10485,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 5785-2026</t>
+          <t>A 34412-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46051.66454861111</v>
+        <v>45846.64696759259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10445,7 +10505,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10482,14 +10542,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 5472-2025</t>
+          <t>A 34592-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45693.32910879629</v>
+        <v>45847.63085648148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10502,7 +10562,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10539,14 +10599,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 5476-2025</t>
+          <t>A 51217-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45693.33128472222</v>
+        <v>45947.64515046297</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10559,7 +10619,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10596,14 +10656,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 12817-2024</t>
+          <t>A 51155-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45384</v>
+        <v>45947</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10616,7 +10676,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10653,14 +10713,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 63453-2025</t>
+          <t>A 51193-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46013.41452546296</v>
+        <v>45947</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10673,7 +10733,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.5</v>
+        <v>7.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10710,14 +10770,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 53153-2025</t>
+          <t>A 3951-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45958.48887731481</v>
+        <v>45322</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10730,7 +10790,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3.1</v>
+        <v>10.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10767,14 +10827,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 41942-2021</t>
+          <t>A 19372-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44425</v>
+        <v>45769.64199074074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10787,7 +10847,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10824,14 +10884,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 6092-2026</t>
+          <t>A 49416-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46052</v>
+        <v>45211.44688657407</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10844,7 +10904,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10881,14 +10941,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 63449-2025</t>
+          <t>A 3670-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46013.40626157408</v>
+        <v>44586</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10938,14 +10998,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 29217-2022</t>
+          <t>A 52172-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44750.58076388889</v>
+        <v>45953.37298611111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10963,7 +11023,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11000,14 +11060,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 48225-2024</t>
+          <t>A 16277-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45590.36800925926</v>
+        <v>44292.64259259259</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11020,7 +11080,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11057,14 +11117,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 63428-2025</t>
+          <t>A 53153-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46013.35648148148</v>
+        <v>45958.48887731481</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11077,7 +11137,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11114,14 +11174,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 6093-2026</t>
+          <t>A 35280-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46052</v>
+        <v>45530.63609953703</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11134,7 +11194,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>5.8</v>
+        <v>2.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11171,14 +11231,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 40712-2021</t>
+          <t>A 15388-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44420</v>
+        <v>45401.23033564815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11191,7 +11251,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11228,14 +11288,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 5308-2023</t>
+          <t>A 5808-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44959.55680555556</v>
+        <v>44963.48101851852</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11248,7 +11308,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11285,14 +11345,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 17798-2024</t>
+          <t>A 1784-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45418</v>
+        <v>44938.60303240741</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11305,7 +11365,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11342,14 +11402,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 9281-2025</t>
+          <t>A 34248-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45714</v>
+        <v>45138.55064814815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11361,13 +11421,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11404,14 +11459,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 48983-2024</t>
+          <t>A 3481-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45594.46991898148</v>
+        <v>45320</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11424,7 +11479,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>3.1</v>
+        <v>7.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11461,14 +11516,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 5465-2025</t>
+          <t>A 60117-2021</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45693.32520833334</v>
+        <v>44495</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11481,7 +11536,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>5.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11518,14 +11573,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 5466-2025</t>
+          <t>A 61336-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45693.32571759259</v>
+        <v>45645</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11538,7 +11593,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11575,14 +11630,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 5467-2025</t>
+          <t>A 63729-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45693.32645833334</v>
+        <v>46010</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11594,8 +11649,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11632,14 +11692,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 5471-2025</t>
+          <t>A 63730-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45693.32864583333</v>
+        <v>46010</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11651,8 +11711,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11689,14 +11754,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 1636-2024</t>
+          <t>A 55642-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45306</v>
+        <v>45972.3575462963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11709,7 +11774,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11746,14 +11811,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 40995-2022</t>
+          <t>A 6224-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44825.49869212963</v>
+        <v>44600.39609953704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11766,7 +11831,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11803,14 +11868,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 55642-2025</t>
+          <t>A 63375-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45972.3575462963</v>
+        <v>46009</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11822,8 +11887,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>1.6</v>
+        <v>4.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11860,14 +11930,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 23447-2023</t>
+          <t>A 63374-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45076.59756944444</v>
+        <v>46009</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11879,8 +11949,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11917,14 +11992,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 15404-2023</t>
+          <t>A 26699-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45019</v>
+        <v>44739.72042824074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11937,7 +12012,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11974,14 +12049,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 6419-2025</t>
+          <t>A 63751-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45699.47835648148</v>
+        <v>46017.75608796296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11993,13 +12068,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12036,14 +12106,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 13669-2023</t>
+          <t>A 41722-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45006</v>
+        <v>45560</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12056,7 +12126,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>4</v>
+        <v>10.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12093,14 +12163,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 63729-2025</t>
+          <t>A 5465-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46010</v>
+        <v>45693.32520833334</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12112,13 +12182,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12155,14 +12220,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 63730-2025</t>
+          <t>A 5466-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46010</v>
+        <v>45693.32571759259</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12174,13 +12239,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12217,14 +12277,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 63375-2025</t>
+          <t>A 1641-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>46009</v>
+        <v>45306.66873842593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12236,13 +12296,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12279,14 +12334,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 38264-2023</t>
+          <t>A 5470-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45161</v>
+        <v>45693.3281712963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12299,7 +12354,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12336,14 +12391,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 63374-2025</t>
+          <t>A 35610-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46009</v>
+        <v>45531</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12355,13 +12410,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>3.4</v>
+        <v>11.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12398,14 +12448,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 13178-2023</t>
+          <t>A 16716-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45002</v>
+        <v>45754.48701388889</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12418,7 +12468,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12455,14 +12505,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 61336-2024</t>
+          <t>A 4237-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45645</v>
+        <v>45324</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12475,7 +12525,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12512,14 +12562,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 48336-2024</t>
+          <t>A 58342-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45590.54072916666</v>
+        <v>45245</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12532,7 +12582,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12569,14 +12619,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 61213-2024</t>
+          <t>A 59053-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45645.65461805555</v>
+        <v>45636.80626157407</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12589,7 +12639,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12626,14 +12676,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 13422-2025</t>
+          <t>A 40712-2021</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45736.32023148148</v>
+        <v>44420</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12683,14 +12733,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 37204-2024</t>
+          <t>A 59384-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45539.67663194444</v>
+        <v>45989.45657407407</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12702,8 +12752,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12740,14 +12795,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 5656-2024</t>
+          <t>A 5714-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45334</v>
+        <v>45694.46822916667</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12760,7 +12815,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12797,14 +12852,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 5464-2025</t>
+          <t>A 59366-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45693.32357638889</v>
+        <v>45989.44545138889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12816,8 +12871,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12854,14 +12914,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 30034-2021</t>
+          <t>A 1844-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44363</v>
+        <v>46035.40652777778</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12874,7 +12934,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12911,14 +12971,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 27577-2021</t>
+          <t>A 2858-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44353.76177083333</v>
+        <v>45315.43131944445</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12931,7 +12991,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12968,14 +13028,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 40374-2023</t>
+          <t>A 59893-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45169.74189814815</v>
+        <v>45992</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12988,7 +13048,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13025,14 +13085,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 41722-2024</t>
+          <t>A 61213-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45560</v>
+        <v>45645.65461805555</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13045,7 +13105,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>10.1</v>
+        <v>2.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13082,14 +13142,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 58138-2024</t>
+          <t>A 30034-2021</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45631</v>
+        <v>44363</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13102,7 +13162,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13139,14 +13199,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 40205-2022</t>
+          <t>A 14552-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44820</v>
+        <v>45013.42783564814</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13159,7 +13219,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>5.3</v>
+        <v>1.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13196,14 +13256,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 48149-2023</t>
+          <t>A 47466-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45201</v>
+        <v>45586</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13216,7 +13276,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>6.2</v>
+        <v>1.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13253,14 +13313,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 48338-2024</t>
+          <t>A 60968-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45590.54170138889</v>
+        <v>45999.68519675926</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13310,14 +13370,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 53740-2023</t>
+          <t>A 25168-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45230</v>
+        <v>45086.51451388889</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13330,7 +13390,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13367,14 +13427,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 38750-2023</t>
+          <t>A 61420-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45163.40059027778</v>
+        <v>46001.54215277778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13387,7 +13447,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13424,14 +13484,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 12942-2024</t>
+          <t>A 2259-2026</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45385.46519675926</v>
+        <v>46036</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13444,7 +13504,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.6</v>
+        <v>7.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13481,14 +13541,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 52377-2023</t>
+          <t>A 61421-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45224</v>
+        <v>46001.54255787037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13501,7 +13561,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13538,14 +13598,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 47900-2023</t>
+          <t>A 61422-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45204</v>
+        <v>46001.54291666667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13558,7 +13618,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13595,14 +13655,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 16621-2025</t>
+          <t>A 13669-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45754.32112268519</v>
+        <v>45006</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13615,7 +13675,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>6.8</v>
+        <v>4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13652,14 +13712,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 15952-2025</t>
+          <t>A 61130-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45749.50174768519</v>
+        <v>46000.48894675926</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13671,13 +13731,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13714,14 +13769,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 38048-2022</t>
+          <t>A 52377-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44811</v>
+        <v>45224</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13734,7 +13789,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13771,14 +13826,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 34528-2023</t>
+          <t>A 61699-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45134</v>
+        <v>46002.53145833333</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13791,7 +13846,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13828,14 +13883,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 5714-2025</t>
+          <t>A 61700-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45694.46822916667</v>
+        <v>46002.53287037037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13848,7 +13903,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13885,14 +13940,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 49416-2023</t>
+          <t>A 4335-2026</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45211.44688657407</v>
+        <v>46045</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13905,7 +13960,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13942,14 +13997,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 3670-2022</t>
+          <t>A 41942-2021</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44586</v>
+        <v>44425</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13962,7 +14017,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13999,14 +14054,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 950-2024</t>
+          <t>A 34834-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45301</v>
+        <v>44796</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14019,7 +14074,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14056,14 +14111,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 34834-2022</t>
+          <t>A 2901-2026</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44796</v>
+        <v>46038</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14076,7 +14131,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14113,14 +14168,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 12162-2022</t>
+          <t>A 5472-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44636</v>
+        <v>45693.32910879629</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14133,7 +14188,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14170,14 +14225,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 13901-2025</t>
+          <t>A 5476-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45737</v>
+        <v>45693.33128472222</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14190,7 +14245,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14227,14 +14282,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 59053-2024</t>
+          <t>A 62272-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45636.80626157407</v>
+        <v>45267.63773148148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14247,7 +14302,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14284,14 +14339,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 21493-2021</t>
+          <t>A 62803-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44321.53975694445</v>
+        <v>46008</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14304,7 +14359,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.3</v>
+        <v>6.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14341,14 +14396,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 6598-2022</t>
+          <t>A 23447-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44601</v>
+        <v>45076.59756944444</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14360,13 +14415,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14403,14 +14453,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 40105-2021</t>
+          <t>A 5785-2026</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44418</v>
+        <v>46051.66454861111</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14423,7 +14473,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14460,14 +14510,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 5808-2023</t>
+          <t>A 48575-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44963.48101851852</v>
+        <v>45593.41140046297</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14480,7 +14530,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14517,14 +14567,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 6224-2022</t>
+          <t>A 62811-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44600.39609953704</v>
+        <v>46008</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14537,7 +14587,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14574,14 +14624,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 62269-2023</t>
+          <t>A 5467-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45267.63450231482</v>
+        <v>45693.32645833334</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14594,7 +14644,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14631,14 +14681,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 17452-2023</t>
+          <t>A 5471-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45036</v>
+        <v>45693.32864583333</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14651,7 +14701,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14688,14 +14738,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 34248-2023</t>
+          <t>A 5474-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45138.55064814815</v>
+        <v>45693.33061342593</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14708,7 +14758,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14745,14 +14795,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 16277-2021</t>
+          <t>A 5478-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44292.64259259259</v>
+        <v>45693.33496527778</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14765,7 +14815,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14802,14 +14852,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 62271-2023</t>
+          <t>A 5479-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45267.6362037037</v>
+        <v>45693.33540509259</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14822,7 +14872,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14859,14 +14909,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 14552-2023</t>
+          <t>A 6092-2026</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45013.42783564814</v>
+        <v>46052</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14879,7 +14929,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14916,14 +14966,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 29222-2022</t>
+          <t>A 13802-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44750</v>
+        <v>45391</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14935,13 +14985,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>1.6</v>
+        <v>9.4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14978,14 +15023,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 67134-2021</t>
+          <t>A 14624-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44523.37474537037</v>
+        <v>45742.41969907407</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14997,13 +15042,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15040,14 +15080,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 16113-2021</t>
+          <t>A 63428-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44291.42980324074</v>
+        <v>46013.35648148148</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15060,7 +15100,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15097,14 +15137,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 29248-2023</t>
+          <t>A 63449-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45105.63884259259</v>
+        <v>46013.40626157408</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15117,7 +15157,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15154,14 +15194,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 18132-2023</t>
+          <t>A 5995-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45040</v>
+        <v>44599.43216435185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15173,8 +15213,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15211,14 +15256,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 5386-2025</t>
+          <t>A 63453-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45692.62754629629</v>
+        <v>46013.41452546296</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15231,7 +15276,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15268,14 +15313,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 4237-2024</t>
+          <t>A 6093-2026</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45324</v>
+        <v>46052</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15288,7 +15333,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>3.1</v>
+        <v>5.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15325,14 +15370,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 4316-2025</t>
+          <t>A 29217-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45685.70467592592</v>
+        <v>44750.58076388889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15344,8 +15389,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15382,14 +15432,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 25168-2023</t>
+          <t>A 12162-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45086.51451388889</v>
+        <v>44636</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15402,7 +15452,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15439,14 +15489,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 35919-2023</t>
+          <t>A 51886-2021</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45148.64981481482</v>
+        <v>44462.82854166667</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15459,7 +15509,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>6.6</v>
+        <v>1.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15496,14 +15546,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 60117-2021</t>
+          <t>A 29248-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44495</v>
+        <v>45105.63884259259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15516,7 +15566,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>5.9</v>
+        <v>1.6</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15553,14 +15603,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 35280-2024</t>
+          <t>A 2708-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45530.63609953703</v>
+        <v>45314</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15573,7 +15623,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15610,14 +15660,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 49300-2023</t>
+          <t>A 60587-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45210.88792824074</v>
+        <v>45259</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15630,7 +15680,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>5.2</v>
+        <v>3.9</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15667,14 +15717,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 5474-2025</t>
+          <t>A 1780-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45693.33061342593</v>
+        <v>44938.598125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15687,7 +15737,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15724,14 +15774,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 5478-2025</t>
+          <t>A 4316-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45693.33496527778</v>
+        <v>45685.70467592592</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15744,7 +15794,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15781,14 +15831,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 5479-2025</t>
+          <t>A 21493-2021</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45693.33540509259</v>
+        <v>44321.53975694445</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15801,7 +15851,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15838,14 +15888,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 3481-2024</t>
+          <t>A 40205-2022</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45320</v>
+        <v>44820</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15858,7 +15908,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>7.7</v>
+        <v>5.3</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15895,14 +15945,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 46401-2023</t>
+          <t>A 565-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45197.49450231482</v>
+        <v>45299</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15915,7 +15965,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15952,14 +16002,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 4600-2025</t>
+          <t>A 40374-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45687</v>
+        <v>45169.74189814815</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15972,7 +16022,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16009,14 +16059,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 49954-2023</t>
+          <t>A 26733-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45215.37692129629</v>
+        <v>45093.41903935185</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16029,7 +16079,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16066,14 +16116,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 9284-2025</t>
+          <t>A 16279-2021</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45714</v>
+        <v>44292.64375</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16085,13 +16135,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G254" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16128,14 +16173,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 27671-2022</t>
+          <t>A 48225-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44743.39986111111</v>
+        <v>45590.36800925926</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16148,7 +16193,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16185,14 +16230,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 5477-2025</t>
+          <t>A 40105-2021</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45693.33332175926</v>
+        <v>44418</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16205,7 +16250,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16242,14 +16287,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 7870-2025</t>
+          <t>A 47490-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45706</v>
+        <v>45586</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16262,7 +16307,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16306,7 +16351,7 @@
         <v>45082</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16356,14 +16401,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 14624-2025</t>
+          <t>A 4600-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45742.41969907407</v>
+        <v>45687</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16376,7 +16421,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16413,14 +16458,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 26733-2023</t>
+          <t>A 29011-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45093.41903935185</v>
+        <v>45104</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16432,8 +16477,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G260" t="n">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16470,14 +16520,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 60588-2023</t>
+          <t>A 5656-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45259</v>
+        <v>45334</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16490,7 +16540,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16527,14 +16577,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 5469-2025</t>
+          <t>A 34211-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45693.32758101852</v>
+        <v>45138</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16547,7 +16597,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16584,14 +16634,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 5473-2025</t>
+          <t>A 34528-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45693.33016203704</v>
+        <v>45134</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16604,7 +16654,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16641,14 +16691,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 20602-2025</t>
+          <t>A 48336-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45775.79440972222</v>
+        <v>45590.54072916666</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16661,7 +16711,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16698,14 +16748,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 3948-2024</t>
+          <t>A 17798-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45322</v>
+        <v>45418</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16718,7 +16768,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>6.6</v>
+        <v>2.8</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16755,14 +16805,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 22021-2025</t>
+          <t>A 952-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45784</v>
+        <v>45301</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16775,7 +16825,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16812,14 +16862,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 22022-2025</t>
+          <t>A 13800-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45784</v>
+        <v>45391</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16832,7 +16882,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>12</v>
+        <v>1.7</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16869,14 +16919,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 22023-2025</t>
+          <t>A 5464-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45784</v>
+        <v>45693.32357638889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16889,7 +16939,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>6.3</v>
+        <v>0.7</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16926,14 +16976,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 23487-2025</t>
+          <t>A 5469-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45792.4653587963</v>
+        <v>45693.32758101852</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16946,7 +16996,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16983,14 +17033,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 8606-2025</t>
+          <t>A 5473-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45710.38600694444</v>
+        <v>45693.33016203704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17003,7 +17053,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17040,14 +17090,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 14969-2025</t>
+          <t>A 5477-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45743.5912962963</v>
+        <v>45693.33332175926</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17060,7 +17110,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17097,14 +17147,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 14964-2025</t>
+          <t>A 11917-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45743.58701388889</v>
+        <v>45376.60135416667</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17117,7 +17167,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17154,14 +17204,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 23544-2025</t>
+          <t>A 29222-2022</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45792.56561342593</v>
+        <v>44750</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17173,8 +17223,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G273" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17211,14 +17266,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 9640-2025</t>
+          <t>A 38048-2022</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45715.83090277778</v>
+        <v>44811</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17231,7 +17286,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17268,14 +17323,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 35069-2023</t>
+          <t>A 62269-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45142</v>
+        <v>45267.63450231482</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17288,7 +17343,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17325,14 +17380,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 12972-2025</t>
+          <t>A 7869-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45734.43846064815</v>
+        <v>45706.69854166666</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17344,13 +17399,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G276" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17387,14 +17437,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 24553-2025</t>
+          <t>A 49300-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45798.44869212963</v>
+        <v>45210.88792824074</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17406,13 +17456,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G277" t="n">
-        <v>2.1</v>
+        <v>5.2</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17449,14 +17494,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 24186-2025</t>
+          <t>A 13178-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45796.82644675926</v>
+        <v>45002</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17469,7 +17514,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17506,14 +17551,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 24383-2025</t>
+          <t>A 12817-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45797.62940972222</v>
+        <v>45384</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17525,13 +17570,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G279" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17568,14 +17608,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 5658-2024</t>
+          <t>A 7870-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45334</v>
+        <v>45706</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17588,7 +17628,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17625,14 +17665,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 24996-2025</t>
+          <t>A 40995-2022</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45799.61603009259</v>
+        <v>44825.49869212963</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17644,13 +17684,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G281" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17687,14 +17722,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 24962-2025</t>
+          <t>A 48338-2024</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45799.57716435185</v>
+        <v>45590.54170138889</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17706,13 +17741,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G282" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17749,14 +17779,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 25271-2025</t>
+          <t>A 15404-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45800.55153935185</v>
+        <v>45019</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17768,13 +17798,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G283" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17811,14 +17836,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 25639-2025</t>
+          <t>A 36556-2022</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45800</v>
+        <v>44804</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17831,7 +17856,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>0.3</v>
+        <v>6</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17868,14 +17893,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 25003-2025</t>
+          <t>A 37656-2023</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45799.62331018518</v>
+        <v>45159.51996527778</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17887,13 +17912,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G285" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17930,14 +17950,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 25093-2025</t>
+          <t>A 18132-2023</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45800.33357638889</v>
+        <v>45040</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17949,13 +17969,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G286" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17992,14 +18007,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 25642-2025</t>
+          <t>A 17452-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45803.60490740741</v>
+        <v>45036</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18012,7 +18027,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -18049,14 +18064,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 27109-2024</t>
+          <t>A 1636-2024</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45471.49974537037</v>
+        <v>45306</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18069,7 +18084,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -18106,14 +18121,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 25794-2025</t>
+          <t>A 10559-2025</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45804.39341435185</v>
+        <v>45721.52329861111</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18125,13 +18140,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G289" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -18168,14 +18178,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 26618-2025</t>
+          <t>A 58138-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45810.30840277778</v>
+        <v>45631</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18225,14 +18235,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 26712-2025</t>
+          <t>A 2917-2024</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45810.46396990741</v>
+        <v>45315.58524305555</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18244,13 +18254,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G291" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -18287,14 +18292,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 44867-2022</t>
+          <t>A 13901-2025</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>44840</v>
+        <v>45737</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18307,7 +18312,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -18344,14 +18349,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 26620-2025</t>
+          <t>A 38903-2024</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45810.31511574074</v>
+        <v>45547</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18364,7 +18369,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -18401,14 +18406,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 26614-2025</t>
+          <t>A 5386-2025</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45810.30189814815</v>
+        <v>45692.62754629629</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18421,7 +18426,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>12.3</v>
+        <v>0.8</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -18458,14 +18463,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 29341-2025</t>
+          <t>A 20602-2025</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45824.5056712963</v>
+        <v>45775.79440972222</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18477,13 +18482,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G295" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -18520,14 +18520,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 29015-2025</t>
+          <t>A 3948-2024</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45821.41212962963</v>
+        <v>45322</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18540,7 +18540,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>2.1</v>
+        <v>6.6</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18577,14 +18577,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 29012-2025</t>
+          <t>A 22023-2025</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45821.40665509259</v>
+        <v>45784</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>4.5</v>
+        <v>6.3</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18634,14 +18634,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 29335-2025</t>
+          <t>A 22021-2025</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45824.49121527778</v>
+        <v>45784</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18653,13 +18653,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G298" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18696,14 +18691,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 29017-2025</t>
+          <t>A 22022-2025</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45821.41775462963</v>
+        <v>45784</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18716,7 +18711,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>2.2</v>
+        <v>12</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18753,14 +18748,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 29023-2025</t>
+          <t>A 9640-2025</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45821.43002314815</v>
+        <v>45715.83090277778</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18773,7 +18768,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18810,14 +18805,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 30150-2025</t>
+          <t>A 14964-2025</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45827.31333333333</v>
+        <v>45743.58701388889</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18829,13 +18824,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G301" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18872,14 +18862,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 32837-2025</t>
+          <t>A 14969-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45839.55925925926</v>
+        <v>45743.5912962963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18892,7 +18882,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18929,14 +18919,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 33053-2025</t>
+          <t>A 8606-2025</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45840.42666666667</v>
+        <v>45710.38600694444</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18949,7 +18939,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18986,14 +18976,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 33861-2025</t>
+          <t>A 23487-2025</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45842.52964120371</v>
+        <v>45792.4653587963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19006,7 +18996,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -19043,14 +19033,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 34410-2025</t>
+          <t>A 23544-2025</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45846.64479166667</v>
+        <v>45792.56561342593</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19100,14 +19090,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 34414-2025</t>
+          <t>A 5658-2024</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45846</v>
+        <v>45334</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19120,7 +19110,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -19157,14 +19147,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 34412-2025</t>
+          <t>A 24383-2025</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45846.64696759259</v>
+        <v>45797.62940972222</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19176,8 +19166,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G307" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -19214,14 +19209,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 34416-2025</t>
+          <t>A 35069-2023</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45846.6525462963</v>
+        <v>45142</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19234,7 +19229,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -19271,14 +19266,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 34592-2025</t>
+          <t>A 12972-2025</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45847.63085648148</v>
+        <v>45734.43846064815</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19290,8 +19285,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G309" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -19328,14 +19328,14 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 19372-2025</t>
+          <t>A 24186-2025</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45769.64199074074</v>
+        <v>45796.82644675926</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19348,7 +19348,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>

--- a/Översikt SKÖVDE.xlsx
+++ b/Översikt SKÖVDE.xlsx
@@ -575,7 +575,7 @@
         <v>46025</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44277</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45743</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>44595</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>45876.88369212963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45979.53326388889</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>45306</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>46014.57848379629</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>45387</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45201</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>44804</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>44495</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45785</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>45506.47185185185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>44447</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45567.37613425926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44949</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>45702.62541666667</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44235</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>44988.39806712963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>45804.59222222222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>45903.58387731481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>44928</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>45635.3708912037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>45204.49358796296</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>45182</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>46045.6518287037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44988</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>44495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44837</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>44442.34412037037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>44421</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>44386</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44594</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>44609.60418981482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>44445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>44417.56894675926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>44391</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>44239</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>44279.44748842593</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44543</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44844.66291666667</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44516</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44834</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44567</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44523.37583333333</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44421</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44277</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44748.33660879629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44748.34445601852</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44585</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>44305</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>44698.71788194445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>44475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>44382.6750462963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>44740</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>44530.87890046297</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>44698.72146990741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>44847</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>44306</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>44299</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>44635.4016087963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>44823</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>44629.92052083334</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>44481.61975694444</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>44594</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>44762.55376157408</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>44809</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>44743.39986111111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>44959.55680555556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>45201</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>45197.49450231482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>45736.32023148148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>44353.76177083333</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>45322.65063657407</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>45019</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>45539.67663194444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>45148.64981481482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>45749.50174768519</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>45721.5255787037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>44601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44291.42980324074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>44903</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>45230</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>45756</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>45799.61603009259</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>45093.42945601852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>45163.40059027778</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>45755.61774305555</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>45798.44869212963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>45799.57716435185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>45799.62331018518</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>45803.60490740741</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>45259.86798611111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>45471.49974537037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>45215.37692129629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>45800.55153935185</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>45800</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>45800.33357638889</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>45884.37276620371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>45804.39341435185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>45853</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>45161</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>45810.46396990741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>45888</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>45889.33467592593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45889.34508101852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>45810.30840277778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>45775.79165509259</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45810.31511574074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>45699.47835648148</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>44840</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>45635.36013888889</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>45810.30189814815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>45439.49229166667</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>44523.37474537037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>45709</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>45714</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>45385.46519675926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>45894.31541666666</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>45754.32112268519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>45821.40665509259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>45821.43002314815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>45824.5056712963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>45908.58097222223</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>45821.41775462963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>45824.49121527778</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>45821.41212962963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>45827.31333333333</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>45714</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44235</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>45267.6362037037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>44862</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>45929.43701388889</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>45259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>45594.46991898148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>45905</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>45267.659375</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>45932.44273148148</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>45839.55925925926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>45932.47384259259</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>45670.6265162037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>45840.42666666667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>45937.46953703704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>45936.86329861111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>45301</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>45842.52964120371</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>45846.6525462963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10321,7 +10321,7 @@
         <v>45204</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         <v>45846.64479166667</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10435,7 +10435,7 @@
         <v>45846</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>45846.64696759259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10549,7 +10549,7 @@
         <v>45847.63085648148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>45947.64515046297</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45947</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>45947</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>45322</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>45769.64199074074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>45211.44688657407</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44586</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>45953.37298611111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11067,7 +11067,7 @@
         <v>44292.64259259259</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>45958.48887731481</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>45530.63609953703</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>45401.23033564815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>44963.48101851852</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11352,7 +11352,7 @@
         <v>44938.60303240741</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11409,7 +11409,7 @@
         <v>45138.55064814815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>45320</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         <v>44495</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11580,7 +11580,7 @@
         <v>45645</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>46010</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>46010</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>45972.3575462963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         <v>44600.39609953704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>46009</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>46009</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>44739.72042824074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>46017.75608796296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>45560</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>45693.32520833334</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>45693.32571759259</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>45306.66873842593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>45693.3281712963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>45531</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>45754.48701388889</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45324</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         <v>45245</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         <v>45636.80626157407</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>44420</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>45989.45657407407</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>45694.46822916667</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>45989.44545138889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>46035.40652777778</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>45315.43131944445</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>45992</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>45645.65461805555</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44363</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>45013.42783564814</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>45586</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>45999.68519675926</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>45086.51451388889</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>46001.54215277778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>46036</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>46001.54255787037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>46001.54291666667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>45006</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>46000.48894675926</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45224</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>46002.53145833333</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>46002.53287037037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>46045</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>44425</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>44796</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>46038</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45693.32910879629</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>45693.33128472222</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>45267.63773148148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>46008</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>45076.59756944444</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>46051.66454861111</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>45593.41140046297</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>46008</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>45693.32645833334</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>45693.32864583333</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>45693.33061342593</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>45693.33496527778</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>45693.33540509259</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>46052</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>45391</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>45742.41969907407</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>46013.35648148148</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>46013.40626157408</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>44599.43216435185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>46013.41452546296</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>46052</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44750.58076388889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44636</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44462.82854166667</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>45105.63884259259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>45314</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>45259</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44938.598125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>45685.70467592592</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>44321.53975694445</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>44820</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>45299</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>45169.74189814815</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>45093.41903935185</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44292.64375</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>45590.36800925926</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44418</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45586</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>45082</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>45687</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>45104</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>45334</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>45138</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>45134</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>45590.54072916666</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45418</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>45301</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>45391</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>45693.32357638889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>45693.32758101852</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>45693.33016203704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>45693.33332175926</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>45376.60135416667</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44750</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44811</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>45267.63450231482</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>45706.69854166666</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>45210.88792824074</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>45002</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>45384</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>45706</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>44825.49869212963</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>45590.54170138889</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         <v>45019</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>44804</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>45159.51996527778</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>45040</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>45036</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>45306</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>45721.52329861111</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>45631</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>45315.58524305555</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>45737</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>45547</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>45692.62754629629</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>45775.79440972222</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>45322</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>45784</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>45784</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>45784</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>45715.83090277778</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>45743.58701388889</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>45743.5912962963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>45710.38600694444</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>45792.4653587963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>45792.56561342593</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>45334</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>45797.62940972222</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>45142</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>45734.43846064815</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45796.82644675926</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>

--- a/Översikt SKÖVDE.xlsx
+++ b/Översikt SKÖVDE.xlsx
@@ -575,7 +575,7 @@
         <v>46025</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44277</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45743</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>44595</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>45876.88369212963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45979.53326388889</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>45306</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>46014.57848379629</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>45387</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45201</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>44804</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>44495</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45785</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>45506.47185185185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>44447</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45567.37613425926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44949</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>45702.62541666667</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44235</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>44988.39806712963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>45804.59222222222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>45903.58387731481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>44928</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>45635.3708912037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>45204.49358796296</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>45182</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>46045.6518287037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44988</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>44495</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44837</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>44442.34412037037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>44421</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>44386</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44594</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>44609.60418981482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>44445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>44417.56894675926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>44391</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>44239</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>44279.44748842593</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44543</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44844.66291666667</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44516</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44834</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44567</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44523.37583333333</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44421</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44277</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44748.33660879629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44748.34445601852</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44585</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44614</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>44305</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>44698.71788194445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>44475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>44382.6750462963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>44740</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>44530.87890046297</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>44698.72146990741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>44847</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
         <v>44306</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>44299</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>44635.4016087963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>44823</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>44629.92052083334</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>44481.61975694444</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>44594</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>44762.55376157408</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>44809</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>44743.39986111111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>44959.55680555556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>45201</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>45197.49450231482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>45736.32023148148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>44353.76177083333</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>45322.65063657407</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>45019</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>45539.67663194444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>45148.64981481482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>45749.50174768519</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
         <v>45721.5255787037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6345,7 +6345,7 @@
         <v>44601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         <v>44291.42980324074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>44903</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>45230</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>45756</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>45799.61603009259</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>45093.42945601852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>45163.40059027778</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>45755.61774305555</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>45798.44869212963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>45799.57716435185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>45799.62331018518</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>45803.60490740741</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>45259.86798611111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>45471.49974537037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>45215.37692129629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>45800.55153935185</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>45800</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>45800.33357638889</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>45884.37276620371</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>45804.39341435185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>45853</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>45161</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>45810.46396990741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>45888</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>45889.33467592593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45889.34508101852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>45810.30840277778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>45775.79165509259</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45810.31511574074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>45699.47835648148</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>44840</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>45635.36013888889</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         <v>45810.30189814815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>45439.49229166667</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         <v>44523.37474537037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>45709</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>45714</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>45385.46519675926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>45894.31541666666</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>45754.32112268519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>45821.40665509259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         <v>45821.43002314815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         <v>45824.5056712963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         <v>45908.58097222223</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>45821.41775462963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>45824.49121527778</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>45821.41212962963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         <v>45827.31333333333</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>45714</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         <v>44235</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         <v>45267.6362037037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>44862</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         <v>45929.43701388889</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         <v>45259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>45594.46991898148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         <v>45905</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>45267.659375</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         <v>45932.44273148148</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>45839.55925925926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>45932.47384259259</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9922,7 +9922,7 @@
         <v>45670.6265162037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>45840.42666666667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>45937.46953703704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>45936.86329861111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>45301</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>45842.52964120371</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>45846.6525462963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10321,7 +10321,7 @@
         <v>45204</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
         <v>45846.64479166667</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10435,7 +10435,7 @@
         <v>45846</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>45846.64696759259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10549,7 +10549,7 @@
         <v>45847.63085648148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10606,7 +10606,7 @@
         <v>45947.64515046297</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45947</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         <v>45947</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>45322</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>45769.64199074074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>45211.44688657407</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44586</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>45953.37298611111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11067,7 +11067,7 @@
         <v>44292.64259259259</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>45958.48887731481</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>45530.63609953703</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>45401.23033564815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11295,7 +11295,7 @@
         <v>44963.48101851852</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11352,7 +11352,7 @@
         <v>44938.60303240741</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11409,7 +11409,7 @@
         <v>45138.55064814815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
         <v>45320</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         <v>44495</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11580,7 +11580,7 @@
         <v>45645</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>46010</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>46010</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>45972.3575462963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         <v>44600.39609953704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>46009</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>46009</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>44739.72042824074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>46017.75608796296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>45560</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>45693.32520833334</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>45693.32571759259</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>45306.66873842593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>45693.3281712963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>45531</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>45754.48701388889</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45324</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         <v>45245</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         <v>45636.80626157407</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>44420</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>45989.45657407407</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>45694.46822916667</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>45989.44545138889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>46035.40652777778</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>45315.43131944445</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>45992</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>45645.65461805555</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44363</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>45013.42783564814</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>45586</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>45999.68519675926</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>45086.51451388889</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>46001.54215277778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>46036</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>46001.54255787037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>46001.54291666667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>45006</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>46000.48894675926</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45224</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>46002.53145833333</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>46002.53287037037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>46045</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>44425</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>44796</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>46038</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>45693.32910879629</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>45693.33128472222</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>45267.63773148148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>46008</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>45076.59756944444</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>46051.66454861111</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>45593.41140046297</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>46008</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>45693.32645833334</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>45693.32864583333</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>45693.33061342593</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>45693.33496527778</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>45693.33540509259</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>46052</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>45391</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>45742.41969907407</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>46013.35648148148</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>46013.40626157408</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>44599.43216435185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>46013.41452546296</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>46052</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>44750.58076388889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>44636</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>44462.82854166667</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>45105.63884259259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>45314</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>45259</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44938.598125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15781,7 +15781,7 @@
         <v>45685.70467592592</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15838,7 +15838,7 @@
         <v>44321.53975694445</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>44820</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>45299</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>45169.74189814815</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>45093.41903935185</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44292.64375</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>45590.36800925926</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44418</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>45586</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>45082</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>45687</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>45104</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>45334</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>45138</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>45134</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>45590.54072916666</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>45418</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>45301</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>45391</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>45693.32357638889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>45693.32758101852</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>45693.33016203704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>45693.33332175926</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>45376.60135416667</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44750</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44811</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>45267.63450231482</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>45706.69854166666</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>45210.88792824074</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>45002</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>45384</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>45706</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>44825.49869212963</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>45590.54170138889</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         <v>45019</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>44804</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>45159.51996527778</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17957,7 +17957,7 @@
         <v>45040</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18014,7 +18014,7 @@
         <v>45036</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18071,7 +18071,7 @@
         <v>45306</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>45721.52329861111</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>45631</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>45315.58524305555</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>45737</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>45547</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>45692.62754629629</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>45775.79440972222</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18527,7 +18527,7 @@
         <v>45322</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>45784</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>45784</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>45784</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>45715.83090277778</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>45743.58701388889</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>45743.5912962963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>45710.38600694444</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>45792.4653587963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>45792.56561342593</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>45334</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>45797.62940972222</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>45142</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>45734.43846064815</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45796.82644675926</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>

--- a/Översikt SKÖVDE.xlsx
+++ b/Översikt SKÖVDE.xlsx
@@ -575,7 +575,7 @@
         <v>46025</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44277</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45743</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>44595</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>45876.88369212963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,14 +1029,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 1630-2024</t>
+          <t>A 63699-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45306</v>
+        <v>46014.57848379629</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1049,19 +1049,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6.1</v>
+        <v>1.2</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1073,15 +1073,195 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>4</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Gullklöver
+Kungsspindling
+Brun klibbskivling
+Diskvaxskivling</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 63699-2025 artfynd.xlsx", "A 63699-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 63699-2025 karta.png", "A 63699-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 63699-2025 FSC-klagomål.docx", "A 63699-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 63699-2025 FSC-klagomål mail.docx", "A 63699-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 63699-2025 tillsynsbegäran.docx", "A 63699-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 63699-2025 tillsynsbegäran mail.docx", "A 63699-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 57163-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45979.53326388889</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Motaggsvamp
+Orange taggsvamp
+Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 57163-2025 artfynd.xlsx", "A 57163-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 57163-2025 karta.png", "A 57163-2025")</f>
+        <v/>
+      </c>
+      <c r="U8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/knärot/A 57163-2025 karta knärot.png", "A 57163-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 57163-2025 FSC-klagomål.docx", "A 57163-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 57163-2025 FSC-klagomål mail.docx", "A 57163-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 57163-2025 tillsynsbegäran.docx", "A 57163-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 57163-2025 tillsynsbegäran mail.docx", "A 57163-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 1630-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Entita
@@ -1089,219 +1269,39 @@
 Grovticka</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 1630-2024 artfynd.xlsx", "A 1630-2024")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 1630-2024 karta.png", "A 1630-2024")</f>
         <v/>
       </c>
-      <c r="U7">
+      <c r="U9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/knärot/A 1630-2024 karta knärot.png", "A 1630-2024")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 1630-2024 FSC-klagomål.docx", "A 1630-2024")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 1630-2024 FSC-klagomål mail.docx", "A 1630-2024")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 1630-2024 tillsynsbegäran.docx", "A 1630-2024")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 1630-2024 tillsynsbegäran mail.docx", "A 1630-2024")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/fåglar/A 1630-2024 prioriterade fågelarter.docx", "A 1630-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 57163-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45979.53326388889</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>3</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Motaggsvamp
-Orange taggsvamp
-Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 57163-2025 artfynd.xlsx", "A 57163-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 57163-2025 karta.png", "A 57163-2025")</f>
-        <v/>
-      </c>
-      <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/knärot/A 57163-2025 karta knärot.png", "A 57163-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 57163-2025 FSC-klagomål.docx", "A 57163-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 57163-2025 FSC-klagomål mail.docx", "A 57163-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 57163-2025 tillsynsbegäran.docx", "A 57163-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 57163-2025 tillsynsbegäran mail.docx", "A 57163-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 63699-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>46014.57848379629</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Gullklöver
-Kungsspindling
-Brun klibbskivling
-Diskvaxskivling</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 63699-2025 artfynd.xlsx", "A 63699-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 63699-2025 karta.png", "A 63699-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 63699-2025 FSC-klagomål.docx", "A 63699-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 63699-2025 FSC-klagomål mail.docx", "A 63699-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 63699-2025 tillsynsbegäran.docx", "A 63699-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 63699-2025 tillsynsbegäran mail.docx", "A 63699-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>45387</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45506.47185185185</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>45201</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>44804</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>44495</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45785</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>44447</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45567.37613425926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44949</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>45702.62541666667</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44988.39806712963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>45804.59222222222</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2446,14 +2446,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 4464-2026</t>
+          <t>A 42017-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>46045.6518287037</v>
+        <v>45903.58387731481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2465,14 +2465,19 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2500,124 +2505,119 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
+          <t>Mattlummer</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 42017-2025 artfynd.xlsx", "A 42017-2025")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 42017-2025 karta.png", "A 42017-2025")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 42017-2025 FSC-klagomål.docx", "A 42017-2025")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 42017-2025 FSC-klagomål mail.docx", "A 42017-2025")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 42017-2025 tillsynsbegäran.docx", "A 42017-2025")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 42017-2025 tillsynsbegäran mail.docx", "A 42017-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 4464-2026</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>46045.6518287037</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
           <t>Myskmadra</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 4464-2026 artfynd.xlsx", "A 4464-2026")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 4464-2026 karta.png", "A 4464-2026")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 4464-2026 FSC-klagomål.docx", "A 4464-2026")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 4464-2026 FSC-klagomål mail.docx", "A 4464-2026")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 4464-2026 tillsynsbegäran.docx", "A 4464-2026")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 4464-2026 tillsynsbegäran mail.docx", "A 4464-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 42017-2025</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45903.58387731481</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Mattlummer</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 42017-2025 artfynd.xlsx", "A 42017-2025")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 42017-2025 karta.png", "A 42017-2025")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 42017-2025 FSC-klagomål.docx", "A 42017-2025")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 42017-2025 FSC-klagomål mail.docx", "A 42017-2025")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 42017-2025 tillsynsbegäran.docx", "A 42017-2025")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 42017-2025 tillsynsbegäran mail.docx", "A 42017-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>44928</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>45635.3708912037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>45204.49358796296</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>45182</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>44988</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>44495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>44817</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44837</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44442.34412037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>44421</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44386</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44594</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>44609.60418981482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44445</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>44417.56894675926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>44391</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>44279.44748842593</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44543</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         <v>44516</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>44844.66291666667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44834</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>44567</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>44523.37583333333</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>44421</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44277</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>44748.33660879629</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44748.34445601852</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>44585</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44614</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>44305</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44698.71788194445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44382.6750462963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>44740</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44530.87890046297</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>44698.72146990741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>44847</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44306</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>44299</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44635.4016087963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44823</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44629.92052083334</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44481.61975694444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44594</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>44762.55376157408</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44809</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44743.39986111111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>44959.55680555556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>45201</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>45197.49450231482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>45736.32023148148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44353.76177083333</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>45322.65063657407</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>45019</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5963,14 +5963,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 37204-2024</t>
+          <t>A 17326-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45539.67663194444</v>
+        <v>45756</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6020,14 +6020,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 35919-2023</t>
+          <t>A 9640-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45148.64981481482</v>
+        <v>45715.83090277778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>6.6</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6077,14 +6077,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 15952-2025</t>
+          <t>A 61130-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45749.50174768519</v>
+        <v>46000.48894675926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6096,13 +6096,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6139,14 +6134,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 10560-2025</t>
+          <t>A 14964-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45721.5255787037</v>
+        <v>45743.58701388889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6159,7 +6154,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6196,14 +6191,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 58929-2022</t>
+          <t>A 37204-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44903</v>
+        <v>45539.67663194444</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6215,13 +6210,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6258,14 +6248,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 5658-2024</t>
+          <t>A 14969-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45334</v>
+        <v>45743.5912962963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6278,7 +6268,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6315,14 +6305,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 24383-2025</t>
+          <t>A 8606-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45797.62940972222</v>
+        <v>45710.38600694444</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6334,13 +6324,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6377,14 +6362,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 35069-2023</t>
+          <t>A 35919-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45142</v>
+        <v>45148.64981481482</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6397,7 +6382,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.5</v>
+        <v>6.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6434,14 +6419,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 12972-2025</t>
+          <t>A 23487-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45734.43846064815</v>
+        <v>45792.4653587963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6453,13 +6438,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6496,14 +6476,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 6598-2022</t>
+          <t>A 23544-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44601</v>
+        <v>45792.56561342593</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6515,13 +6495,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6558,14 +6533,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 16113-2021</t>
+          <t>A 15952-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44291.42980324074</v>
+        <v>45749.50174768519</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6577,8 +6552,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6615,14 +6595,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 17326-2025</t>
+          <t>A 10560-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45756</v>
+        <v>45721.5255787037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6635,7 +6615,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6672,14 +6652,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 53740-2023</t>
+          <t>A 38499-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45230</v>
+        <v>45884.37276620371</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6691,8 +6671,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6729,14 +6714,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 24186-2025</t>
+          <t>A 58929-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45796.82644675926</v>
+        <v>44903</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6748,8 +6733,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6786,14 +6776,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 24996-2025</t>
+          <t>A 5658-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45799.61603009259</v>
+        <v>45334</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6805,13 +6795,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6848,14 +6833,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 24553-2025</t>
+          <t>A 24383-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45798.44869212963</v>
+        <v>45797.62940972222</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6869,11 +6854,11 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6910,14 +6895,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 24962-2025</t>
+          <t>A 35199-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45799.57716435185</v>
+        <v>45853</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6929,13 +6914,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6972,14 +6952,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 25003-2025</t>
+          <t>A 35069-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45799.62331018518</v>
+        <v>45142</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6991,13 +6971,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7034,14 +7009,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 25642-2025</t>
+          <t>A 12972-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45803.60490740741</v>
+        <v>45734.43846064815</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7053,8 +7028,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7091,14 +7071,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 26737-2023</t>
+          <t>A 6598-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45093.42945601852</v>
+        <v>44601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7110,8 +7090,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7148,14 +7133,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 27109-2024</t>
+          <t>A 16113-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45471.49974537037</v>
+        <v>44291.42980324074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7168,7 +7153,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7205,14 +7190,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 25271-2025</t>
+          <t>A 24186-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45800.55153935185</v>
+        <v>45796.82644675926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7224,13 +7209,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7267,14 +7247,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 38750-2023</t>
+          <t>A 39073-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45163.40059027778</v>
+        <v>45888</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7286,8 +7266,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7324,14 +7309,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 17070-2025</t>
+          <t>A 39238-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45755.61774305555</v>
+        <v>45889.33467592593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7343,13 +7328,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>0.9</v>
+        <v>6.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7386,14 +7366,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 7748-2026</t>
+          <t>A 39243-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46062.54561342593</v>
+        <v>45889.34508101852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7406,7 +7386,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>5.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7443,14 +7423,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 25639-2025</t>
+          <t>A 20600-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45800</v>
+        <v>45775.79165509259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7463,7 +7443,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7500,14 +7480,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 25093-2025</t>
+          <t>A 58456-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45800.33357638889</v>
+        <v>45635.36013888889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7519,13 +7499,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7562,14 +7537,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 25794-2025</t>
+          <t>A 24996-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45804.39341435185</v>
+        <v>45799.61603009259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7583,11 +7558,11 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7624,14 +7599,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 38499-2025</t>
+          <t>A 53740-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45884.37276620371</v>
+        <v>45230</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7643,13 +7618,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7686,14 +7656,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 60558-2023</t>
+          <t>A 61699-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45259.86798611111</v>
+        <v>46002.53145833333</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7706,7 +7676,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7743,14 +7713,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 35199-2025</t>
+          <t>A 61700-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45853</v>
+        <v>46002.53287037037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7763,7 +7733,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7800,14 +7770,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 63751-2025</t>
+          <t>A 24553-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46017.75608796296</v>
+        <v>45798.44869212963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7819,8 +7789,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7857,14 +7832,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 7746-2026</t>
+          <t>A 24962-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46062.54372685185</v>
+        <v>45799.57716435185</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7876,8 +7851,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>6.7</v>
+        <v>0.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7914,14 +7894,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 49954-2023</t>
+          <t>A 25003-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45215.37692129629</v>
+        <v>45799.62331018518</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7933,8 +7913,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7971,14 +7956,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 26712-2025</t>
+          <t>A 25642-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45810.46396990741</v>
+        <v>45803.60490740741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7990,13 +7975,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8033,14 +8013,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 26618-2025</t>
+          <t>A 8557-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45810.30840277778</v>
+        <v>45709</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8053,7 +8033,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8090,14 +8070,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 26620-2025</t>
+          <t>A 27109-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45810.31511574074</v>
+        <v>45471.49974537037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8110,7 +8090,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8147,14 +8127,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 44867-2022</t>
+          <t>A 25271-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44840</v>
+        <v>45800.55153935185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8166,8 +8146,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8204,14 +8189,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 38264-2023</t>
+          <t>A 25639-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45161</v>
+        <v>45800</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8224,7 +8209,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8261,14 +8246,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 26614-2025</t>
+          <t>A 25093-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45810.30189814815</v>
+        <v>45800.33357638889</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8280,8 +8265,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>12.3</v>
+        <v>1.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8318,14 +8308,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 39073-2025</t>
+          <t>A 39993-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45888</v>
+        <v>45894.31541666666</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8337,13 +8327,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8380,14 +8365,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 39238-2025</t>
+          <t>A 25794-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45889.33467592593</v>
+        <v>45804.39341435185</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8399,8 +8384,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>6.8</v>
+        <v>2.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8437,14 +8427,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 39243-2025</t>
+          <t>A 26737-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45889.34508101852</v>
+        <v>45093.42945601852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8457,7 +8447,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>9.199999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8494,14 +8484,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 6419-2025</t>
+          <t>A 38750-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45699.47835648148</v>
+        <v>45163.40059027778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8513,13 +8503,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>0.3</v>
+        <v>3.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8556,14 +8541,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 20600-2025</t>
+          <t>A 17070-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45775.79165509259</v>
+        <v>45755.61774305555</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8575,8 +8560,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8613,14 +8603,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 20912-2024</t>
+          <t>A 26712-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45439.49229166667</v>
+        <v>45810.46396990741</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8632,8 +8622,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8670,14 +8665,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 58456-2024</t>
+          <t>A 26618-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45635.36013888889</v>
+        <v>45810.30840277778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8690,7 +8685,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8727,14 +8722,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 67134-2021</t>
+          <t>A 60558-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44523.37474537037</v>
+        <v>45259.86798611111</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8744,11 +8739,6 @@
       <c r="E126" t="inlineStr">
         <is>
           <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -8789,14 +8779,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 9284-2025</t>
+          <t>A 26620-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45714</v>
+        <v>45810.31511574074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8808,13 +8798,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8851,14 +8836,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 12942-2024</t>
+          <t>A 44867-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45385.46519675926</v>
+        <v>44840</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8871,7 +8856,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8908,14 +8893,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 29012-2025</t>
+          <t>A 26614-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45821.40665509259</v>
+        <v>45810.30189814815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8928,7 +8913,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4.5</v>
+        <v>12.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8965,14 +8950,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 29023-2025</t>
+          <t>A 49954-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45821.43002314815</v>
+        <v>45215.37692129629</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8985,7 +8970,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9022,14 +9007,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 29341-2025</t>
+          <t>A 4335-2026</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45824.5056712963</v>
+        <v>46045</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9041,13 +9026,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9084,14 +9064,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 29017-2025</t>
+          <t>A 38264-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45821.41775462963</v>
+        <v>45161</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9104,7 +9084,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9141,14 +9121,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 29335-2025</t>
+          <t>A 29012-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45824.49121527778</v>
+        <v>45821.40665509259</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9160,13 +9140,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9203,14 +9178,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 29015-2025</t>
+          <t>A 6419-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45821.41212962963</v>
+        <v>45699.47835648148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9222,8 +9197,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9260,14 +9240,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 30150-2025</t>
+          <t>A 29023-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45827.31333333333</v>
+        <v>45821.43002314815</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9279,13 +9259,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9322,14 +9297,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 16621-2025</t>
+          <t>A 2901-2026</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45754.32112268519</v>
+        <v>46038</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9342,7 +9317,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>6.8</v>
+        <v>1.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9379,14 +9354,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 8557-2025</t>
+          <t>A 29341-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45709</v>
+        <v>45824.5056712963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9398,8 +9373,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9436,14 +9416,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 39993-2025</t>
+          <t>A 42837-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45894.31541666666</v>
+        <v>45908.58097222223</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9456,7 +9436,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9493,14 +9473,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 32837-2025</t>
+          <t>A 20912-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45839.55925925926</v>
+        <v>45439.49229166667</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9513,7 +9493,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9550,14 +9530,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 9281-2025</t>
+          <t>A 29017-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45714</v>
+        <v>45821.41775462963</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9569,13 +9549,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9612,14 +9587,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 33053-2025</t>
+          <t>A 29335-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45840.42666666667</v>
+        <v>45824.49121527778</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9631,8 +9606,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9669,14 +9649,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 62271-2023</t>
+          <t>A 29015-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45267.6362037037</v>
+        <v>45821.41212962963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9689,7 +9669,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9726,14 +9706,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 33861-2025</t>
+          <t>A 67134-2021</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45842.52964120371</v>
+        <v>44523.37474537037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9745,8 +9725,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9783,14 +9768,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 34416-2025</t>
+          <t>A 30150-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45846.6525462963</v>
+        <v>45827.31333333333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9802,8 +9787,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9840,14 +9830,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 50829-2022</t>
+          <t>A 62803-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44862</v>
+        <v>46008</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9860,7 +9850,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.3</v>
+        <v>6.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9897,14 +9887,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 34410-2025</t>
+          <t>A 9284-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45846.64479166667</v>
+        <v>45714</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9916,8 +9906,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9954,14 +9949,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 34414-2025</t>
+          <t>A 12942-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45846</v>
+        <v>45385.46519675926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9974,7 +9969,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10011,14 +10006,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 34412-2025</t>
+          <t>A 5785-2026</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45846.64696759259</v>
+        <v>46051.66454861111</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10031,7 +10026,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10068,14 +10063,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 34592-2025</t>
+          <t>A 62811-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45847.63085648148</v>
+        <v>46008</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10088,7 +10083,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10125,14 +10120,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 19372-2025</t>
+          <t>A 16621-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45769.64199074074</v>
+        <v>45754.32112268519</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10145,7 +10140,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>6.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10182,14 +10177,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 60588-2023</t>
+          <t>A 6092-2026</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45259</v>
+        <v>46052</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10202,7 +10197,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10239,14 +10234,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 48983-2024</t>
+          <t>A 32837-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45594.46991898148</v>
+        <v>45839.55925925926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10259,7 +10254,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10296,14 +10291,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 62290-2023</t>
+          <t>A 33053-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45267.659375</v>
+        <v>45840.42666666667</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10316,7 +10311,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10353,14 +10348,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 42837-2025</t>
+          <t>A 46923-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45908.58097222223</v>
+        <v>45929.43701388889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10373,7 +10368,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10410,14 +10405,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 1629-2025</t>
+          <t>A 33861-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45670.6265162037</v>
+        <v>45842.52964120371</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10430,7 +10425,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>11.8</v>
+        <v>3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10467,14 +10462,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 950-2024</t>
+          <t>A 9281-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45301</v>
+        <v>45714</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10486,8 +10481,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10524,14 +10524,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 47900-2023</t>
+          <t>A 34416-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45204</v>
+        <v>45846.6525462963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10544,7 +10544,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.8</v>
+        <v>4.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10581,14 +10581,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 3951-2024</t>
+          <t>A 42579-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45322</v>
+        <v>45905</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10601,7 +10601,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>10.7</v>
+        <v>3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10638,14 +10638,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 49416-2023</t>
+          <t>A 34410-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45211.44688657407</v>
+        <v>45846.64479166667</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10695,14 +10695,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 3670-2022</t>
+          <t>A 34414-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44586</v>
+        <v>45846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10752,14 +10752,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 16277-2021</t>
+          <t>A 34412-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44292.64259259259</v>
+        <v>45846.64696759259</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10809,14 +10809,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 46923-2025</t>
+          <t>A 34592-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45929.43701388889</v>
+        <v>45847.63085648148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10866,14 +10866,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 35280-2024</t>
+          <t>A 47869-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45530.63609953703</v>
+        <v>45932.44273148148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10923,14 +10923,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 15388-2024</t>
+          <t>A 47892-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45401.23033564815</v>
+        <v>45932.47384259259</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10980,14 +10980,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 42579-2025</t>
+          <t>A 62271-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45905</v>
+        <v>45267.6362037037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11037,14 +11037,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 5808-2023</t>
+          <t>A 50829-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44963.48101851852</v>
+        <v>44862</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11094,14 +11094,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 47869-2025</t>
+          <t>A 19372-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45932.44273148148</v>
+        <v>45769.64199074074</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11114,7 +11114,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11151,14 +11151,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 47892-2025</t>
+          <t>A 48890-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45932.47384259259</v>
+        <v>45937.46953703704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11208,14 +11208,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 1784-2023</t>
+          <t>A 48766-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44938.60303240741</v>
+        <v>45936.86329861111</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11265,14 +11265,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 34248-2023</t>
+          <t>A 63428-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45138.55064814815</v>
+        <v>46013.35648148148</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11322,14 +11322,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 3481-2024</t>
+          <t>A 63449-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45320</v>
+        <v>46013.40626157408</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>7.7</v>
+        <v>1.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11379,14 +11379,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 60117-2021</t>
+          <t>A 63453-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44495</v>
+        <v>46013.41452546296</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>5.9</v>
+        <v>1.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11436,14 +11436,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 48890-2025</t>
+          <t>A 60588-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45937.46953703704</v>
+        <v>45259</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11493,14 +11493,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 61336-2024</t>
+          <t>A 48983-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45645</v>
+        <v>45594.46991898148</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11550,14 +11550,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 48766-2025</t>
+          <t>A 6093-2026</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45936.86329861111</v>
+        <v>46052</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11607,14 +11607,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 6224-2022</t>
+          <t>A 51217-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44600.39609953704</v>
+        <v>45947.64515046297</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11664,14 +11664,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 26699-2022</t>
+          <t>A 62290-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44739.72042824074</v>
+        <v>45267.659375</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11721,14 +11721,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 41722-2024</t>
+          <t>A 51155-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45560</v>
+        <v>45947</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>10.1</v>
+        <v>4.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11778,14 +11778,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 5465-2025</t>
+          <t>A 51193-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45693.32520833334</v>
+        <v>45947</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>7.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11835,14 +11835,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 5466-2025</t>
+          <t>A 52172-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45693.32571759259</v>
+        <v>45953.37298611111</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11854,8 +11854,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11892,14 +11897,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 1641-2024</t>
+          <t>A 1629-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45306.66873842593</v>
+        <v>45670.6265162037</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11912,7 +11917,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.5</v>
+        <v>11.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11949,14 +11954,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 51217-2025</t>
+          <t>A 53153-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45947.64515046297</v>
+        <v>45958.48887731481</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11969,7 +11974,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12006,14 +12011,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 5470-2025</t>
+          <t>A 950-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45693.3281712963</v>
+        <v>45301</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12026,7 +12031,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12063,14 +12068,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 35610-2024</t>
+          <t>A 47900-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45531</v>
+        <v>45204</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12083,7 +12088,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>11.7</v>
+        <v>0.8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12120,14 +12125,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 51155-2025</t>
+          <t>A 7748-2026</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45947</v>
+        <v>46062.54561342593</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12140,7 +12145,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12177,14 +12182,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 51193-2025</t>
+          <t>A 63729-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45947</v>
+        <v>46010</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12196,8 +12201,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>7.2</v>
+        <v>4.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12234,14 +12244,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 16716-2025</t>
+          <t>A 63730-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45754.48701388889</v>
+        <v>46010</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12253,8 +12263,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12291,14 +12306,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 4237-2024</t>
+          <t>A 55642-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45324</v>
+        <v>45972.3575462963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12311,7 +12326,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12348,14 +12363,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 58342-2023</t>
+          <t>A 63375-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45245</v>
+        <v>46009</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12367,8 +12382,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12405,14 +12425,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 52172-2025</t>
+          <t>A 63751-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45953.37298611111</v>
+        <v>46017.75608796296</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12424,13 +12444,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12467,14 +12482,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 59053-2024</t>
+          <t>A 7746-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45636.80626157407</v>
+        <v>46062.54372685185</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12487,7 +12502,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.3</v>
+        <v>6.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12524,14 +12539,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 40712-2021</t>
+          <t>A 63374-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44420</v>
+        <v>46009</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12543,8 +12558,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12581,14 +12601,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 5714-2025</t>
+          <t>A 3951-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45694.46822916667</v>
+        <v>45322</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12601,7 +12621,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.1</v>
+        <v>10.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12638,14 +12658,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 53153-2025</t>
+          <t>A 49416-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45958.48887731481</v>
+        <v>45211.44688657407</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12658,7 +12678,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12695,14 +12715,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 2858-2024</t>
+          <t>A 3670-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45315.43131944445</v>
+        <v>44586</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12715,7 +12735,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12752,14 +12772,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 61213-2024</t>
+          <t>A 16277-2021</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45645.65461805555</v>
+        <v>44292.64259259259</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12772,7 +12792,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12809,14 +12829,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 30034-2021</t>
+          <t>A 35280-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44363</v>
+        <v>45530.63609953703</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12829,7 +12849,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12866,14 +12886,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 14552-2023</t>
+          <t>A 15388-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45013.42783564814</v>
+        <v>45401.23033564815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12886,7 +12906,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12923,14 +12943,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 63729-2025</t>
+          <t>A 5808-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46010</v>
+        <v>44963.48101851852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12942,13 +12962,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12985,14 +13000,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 63730-2025</t>
+          <t>A 1784-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46010</v>
+        <v>44938.60303240741</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13004,13 +13019,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13047,14 +13057,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 55642-2025</t>
+          <t>A 34248-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45972.3575462963</v>
+        <v>45138.55064814815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13067,7 +13077,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13104,14 +13114,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 47466-2024</t>
+          <t>A 3481-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45586</v>
+        <v>45320</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13124,7 +13134,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.1</v>
+        <v>7.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13161,14 +13171,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 63375-2025</t>
+          <t>A 59384-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46009</v>
+        <v>45989.45657407407</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13182,11 +13192,11 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13223,14 +13233,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 25168-2023</t>
+          <t>A 59366-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45086.51451388889</v>
+        <v>45989.44545138889</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13242,8 +13252,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13280,14 +13295,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 63374-2025</t>
+          <t>A 60117-2021</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>46009</v>
+        <v>44495</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13299,13 +13314,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>3.4</v>
+        <v>5.9</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13342,14 +13352,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 13669-2023</t>
+          <t>A 61336-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45006</v>
+        <v>45645</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13362,7 +13372,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13399,14 +13409,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 52377-2023</t>
+          <t>A 1844-2026</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45224</v>
+        <v>46035.40652777778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13419,7 +13429,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13456,14 +13466,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 41942-2021</t>
+          <t>A 6224-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44425</v>
+        <v>44600.39609953704</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13476,7 +13486,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13513,14 +13523,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 34834-2022</t>
+          <t>A 26699-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44796</v>
+        <v>44739.72042824074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13570,14 +13580,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 5472-2025</t>
+          <t>A 41722-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45693.32910879629</v>
+        <v>45560</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13590,7 +13600,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.1</v>
+        <v>10.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13627,14 +13637,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 5476-2025</t>
+          <t>A 59893-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45693.33128472222</v>
+        <v>45992</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13684,14 +13694,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 62272-2023</t>
+          <t>A 5465-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45267.63773148148</v>
+        <v>45693.32520833334</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13704,7 +13714,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13741,14 +13751,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 23447-2023</t>
+          <t>A 5466-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45076.59756944444</v>
+        <v>45693.32571759259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13761,7 +13771,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13798,14 +13808,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 48575-2024</t>
+          <t>A 1641-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45593.41140046297</v>
+        <v>45306.66873842593</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13818,7 +13828,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13855,14 +13865,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 5467-2025</t>
+          <t>A 60968-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45693.32645833334</v>
+        <v>45999.68519675926</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13875,7 +13885,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13912,14 +13922,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 5471-2025</t>
+          <t>A 5470-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45693.32864583333</v>
+        <v>45693.3281712963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13932,7 +13942,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13969,14 +13979,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 5474-2025</t>
+          <t>A 35610-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45693.33061342593</v>
+        <v>45531</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13989,7 +13999,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.6</v>
+        <v>11.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14026,14 +14036,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 5478-2025</t>
+          <t>A 61420-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45693.33496527778</v>
+        <v>46001.54215277778</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14046,7 +14056,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14083,14 +14093,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 5479-2025</t>
+          <t>A 2259-2026</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45693.33540509259</v>
+        <v>46036</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14103,7 +14113,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.7</v>
+        <v>7.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14140,14 +14150,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 13802-2024</t>
+          <t>A 61421-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45391</v>
+        <v>46001.54255787037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14160,7 +14170,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>9.4</v>
+        <v>5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14197,14 +14207,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 59384-2025</t>
+          <t>A 61422-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45989.45657407407</v>
+        <v>46001.54291666667</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14216,13 +14226,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14259,14 +14264,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 14624-2025</t>
+          <t>A 16716-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45742.41969907407</v>
+        <v>45754.48701388889</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14279,7 +14284,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14316,14 +14321,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 59366-2025</t>
+          <t>A 4237-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45989.44545138889</v>
+        <v>45324</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14335,13 +14340,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G223" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14378,14 +14378,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 5995-2022</t>
+          <t>A 58342-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44599.43216435185</v>
+        <v>45245</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14397,13 +14397,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14440,14 +14435,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 29217-2022</t>
+          <t>A 59053-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44750.58076388889</v>
+        <v>45636.80626157407</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14459,13 +14454,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14502,14 +14492,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 1844-2026</t>
+          <t>A 40712-2021</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>46035.40652777778</v>
+        <v>44420</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14522,7 +14512,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14559,14 +14549,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 12162-2022</t>
+          <t>A 5714-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44636</v>
+        <v>45694.46822916667</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14579,7 +14569,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14616,14 +14606,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 51886-2021</t>
+          <t>A 2858-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44462.82854166667</v>
+        <v>45315.43131944445</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14673,14 +14663,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 29248-2023</t>
+          <t>A 61213-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45105.63884259259</v>
+        <v>45645.65461805555</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14693,7 +14683,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14730,14 +14720,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 2708-2024</t>
+          <t>A 30034-2021</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45314</v>
+        <v>44363</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14750,7 +14740,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14787,14 +14777,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 59893-2025</t>
+          <t>A 14552-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45992</v>
+        <v>45013.42783564814</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14844,14 +14834,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 60587-2023</t>
+          <t>A 47466-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45259</v>
+        <v>45586</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14864,7 +14854,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14901,14 +14891,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 60968-2025</t>
+          <t>A 25168-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45999.68519675926</v>
+        <v>45086.51451388889</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14921,7 +14911,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14958,14 +14948,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 1780-2023</t>
+          <t>A 13669-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44938.598125</v>
+        <v>45006</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14978,7 +14968,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15015,14 +15005,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 61420-2025</t>
+          <t>A 52377-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>46001.54215277778</v>
+        <v>45224</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15035,7 +15025,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15072,14 +15062,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 2259-2026</t>
+          <t>A 41942-2021</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>46036</v>
+        <v>44425</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15092,7 +15082,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>7.3</v>
+        <v>5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15129,14 +15119,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 61421-2025</t>
+          <t>A 34834-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>46001.54255787037</v>
+        <v>44796</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15149,7 +15139,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15186,14 +15176,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 61422-2025</t>
+          <t>A 5472-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>46001.54291666667</v>
+        <v>45693.32910879629</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15206,7 +15196,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15243,14 +15233,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 61130-2025</t>
+          <t>A 5476-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>46000.48894675926</v>
+        <v>45693.33128472222</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15263,7 +15253,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15300,14 +15290,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 4316-2025</t>
+          <t>A 62272-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45685.70467592592</v>
+        <v>45267.63773148148</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15320,7 +15310,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15357,14 +15347,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 61699-2025</t>
+          <t>A 23447-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>46002.53145833333</v>
+        <v>45076.59756944444</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15377,7 +15367,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15414,14 +15404,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 61700-2025</t>
+          <t>A 48575-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>46002.53287037037</v>
+        <v>45593.41140046297</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15434,7 +15424,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15471,14 +15461,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 4335-2026</t>
+          <t>A 5467-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>46045</v>
+        <v>45693.32645833334</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15491,7 +15481,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15528,14 +15518,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 2901-2026</t>
+          <t>A 5471-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>46038</v>
+        <v>45693.32864583333</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15548,7 +15538,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15585,14 +15575,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 21493-2021</t>
+          <t>A 5474-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44321.53975694445</v>
+        <v>45693.33061342593</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15605,7 +15595,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15642,14 +15632,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 62803-2025</t>
+          <t>A 5478-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>46008</v>
+        <v>45693.33496527778</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15662,7 +15652,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>6.8</v>
+        <v>4.3</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15699,14 +15689,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 40205-2022</t>
+          <t>A 5479-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44820</v>
+        <v>45693.33540509259</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15719,7 +15709,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>5.3</v>
+        <v>2.7</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15756,14 +15746,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 5785-2026</t>
+          <t>A 13802-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>46051.66454861111</v>
+        <v>45391</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15776,7 +15766,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.4</v>
+        <v>9.4</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15813,14 +15803,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 62811-2025</t>
+          <t>A 14624-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>46008</v>
+        <v>45742.41969907407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15833,7 +15823,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15870,14 +15860,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 565-2024</t>
+          <t>A 5995-2022</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45299</v>
+        <v>44599.43216435185</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15889,8 +15879,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G250" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15927,14 +15922,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 6092-2026</t>
+          <t>A 29217-2022</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>46052</v>
+        <v>44750.58076388889</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15946,8 +15941,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G251" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15984,14 +15984,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 63428-2025</t>
+          <t>A 12162-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>46013.35648148148</v>
+        <v>44636</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16041,14 +16041,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 40374-2023</t>
+          <t>A 51886-2021</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45169.74189814815</v>
+        <v>44462.82854166667</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16098,14 +16098,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 63449-2025</t>
+          <t>A 29248-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>46013.40626157408</v>
+        <v>45105.63884259259</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16155,14 +16155,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 26733-2023</t>
+          <t>A 2708-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45093.41903935185</v>
+        <v>45314</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16212,14 +16212,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 63453-2025</t>
+          <t>A 60587-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>46013.41452546296</v>
+        <v>45259</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16269,14 +16269,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 16279-2021</t>
+          <t>A 1780-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44292.64375</v>
+        <v>44938.598125</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16326,14 +16326,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 48225-2024</t>
+          <t>A 4316-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45590.36800925926</v>
+        <v>45685.70467592592</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16383,14 +16383,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 6093-2026</t>
+          <t>A 21493-2021</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>46052</v>
+        <v>44321.53975694445</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>5.8</v>
+        <v>2.3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16440,14 +16440,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 40105-2021</t>
+          <t>A 40205-2022</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44418</v>
+        <v>44820</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.9</v>
+        <v>5.3</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16497,14 +16497,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 47490-2024</t>
+          <t>A 565-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45586</v>
+        <v>45299</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16554,14 +16554,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 24476-2023</t>
+          <t>A 40374-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45082</v>
+        <v>45169.74189814815</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16611,14 +16611,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 4600-2025</t>
+          <t>A 26733-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45687</v>
+        <v>45093.41903935185</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16668,14 +16668,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 29011-2023</t>
+          <t>A 16279-2021</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45104</v>
+        <v>44292.64375</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16687,13 +16687,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G264" t="n">
-        <v>5.4</v>
+        <v>1.4</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16730,14 +16725,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 5656-2024</t>
+          <t>A 48225-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45334</v>
+        <v>45590.36800925926</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16750,7 +16745,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16787,14 +16782,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 34211-2023</t>
+          <t>A 40105-2021</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45138</v>
+        <v>44418</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16807,7 +16802,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16844,14 +16839,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 34528-2023</t>
+          <t>A 47490-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45134</v>
+        <v>45586</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16864,7 +16859,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16901,14 +16896,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 48336-2024</t>
+          <t>A 24476-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45590.54072916666</v>
+        <v>45082</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16921,7 +16916,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16958,14 +16953,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 17798-2024</t>
+          <t>A 4600-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45418</v>
+        <v>45687</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16978,7 +16973,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -17015,14 +17010,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 952-2024</t>
+          <t>A 29011-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45301</v>
+        <v>45104</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17034,8 +17029,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G270" t="n">
-        <v>1.6</v>
+        <v>5.4</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17072,14 +17072,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 13800-2024</t>
+          <t>A 5656-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45391</v>
+        <v>45334</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17129,14 +17129,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 5464-2025</t>
+          <t>A 34211-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45693.32357638889</v>
+        <v>45138</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17186,14 +17186,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 5469-2025</t>
+          <t>A 34528-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45693.32758101852</v>
+        <v>45134</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17243,14 +17243,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 5473-2025</t>
+          <t>A 48336-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45693.33016203704</v>
+        <v>45590.54072916666</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17300,14 +17300,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 5477-2025</t>
+          <t>A 17798-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45693.33332175926</v>
+        <v>45418</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17357,14 +17357,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 11917-2024</t>
+          <t>A 952-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45376.60135416667</v>
+        <v>45301</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17414,14 +17414,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 29222-2022</t>
+          <t>A 13800-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44750</v>
+        <v>45391</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17433,13 +17433,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G277" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17476,14 +17471,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 38048-2022</t>
+          <t>A 5464-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44811</v>
+        <v>45693.32357638889</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17496,7 +17491,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17533,14 +17528,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 62269-2023</t>
+          <t>A 5469-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45267.63450231482</v>
+        <v>45693.32758101852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17553,7 +17548,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17590,14 +17585,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 7869-2025</t>
+          <t>A 5473-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45706.69854166666</v>
+        <v>45693.33016203704</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17610,7 +17605,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17647,14 +17642,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 49300-2023</t>
+          <t>A 5477-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45210.88792824074</v>
+        <v>45693.33332175926</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17667,7 +17662,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>5.2</v>
+        <v>0.4</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17704,14 +17699,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 13178-2023</t>
+          <t>A 11917-2024</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45002</v>
+        <v>45376.60135416667</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17724,7 +17719,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17761,14 +17756,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 12817-2024</t>
+          <t>A 29222-2022</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45384</v>
+        <v>44750</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17780,8 +17775,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G283" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17818,14 +17818,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 7870-2025</t>
+          <t>A 38048-2022</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45706</v>
+        <v>44811</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17875,14 +17875,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 40995-2022</t>
+          <t>A 62269-2023</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>44825.49869212963</v>
+        <v>45267.63450231482</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17932,14 +17932,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 48338-2024</t>
+          <t>A 7869-2025</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45590.54170138889</v>
+        <v>45706.69854166666</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17989,14 +17989,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 15404-2023</t>
+          <t>A 49300-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45019</v>
+        <v>45210.88792824074</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1.7</v>
+        <v>5.2</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -18046,14 +18046,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 36556-2022</t>
+          <t>A 13178-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>44804</v>
+        <v>45002</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>6</v>
+        <v>1.9</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -18103,14 +18103,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 37656-2023</t>
+          <t>A 12817-2024</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45159.51996527778</v>
+        <v>45384</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -18160,14 +18160,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 18132-2023</t>
+          <t>A 7870-2025</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45040</v>
+        <v>45706</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -18217,14 +18217,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 17452-2023</t>
+          <t>A 40995-2022</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45036</v>
+        <v>44825.49869212963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -18274,14 +18274,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 1636-2024</t>
+          <t>A 48338-2024</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45306</v>
+        <v>45590.54170138889</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -18331,14 +18331,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 10559-2025</t>
+          <t>A 15404-2023</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45721.52329861111</v>
+        <v>45019</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -18388,14 +18388,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 58138-2024</t>
+          <t>A 36556-2022</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45631</v>
+        <v>44804</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -18445,14 +18445,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 2917-2024</t>
+          <t>A 37656-2023</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45315.58524305555</v>
+        <v>45159.51996527778</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -18502,14 +18502,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 13901-2025</t>
+          <t>A 18132-2023</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45737</v>
+        <v>45040</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18559,14 +18559,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 38903-2024</t>
+          <t>A 17452-2023</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45547</v>
+        <v>45036</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18616,14 +18616,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 5386-2025</t>
+          <t>A 1636-2024</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45692.62754629629</v>
+        <v>45306</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18673,14 +18673,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 20602-2025</t>
+          <t>A 10559-2025</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45775.79440972222</v>
+        <v>45721.52329861111</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18730,14 +18730,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 3948-2024</t>
+          <t>A 58138-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45322</v>
+        <v>45631</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>6.6</v>
+        <v>0.8</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18787,14 +18787,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 22023-2025</t>
+          <t>A 2917-2024</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45784</v>
+        <v>45315.58524305555</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>6.3</v>
+        <v>0.9</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18844,14 +18844,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 22021-2025</t>
+          <t>A 13901-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45784</v>
+        <v>45737</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18901,14 +18901,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 22022-2025</t>
+          <t>A 38903-2024</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45784</v>
+        <v>45547</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>12</v>
+        <v>0.9</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18958,14 +18958,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 9640-2025</t>
+          <t>A 5386-2025</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45715.83090277778</v>
+        <v>45692.62754629629</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -19015,14 +19015,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 14964-2025</t>
+          <t>A 20602-2025</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45743.58701388889</v>
+        <v>45775.79440972222</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -19072,14 +19072,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 14969-2025</t>
+          <t>A 3948-2024</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45743.5912962963</v>
+        <v>45322</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>0.8</v>
+        <v>6.6</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -19129,14 +19129,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 8606-2025</t>
+          <t>A 22023-2025</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45710.38600694444</v>
+        <v>45784</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1.3</v>
+        <v>6.3</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -19186,14 +19186,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 23487-2025</t>
+          <t>A 22021-2025</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45792.4653587963</v>
+        <v>45784</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -19243,14 +19243,14 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 23544-2025</t>
+          <t>A 22022-2025</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45792.56561342593</v>
+        <v>45784</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>

--- a/Översikt SKÖVDE.xlsx
+++ b/Översikt SKÖVDE.xlsx
@@ -575,7 +575,7 @@
         <v>46025</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44277</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45743</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>44595</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,14 +941,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 37358-2025</t>
+          <t>A 57163-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45876.88369212963</v>
+        <v>45979.53326388889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -961,16 +961,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
         <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -994,6 +994,98 @@
         <v>4</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Motaggsvamp
+Orange taggsvamp
+Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 57163-2025 artfynd.xlsx", "A 57163-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 57163-2025 karta.png", "A 57163-2025")</f>
+        <v/>
+      </c>
+      <c r="U6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/knärot/A 57163-2025 karta knärot.png", "A 57163-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 57163-2025 FSC-klagomål.docx", "A 57163-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 57163-2025 FSC-klagomål mail.docx", "A 57163-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 57163-2025 tillsynsbegäran.docx", "A 57163-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 57163-2025 tillsynsbegäran mail.docx", "A 57163-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 37358-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45876.88369212963</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Trollsmultron
 Svart trolldruva
@@ -1001,87 +1093,183 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 37358-2025 artfynd.xlsx", "A 37358-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 37358-2025 karta.png", "A 37358-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 37358-2025 FSC-klagomål.docx", "A 37358-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 37358-2025 FSC-klagomål mail.docx", "A 37358-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 37358-2025 tillsynsbegäran.docx", "A 37358-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 37358-2025 tillsynsbegäran mail.docx", "A 37358-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 1630-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Entita
+Motaggsvamp
+Grovticka</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 1630-2024 artfynd.xlsx", "A 1630-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 1630-2024 karta.png", "A 1630-2024")</f>
+        <v/>
+      </c>
+      <c r="U8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/knärot/A 1630-2024 karta knärot.png", "A 1630-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 1630-2024 FSC-klagomål.docx", "A 1630-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 1630-2024 FSC-klagomål mail.docx", "A 1630-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 1630-2024 tillsynsbegäran.docx", "A 1630-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 1630-2024 tillsynsbegäran mail.docx", "A 1630-2024")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/fåglar/A 1630-2024 prioriterade fågelarter.docx", "A 1630-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 63699-2025</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>46014.57848379629</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C9" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>1.2</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>2</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J9" t="n">
         <v>2</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>2</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>4</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Gullklöver
 Kungsspindling
@@ -1089,219 +1277,31 @@
 Diskvaxskivling</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 63699-2025 artfynd.xlsx", "A 63699-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 63699-2025 karta.png", "A 63699-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 63699-2025 FSC-klagomål.docx", "A 63699-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 63699-2025 FSC-klagomål mail.docx", "A 63699-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 63699-2025 tillsynsbegäran.docx", "A 63699-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 63699-2025 tillsynsbegäran mail.docx", "A 63699-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 57163-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45979.53326388889</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>3</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Motaggsvamp
-Orange taggsvamp
-Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 57163-2025 artfynd.xlsx", "A 57163-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 57163-2025 karta.png", "A 57163-2025")</f>
-        <v/>
-      </c>
-      <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/knärot/A 57163-2025 karta knärot.png", "A 57163-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 57163-2025 FSC-klagomål.docx", "A 57163-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 57163-2025 FSC-klagomål mail.docx", "A 57163-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 57163-2025 tillsynsbegäran.docx", "A 57163-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 57163-2025 tillsynsbegäran mail.docx", "A 57163-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 1630-2024</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45306</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>3</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Entita
-Motaggsvamp
-Grovticka</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 1630-2024 artfynd.xlsx", "A 1630-2024")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 1630-2024 karta.png", "A 1630-2024")</f>
-        <v/>
-      </c>
-      <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/knärot/A 1630-2024 karta knärot.png", "A 1630-2024")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 1630-2024 FSC-klagomål.docx", "A 1630-2024")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 1630-2024 FSC-klagomål mail.docx", "A 1630-2024")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 1630-2024 tillsynsbegäran.docx", "A 1630-2024")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 1630-2024 tillsynsbegäran mail.docx", "A 1630-2024")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/fåglar/A 1630-2024 prioriterade fågelarter.docx", "A 1630-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>45387</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1393,14 +1393,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 31621-2024</t>
+          <t>A 22268-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45506.47185185185</v>
+        <v>45785</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1413,22 +1413,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1440,404 +1440,404 @@
         <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>3</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Motaggsvamp
+Svart taggsvamp</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 22268-2025 artfynd.xlsx", "A 22268-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 22268-2025 karta.png", "A 22268-2025")</f>
+        <v/>
+      </c>
+      <c r="U11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/knärot/A 22268-2025 karta knärot.png", "A 22268-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 22268-2025 FSC-klagomål.docx", "A 22268-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 22268-2025 FSC-klagomål mail.docx", "A 22268-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 22268-2025 tillsynsbegäran.docx", "A 22268-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 22268-2025 tillsynsbegäran mail.docx", "A 22268-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 31621-2024</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45506.47185185185</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Ask
 Plattsäv
 Majviva</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 31621-2024 artfynd.xlsx", "A 31621-2024")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 31621-2024 karta.png", "A 31621-2024")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 31621-2024 FSC-klagomål.docx", "A 31621-2024")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 31621-2024 FSC-klagomål mail.docx", "A 31621-2024")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 31621-2024 tillsynsbegäran.docx", "A 31621-2024")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 31621-2024 tillsynsbegäran mail.docx", "A 31621-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 47058-2023</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>45201</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="C13" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>5.6</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>3</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>3</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Korallrot
 Grönvit nattviol
 Revlummer</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 47058-2023 artfynd.xlsx", "A 47058-2023")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 47058-2023 karta.png", "A 47058-2023")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 47058-2023 FSC-klagomål.docx", "A 47058-2023")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 47058-2023 FSC-klagomål mail.docx", "A 47058-2023")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 47058-2023 tillsynsbegäran.docx", "A 47058-2023")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 47058-2023 tillsynsbegäran mail.docx", "A 47058-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 36627-2022</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>44804</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="C14" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G14" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>2</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P14" t="n">
         <v>1</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q14" t="n">
         <v>3</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Skogsalm
 Kråka
 Myskbock</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 36627-2022 artfynd.xlsx", "A 36627-2022")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 36627-2022 karta.png", "A 36627-2022")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 36627-2022 FSC-klagomål.docx", "A 36627-2022")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 36627-2022 FSC-klagomål mail.docx", "A 36627-2022")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 36627-2022 tillsynsbegäran.docx", "A 36627-2022")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 36627-2022 tillsynsbegäran mail.docx", "A 36627-2022")</f>
         <v/>
       </c>
-      <c r="Z13">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/fåglar/A 36627-2022 prioriterade fågelarter.docx", "A 36627-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 60176-2021</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>44495</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C15" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>5.5</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>2</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>3</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P15" t="n">
         <v>2</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q15" t="n">
         <v>3</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Ask
 Tistelsnyltrot
 Sommarfibbla</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 60176-2021 artfynd.xlsx", "A 60176-2021")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 60176-2021 karta.png", "A 60176-2021")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 60176-2021 FSC-klagomål.docx", "A 60176-2021")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 60176-2021 FSC-klagomål mail.docx", "A 60176-2021")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 60176-2021 tillsynsbegäran.docx", "A 60176-2021")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 60176-2021 tillsynsbegäran mail.docx", "A 60176-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 22268-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45785</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Motaggsvamp
-Svart taggsvamp</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 22268-2025 artfynd.xlsx", "A 22268-2025")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 22268-2025 karta.png", "A 22268-2025")</f>
-        <v/>
-      </c>
-      <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/knärot/A 22268-2025 karta knärot.png", "A 22268-2025")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 22268-2025 FSC-klagomål.docx", "A 22268-2025")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 22268-2025 FSC-klagomål mail.docx", "A 22268-2025")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 22268-2025 tillsynsbegäran.docx", "A 22268-2025")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 22268-2025 tillsynsbegäran mail.docx", "A 22268-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>44447</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45567.37613425926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44949</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>45702.62541666667</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44988.39806712963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>45804.59222222222</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>45903.58387731481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2536,14 +2536,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 4464-2026</t>
+          <t>A 100-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>46045.6518287037</v>
+        <v>44928</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2555,18 +2555,23 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>1</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
@@ -2580,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2590,294 +2595,289 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
+          <t>Borsttåg</t>
+        </is>
+      </c>
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 100-2023 artfynd.xlsx", "A 100-2023")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 100-2023 karta.png", "A 100-2023")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 100-2023 FSC-klagomål.docx", "A 100-2023")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 100-2023 FSC-klagomål mail.docx", "A 100-2023")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 100-2023 tillsynsbegäran.docx", "A 100-2023")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 100-2023 tillsynsbegäran mail.docx", "A 100-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A 58467-2024</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>45635.3708912037</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>Sommarfibbla</t>
+        </is>
+      </c>
+      <c r="S25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 58467-2024 artfynd.xlsx", "A 58467-2024")</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 58467-2024 karta.png", "A 58467-2024")</f>
+        <v/>
+      </c>
+      <c r="V25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 58467-2024 FSC-klagomål.docx", "A 58467-2024")</f>
+        <v/>
+      </c>
+      <c r="W25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 58467-2024 FSC-klagomål mail.docx", "A 58467-2024")</f>
+        <v/>
+      </c>
+      <c r="X25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 58467-2024 tillsynsbegäran.docx", "A 58467-2024")</f>
+        <v/>
+      </c>
+      <c r="Y25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 58467-2024 tillsynsbegäran mail.docx", "A 58467-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A 47898-2023</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>45204.49358796296</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>Erastia ochraceolateritia</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 47898-2023 artfynd.xlsx", "A 47898-2023")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 47898-2023 karta.png", "A 47898-2023")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 47898-2023 FSC-klagomål.docx", "A 47898-2023")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 47898-2023 FSC-klagomål mail.docx", "A 47898-2023")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 47898-2023 tillsynsbegäran.docx", "A 47898-2023")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 47898-2023 tillsynsbegäran mail.docx", "A 47898-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 4464-2026</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>46045.6518287037</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
           <t>Myskmadra</t>
         </is>
       </c>
-      <c r="S24">
+      <c r="S27">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 4464-2026 artfynd.xlsx", "A 4464-2026")</f>
         <v/>
       </c>
-      <c r="T24">
+      <c r="T27">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 4464-2026 karta.png", "A 4464-2026")</f>
         <v/>
       </c>
-      <c r="V24">
+      <c r="V27">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 4464-2026 FSC-klagomål.docx", "A 4464-2026")</f>
         <v/>
       </c>
-      <c r="W24">
+      <c r="W27">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 4464-2026 FSC-klagomål mail.docx", "A 4464-2026")</f>
         <v/>
       </c>
-      <c r="X24">
+      <c r="X27">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 4464-2026 tillsynsbegäran.docx", "A 4464-2026")</f>
         <v/>
       </c>
-      <c r="Y24">
+      <c r="Y27">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 4464-2026 tillsynsbegäran mail.docx", "A 4464-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 100-2023</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>44928</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Borsttåg</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 100-2023 artfynd.xlsx", "A 100-2023")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 100-2023 karta.png", "A 100-2023")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 100-2023 FSC-klagomål.docx", "A 100-2023")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 100-2023 FSC-klagomål mail.docx", "A 100-2023")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 100-2023 tillsynsbegäran.docx", "A 100-2023")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 100-2023 tillsynsbegäran mail.docx", "A 100-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 58467-2024</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>45635.3708912037</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Sommarfibbla</t>
-        </is>
-      </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 58467-2024 artfynd.xlsx", "A 58467-2024")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 58467-2024 karta.png", "A 58467-2024")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 58467-2024 FSC-klagomål.docx", "A 58467-2024")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 58467-2024 FSC-klagomål mail.docx", "A 58467-2024")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 58467-2024 tillsynsbegäran.docx", "A 58467-2024")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 58467-2024 tillsynsbegäran mail.docx", "A 58467-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A 47898-2023</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>45204.49358796296</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1</v>
-      </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Erastia ochraceolateritia</t>
-        </is>
-      </c>
-      <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 47898-2023 artfynd.xlsx", "A 47898-2023")</f>
-        <v/>
-      </c>
-      <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 47898-2023 karta.png", "A 47898-2023")</f>
-        <v/>
-      </c>
-      <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 47898-2023 FSC-klagomål.docx", "A 47898-2023")</f>
-        <v/>
-      </c>
-      <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 47898-2023 FSC-klagomål mail.docx", "A 47898-2023")</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 47898-2023 tillsynsbegäran.docx", "A 47898-2023")</f>
-        <v/>
-      </c>
-      <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 47898-2023 tillsynsbegäran mail.docx", "A 47898-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>45182</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>44988</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>44495</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>44817</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44837</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44442.34412037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>44421</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44386</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44594</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>44609.60418981482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44445</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>44417.56894675926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>44391</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>44279.44748842593</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44543</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         <v>44516</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>44844.66291666667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44834</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>44567</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>44523.37583333333</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>44421</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44277</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>44748.33660879629</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44748.34445601852</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>44585</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44614</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4533,14 +4533,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 18345-2021</t>
+          <t>A 20279-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44305</v>
+        <v>44698.71788194445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4590,14 +4590,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 20279-2022</t>
+          <t>A 55575-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44698.71788194445</v>
+        <v>44475</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4647,14 +4647,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 55575-2021</t>
+          <t>A 34744-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44475</v>
+        <v>44382.6750462963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4704,14 +4704,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 34744-2021</t>
+          <t>A 18345-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44382.6750462963</v>
+        <v>44305</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4768,7 +4768,7 @@
         <v>44740</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44530.87890046297</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>44698.72146990741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>44847</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44306</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>44299</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44635.4016087963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44823</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44629.92052083334</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44481.61975694444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44594</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>44762.55376157408</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44809</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44743.39986111111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>44959.55680555556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>45201</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>45197.49450231482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>45736.32023148148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5792,14 +5792,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 27577-2021</t>
+          <t>A 22021-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44353.76177083333</v>
+        <v>45784</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5849,14 +5849,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 3946-2024</t>
+          <t>A 22022-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45322.65063657407</v>
+        <v>45784</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.7</v>
+        <v>12</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5906,14 +5906,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 15417-2023</t>
+          <t>A 17326-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45019</v>
+        <v>45756</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5963,14 +5963,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 17326-2025</t>
+          <t>A 27577-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45756</v>
+        <v>44353.76177083333</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6020,14 +6020,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 9640-2025</t>
+          <t>A 63729-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45715.83090277778</v>
+        <v>46010</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6039,8 +6039,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6077,14 +6082,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 61130-2025</t>
+          <t>A 63730-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>46000.48894675926</v>
+        <v>46010</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6096,8 +6101,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6134,14 +6144,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 14964-2025</t>
+          <t>A 55642-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45743.58701388889</v>
+        <v>45972.3575462963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6154,7 +6164,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6191,14 +6201,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 37204-2024</t>
+          <t>A 63375-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45539.67663194444</v>
+        <v>46009</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6210,8 +6220,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>0.8</v>
+        <v>4.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6248,14 +6263,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 14969-2025</t>
+          <t>A 3946-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45743.5912962963</v>
+        <v>45322.65063657407</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6268,7 +6283,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.8</v>
+        <v>4.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6305,14 +6320,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 8606-2025</t>
+          <t>A 9640-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45710.38600694444</v>
+        <v>45715.83090277778</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6325,7 +6340,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6362,14 +6377,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 35919-2023</t>
+          <t>A 14964-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45148.64981481482</v>
+        <v>45743.58701388889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6382,7 +6397,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>6.6</v>
+        <v>1.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6419,14 +6434,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 23487-2025</t>
+          <t>A 38499-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45792.4653587963</v>
+        <v>45884.37276620371</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6438,8 +6453,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6476,14 +6496,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 23544-2025</t>
+          <t>A 63374-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45792.56561342593</v>
+        <v>46009</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6495,8 +6515,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6533,14 +6558,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 15952-2025</t>
+          <t>A 15417-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45749.50174768519</v>
+        <v>45019</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6552,13 +6577,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6595,14 +6615,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 10560-2025</t>
+          <t>A 35199-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45721.5255787037</v>
+        <v>45853</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6615,7 +6635,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6652,14 +6672,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 38499-2025</t>
+          <t>A 14969-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45884.37276620371</v>
+        <v>45743.5912962963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6671,13 +6691,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>10</v>
+        <v>0.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6714,14 +6729,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 58929-2022</t>
+          <t>A 8606-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44903</v>
+        <v>45710.38600694444</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6733,13 +6748,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6776,14 +6786,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 5658-2024</t>
+          <t>A 23487-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45334</v>
+        <v>45792.4653587963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6796,7 +6806,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6833,14 +6843,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 24383-2025</t>
+          <t>A 23544-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45797.62940972222</v>
+        <v>45792.56561342593</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6852,13 +6862,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6895,14 +6900,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 35199-2025</t>
+          <t>A 39073-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45853</v>
+        <v>45888</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6914,8 +6919,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6952,14 +6962,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 35069-2023</t>
+          <t>A 39238-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45142</v>
+        <v>45889.33467592593</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6972,7 +6982,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.5</v>
+        <v>6.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7009,14 +7019,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 12972-2025</t>
+          <t>A 39243-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45734.43846064815</v>
+        <v>45889.34508101852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7028,13 +7038,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>1.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7071,14 +7076,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 6598-2022</t>
+          <t>A 20600-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44601</v>
+        <v>45775.79165509259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7090,13 +7095,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7133,14 +7133,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 16113-2021</t>
+          <t>A 5658-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44291.42980324074</v>
+        <v>45334</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7190,14 +7190,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 24186-2025</t>
+          <t>A 24383-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45796.82644675926</v>
+        <v>45797.62940972222</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7209,8 +7209,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7247,14 +7252,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 39073-2025</t>
+          <t>A 58456-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45888</v>
+        <v>45635.36013888889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7266,13 +7271,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7309,14 +7309,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 39238-2025</t>
+          <t>A 35069-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45889.33467592593</v>
+        <v>45142</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>6.8</v>
+        <v>3.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7366,14 +7366,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 39243-2025</t>
+          <t>A 12972-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45889.34508101852</v>
+        <v>45734.43846064815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7385,8 +7385,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>9.199999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7423,14 +7428,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 20600-2025</t>
+          <t>A 37204-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45775.79165509259</v>
+        <v>45539.67663194444</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7443,7 +7448,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7480,14 +7485,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 58456-2024</t>
+          <t>A 35919-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45635.36013888889</v>
+        <v>45148.64981481482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7500,7 +7505,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.8</v>
+        <v>6.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7537,14 +7542,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 24996-2025</t>
+          <t>A 24186-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45799.61603009259</v>
+        <v>45796.82644675926</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7556,13 +7561,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7599,14 +7599,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 53740-2023</t>
+          <t>A 15952-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45230</v>
+        <v>45749.50174768519</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7618,8 +7618,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7656,14 +7661,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 61699-2025</t>
+          <t>A 10560-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46002.53145833333</v>
+        <v>45721.5255787037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7676,7 +7681,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7713,14 +7718,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 61700-2025</t>
+          <t>A 8557-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46002.53287037037</v>
+        <v>45709</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7733,7 +7738,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7770,14 +7775,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 24553-2025</t>
+          <t>A 58929-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45798.44869212963</v>
+        <v>44903</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7791,11 +7796,11 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7832,14 +7837,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 24962-2025</t>
+          <t>A 24996-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45799.57716435185</v>
+        <v>45799.61603009259</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7857,7 +7862,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7894,14 +7899,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 25003-2025</t>
+          <t>A 39993-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45799.62331018518</v>
+        <v>45894.31541666666</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7913,13 +7918,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7956,14 +7956,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 25642-2025</t>
+          <t>A 24553-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45803.60490740741</v>
+        <v>45798.44869212963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7973,6 +7973,11 @@
       <c r="E113" t="inlineStr">
         <is>
           <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -8013,14 +8018,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 8557-2025</t>
+          <t>A 24962-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45709</v>
+        <v>45799.57716435185</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8032,8 +8037,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8070,14 +8080,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 27109-2024</t>
+          <t>A 6598-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45471.49974537037</v>
+        <v>44601</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8089,8 +8099,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8127,14 +8142,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 25271-2025</t>
+          <t>A 16113-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45800.55153935185</v>
+        <v>44291.42980324074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8146,13 +8161,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8189,14 +8199,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 25639-2025</t>
+          <t>A 25003-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45800</v>
+        <v>45799.62331018518</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8208,8 +8218,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8246,14 +8261,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 25093-2025</t>
+          <t>A 25642-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45800.33357638889</v>
+        <v>45803.60490740741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8265,13 +8280,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8308,14 +8318,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 39993-2025</t>
+          <t>A 27109-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45894.31541666666</v>
+        <v>45471.49974537037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8328,7 +8338,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8365,14 +8375,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 25794-2025</t>
+          <t>A 25271-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45804.39341435185</v>
+        <v>45800.55153935185</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8386,11 +8396,11 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8427,14 +8437,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 26737-2023</t>
+          <t>A 53740-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45093.42945601852</v>
+        <v>45230</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8447,7 +8457,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8484,14 +8494,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 38750-2023</t>
+          <t>A 25639-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45163.40059027778</v>
+        <v>45800</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8504,7 +8514,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.5</v>
+        <v>0.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8541,14 +8551,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 17070-2025</t>
+          <t>A 25093-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45755.61774305555</v>
+        <v>45800.33357638889</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8566,7 +8576,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8603,14 +8613,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 26712-2025</t>
+          <t>A 25794-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45810.46396990741</v>
+        <v>45804.39341435185</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8624,11 +8634,11 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8665,14 +8675,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 26618-2025</t>
+          <t>A 26712-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45810.30840277778</v>
+        <v>45810.46396990741</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8684,8 +8694,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8722,14 +8737,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 60558-2023</t>
+          <t>A 26618-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45259.86798611111</v>
+        <v>45810.30840277778</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8779,14 +8794,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 26620-2025</t>
+          <t>A 26737-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45810.31511574074</v>
+        <v>45093.42945601852</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8799,7 +8814,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8836,14 +8851,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 44867-2022</t>
+          <t>A 38750-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44840</v>
+        <v>45163.40059027778</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8856,7 +8871,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8893,14 +8908,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 26614-2025</t>
+          <t>A 17070-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45810.30189814815</v>
+        <v>45755.61774305555</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8912,8 +8927,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>12.3</v>
+        <v>0.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8950,14 +8970,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 49954-2023</t>
+          <t>A 26620-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45215.37692129629</v>
+        <v>45810.31511574074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8970,7 +8990,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9007,14 +9027,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 4335-2026</t>
+          <t>A 44867-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46045</v>
+        <v>44840</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9027,7 +9047,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9064,14 +9084,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 38264-2023</t>
+          <t>A 26614-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45161</v>
+        <v>45810.30189814815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9084,7 +9104,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.3</v>
+        <v>12.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9121,14 +9141,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 29012-2025</t>
+          <t>A 60558-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45821.40665509259</v>
+        <v>45259.86798611111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9141,7 +9161,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9178,14 +9198,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 6419-2025</t>
+          <t>A 42837-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45699.47835648148</v>
+        <v>45908.58097222223</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9197,13 +9217,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>0.3</v>
+        <v>4.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9240,14 +9255,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 29023-2025</t>
+          <t>A 49954-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45821.43002314815</v>
+        <v>45215.37692129629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9260,7 +9275,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9297,14 +9312,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 2901-2026</t>
+          <t>A 38264-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46038</v>
+        <v>45161</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9317,7 +9332,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9354,14 +9369,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 29341-2025</t>
+          <t>A 29012-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45824.5056712963</v>
+        <v>45821.40665509259</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9373,13 +9388,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9416,14 +9426,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 42837-2025</t>
+          <t>A 29023-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45908.58097222223</v>
+        <v>45821.43002314815</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9436,7 +9446,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9473,14 +9483,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 20912-2024</t>
+          <t>A 6419-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45439.49229166667</v>
+        <v>45699.47835648148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9492,8 +9502,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9530,14 +9545,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 29017-2025</t>
+          <t>A 29341-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45821.41775462963</v>
+        <v>45824.5056712963</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9549,8 +9564,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9587,14 +9607,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 29335-2025</t>
+          <t>A 29017-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45824.49121527778</v>
+        <v>45821.41775462963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9606,13 +9626,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9649,14 +9664,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 29015-2025</t>
+          <t>A 20912-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45821.41212962963</v>
+        <v>45439.49229166667</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9669,7 +9684,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9706,14 +9721,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 67134-2021</t>
+          <t>A 29335-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44523.37474537037</v>
+        <v>45824.49121527778</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9727,11 +9742,11 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9768,14 +9783,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 30150-2025</t>
+          <t>A 29015-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45827.31333333333</v>
+        <v>45821.41212962963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9787,13 +9802,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9830,14 +9840,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 62803-2025</t>
+          <t>A 30150-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46008</v>
+        <v>45827.31333333333</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9849,8 +9859,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>6.8</v>
+        <v>4.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9887,14 +9902,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 9284-2025</t>
+          <t>A 67134-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45714</v>
+        <v>44523.37474537037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9908,11 +9923,11 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9949,14 +9964,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 12942-2024</t>
+          <t>A 9284-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45385.46519675926</v>
+        <v>45714</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9968,8 +9983,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10006,14 +10026,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 5785-2026</t>
+          <t>A 12942-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>46051.66454861111</v>
+        <v>45385.46519675926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10026,7 +10046,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10063,14 +10083,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 62811-2025</t>
+          <t>A 46923-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46008</v>
+        <v>45929.43701388889</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10083,7 +10103,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10127,7 +10147,7 @@
         <v>45754.32112268519</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10177,14 +10197,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 6092-2026</t>
+          <t>A 42579-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46052</v>
+        <v>45905</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10197,7 +10217,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10234,14 +10254,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 32837-2025</t>
+          <t>A 47869-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45839.55925925926</v>
+        <v>45932.44273148148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10254,7 +10274,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10291,14 +10311,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 33053-2025</t>
+          <t>A 47892-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45840.42666666667</v>
+        <v>45932.47384259259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10311,7 +10331,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10348,14 +10368,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 46923-2025</t>
+          <t>A 32837-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45929.43701388889</v>
+        <v>45839.55925925926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10368,7 +10388,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10405,14 +10425,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 33861-2025</t>
+          <t>A 48890-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45842.52964120371</v>
+        <v>45937.46953703704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10425,7 +10445,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10462,14 +10482,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 9281-2025</t>
+          <t>A 33053-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45714</v>
+        <v>45840.42666666667</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10481,13 +10501,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10524,14 +10539,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 34416-2025</t>
+          <t>A 48766-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45846.6525462963</v>
+        <v>45936.86329861111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10544,7 +10559,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4.9</v>
+        <v>1.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10581,14 +10596,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 42579-2025</t>
+          <t>A 9281-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45905</v>
+        <v>45714</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10600,8 +10615,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10638,14 +10658,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 34410-2025</t>
+          <t>A 33861-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45846.64479166667</v>
+        <v>45842.52964120371</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10658,7 +10678,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10695,14 +10715,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 34414-2025</t>
+          <t>A 34416-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45846</v>
+        <v>45846.6525462963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10715,7 +10735,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.6</v>
+        <v>4.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10752,14 +10772,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 34412-2025</t>
+          <t>A 62271-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45846.64696759259</v>
+        <v>45267.6362037037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10772,7 +10792,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10809,14 +10829,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 34592-2025</t>
+          <t>A 34410-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45847.63085648148</v>
+        <v>45846.64479166667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10829,7 +10849,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10866,14 +10886,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 47869-2025</t>
+          <t>A 34414-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45932.44273148148</v>
+        <v>45846</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10923,14 +10943,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 47892-2025</t>
+          <t>A 34412-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45932.47384259259</v>
+        <v>45846.64696759259</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10943,7 +10963,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10980,14 +11000,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 62271-2023</t>
+          <t>A 34592-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45267.6362037037</v>
+        <v>45847.63085648148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11000,7 +11020,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11044,7 +11064,7 @@
         <v>44862</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11094,14 +11114,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 19372-2025</t>
+          <t>A 51217-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45769.64199074074</v>
+        <v>45947.64515046297</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11114,7 +11134,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11151,14 +11171,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 48890-2025</t>
+          <t>A 51155-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45937.46953703704</v>
+        <v>45947</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11171,7 +11191,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11208,14 +11228,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 48766-2025</t>
+          <t>A 51193-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45936.86329861111</v>
+        <v>45947</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11228,7 +11248,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.6</v>
+        <v>7.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11265,14 +11285,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 63428-2025</t>
+          <t>A 19372-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46013.35648148148</v>
+        <v>45769.64199074074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11285,7 +11305,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11322,14 +11342,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 63449-2025</t>
+          <t>A 52172-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46013.40626157408</v>
+        <v>45953.37298611111</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11341,8 +11361,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11379,14 +11404,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 63453-2025</t>
+          <t>A 60588-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46013.41452546296</v>
+        <v>45259</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11399,7 +11424,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11436,14 +11461,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 60588-2023</t>
+          <t>A 48983-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45259</v>
+        <v>45594.46991898148</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11456,7 +11481,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11493,14 +11518,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 48983-2024</t>
+          <t>A 62290-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45594.46991898148</v>
+        <v>45267.659375</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11513,7 +11538,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11550,14 +11575,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 6093-2026</t>
+          <t>A 53153-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46052</v>
+        <v>45958.48887731481</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11570,7 +11595,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>5.8</v>
+        <v>3.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11607,14 +11632,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 51217-2025</t>
+          <t>A 1629-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45947.64515046297</v>
+        <v>45670.6265162037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11627,7 +11652,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.7</v>
+        <v>11.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11664,14 +11689,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 62290-2023</t>
+          <t>A 59384-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45267.659375</v>
+        <v>45989.45657407407</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11683,8 +11708,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11721,14 +11751,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 51155-2025</t>
+          <t>A 59366-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45947</v>
+        <v>45989.44545138889</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11740,8 +11770,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11778,14 +11813,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 51193-2025</t>
+          <t>A 950-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45947</v>
+        <v>45301</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11798,7 +11833,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>7.2</v>
+        <v>0.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11835,14 +11870,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 52172-2025</t>
+          <t>A 1844-2026</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45953.37298611111</v>
+        <v>46035.40652777778</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11854,13 +11889,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11897,14 +11927,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 1629-2025</t>
+          <t>A 47900-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45670.6265162037</v>
+        <v>45204</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11917,7 +11947,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>11.8</v>
+        <v>0.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11954,14 +11984,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 53153-2025</t>
+          <t>A 3951-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45958.48887731481</v>
+        <v>45322</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11974,7 +12004,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.1</v>
+        <v>10.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12011,14 +12041,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 950-2024</t>
+          <t>A 49416-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45301</v>
+        <v>45211.44688657407</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12031,7 +12061,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12068,14 +12098,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 47900-2023</t>
+          <t>A 3670-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45204</v>
+        <v>44586</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12088,7 +12118,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12125,14 +12155,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 7748-2026</t>
+          <t>A 59893-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46062.54561342593</v>
+        <v>45992</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12145,7 +12175,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>5.8</v>
+        <v>1.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12182,14 +12212,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 63729-2025</t>
+          <t>A 16277-2021</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46010</v>
+        <v>44292.64259259259</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12201,13 +12231,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>4.7</v>
+        <v>2.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12244,14 +12269,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 63730-2025</t>
+          <t>A 35280-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>46010</v>
+        <v>45530.63609953703</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12263,13 +12288,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12306,14 +12326,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 55642-2025</t>
+          <t>A 60968-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45972.3575462963</v>
+        <v>45999.68519675926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12326,7 +12346,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12363,14 +12383,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 63375-2025</t>
+          <t>A 15388-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46009</v>
+        <v>45401.23033564815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12382,13 +12402,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12425,14 +12440,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 63751-2025</t>
+          <t>A 61420-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46017.75608796296</v>
+        <v>46001.54215277778</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12445,7 +12460,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12482,14 +12497,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 7746-2026</t>
+          <t>A 5808-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46062.54372685185</v>
+        <v>44963.48101851852</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12502,7 +12517,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>6.7</v>
+        <v>1.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12539,14 +12554,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 63374-2025</t>
+          <t>A 2259-2026</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46009</v>
+        <v>46036</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12558,13 +12573,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>3.4</v>
+        <v>7.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12601,14 +12611,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 3951-2024</t>
+          <t>A 61421-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45322</v>
+        <v>46001.54255787037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12621,7 +12631,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>10.7</v>
+        <v>5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12658,14 +12668,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 49416-2023</t>
+          <t>A 61422-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45211.44688657407</v>
+        <v>46001.54291666667</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12678,7 +12688,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12715,14 +12725,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 3670-2022</t>
+          <t>A 1784-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44586</v>
+        <v>44938.60303240741</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12735,7 +12745,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12772,14 +12782,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 16277-2021</t>
+          <t>A 34248-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44292.64259259259</v>
+        <v>45138.55064814815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12792,7 +12802,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12829,14 +12839,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 35280-2024</t>
+          <t>A 3481-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45530.63609953703</v>
+        <v>45320</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12849,7 +12859,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.1</v>
+        <v>7.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12886,14 +12896,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 15388-2024</t>
+          <t>A 61130-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45401.23033564815</v>
+        <v>46000.48894675926</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12906,7 +12916,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12943,14 +12953,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 5808-2023</t>
+          <t>A 60117-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44963.48101851852</v>
+        <v>44495</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12963,7 +12973,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.2</v>
+        <v>5.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13000,14 +13010,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 1784-2023</t>
+          <t>A 61699-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44938.60303240741</v>
+        <v>46002.53145833333</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13020,7 +13030,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13057,14 +13067,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 34248-2023</t>
+          <t>A 61700-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45138.55064814815</v>
+        <v>46002.53287037037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13077,7 +13087,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13114,14 +13124,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 3481-2024</t>
+          <t>A 61336-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45320</v>
+        <v>45645</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13134,7 +13144,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>7.7</v>
+        <v>1.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13171,14 +13181,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 59384-2025</t>
+          <t>A 6224-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45989.45657407407</v>
+        <v>44600.39609953704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13190,13 +13200,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13233,14 +13238,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 59366-2025</t>
+          <t>A 26699-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45989.44545138889</v>
+        <v>44739.72042824074</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13252,13 +13257,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13295,14 +13295,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 60117-2021</t>
+          <t>A 41722-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44495</v>
+        <v>45560</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>5.9</v>
+        <v>10.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13352,14 +13352,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 61336-2024</t>
+          <t>A 2901-2026</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45645</v>
+        <v>46038</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13409,14 +13409,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 1844-2026</t>
+          <t>A 62803-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46035.40652777778</v>
+        <v>46008</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.2</v>
+        <v>6.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13466,14 +13466,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 6224-2022</t>
+          <t>A 5785-2026</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44600.39609953704</v>
+        <v>46051.66454861111</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13523,14 +13523,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 26699-2022</t>
+          <t>A 5465-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44739.72042824074</v>
+        <v>45693.32520833334</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13580,14 +13580,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 41722-2024</t>
+          <t>A 5466-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45560</v>
+        <v>45693.32571759259</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>10.1</v>
+        <v>0.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13637,14 +13637,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 59893-2025</t>
+          <t>A 1641-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45992</v>
+        <v>45306.66873842593</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13694,14 +13694,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 5465-2025</t>
+          <t>A 62811-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45693.32520833334</v>
+        <v>46008</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13751,14 +13751,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 5466-2025</t>
+          <t>A 6092-2026</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45693.32571759259</v>
+        <v>46052</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.5</v>
+        <v>3.9</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13808,14 +13808,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 1641-2024</t>
+          <t>A 5470-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45306.66873842593</v>
+        <v>45693.3281712963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13865,14 +13865,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 60968-2025</t>
+          <t>A 35610-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45999.68519675926</v>
+        <v>45531</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.8</v>
+        <v>11.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13922,14 +13922,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 5470-2025</t>
+          <t>A 63428-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45693.3281712963</v>
+        <v>46013.35648148148</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13979,14 +13979,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 35610-2024</t>
+          <t>A 63449-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45531</v>
+        <v>46013.40626157408</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>11.7</v>
+        <v>1.1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14036,14 +14036,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 61420-2025</t>
+          <t>A 16716-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>46001.54215277778</v>
+        <v>45754.48701388889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14093,14 +14093,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 2259-2026</t>
+          <t>A 4237-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46036</v>
+        <v>45324</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>7.3</v>
+        <v>3.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14150,14 +14150,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 61421-2025</t>
+          <t>A 63453-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46001.54255787037</v>
+        <v>46013.41452546296</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14207,14 +14207,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 61422-2025</t>
+          <t>A 58342-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>46001.54291666667</v>
+        <v>45245</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14264,14 +14264,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 16716-2025</t>
+          <t>A 6093-2026</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45754.48701388889</v>
+        <v>46052</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14321,14 +14321,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 4237-2024</t>
+          <t>A 59053-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45324</v>
+        <v>45636.80626157407</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14378,14 +14378,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 58342-2023</t>
+          <t>A 40712-2021</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45245</v>
+        <v>44420</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14435,14 +14435,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 59053-2024</t>
+          <t>A 5714-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45636.80626157407</v>
+        <v>45694.46822916667</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14492,14 +14492,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 40712-2021</t>
+          <t>A 7748-2026</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44420</v>
+        <v>46062.54561342593</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.7</v>
+        <v>5.8</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14549,14 +14549,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 5714-2025</t>
+          <t>A 63751-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45694.46822916667</v>
+        <v>46017.75608796296</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14606,14 +14606,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 2858-2024</t>
+          <t>A 7746-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45315.43131944445</v>
+        <v>46062.54372685185</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.5</v>
+        <v>6.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14663,14 +14663,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 61213-2024</t>
+          <t>A 2858-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45645.65461805555</v>
+        <v>45315.43131944445</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14720,14 +14720,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 30034-2021</t>
+          <t>A 61213-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44363</v>
+        <v>45645.65461805555</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14777,14 +14777,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 14552-2023</t>
+          <t>A 30034-2021</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45013.42783564814</v>
+        <v>44363</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14834,14 +14834,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 47466-2024</t>
+          <t>A 14552-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45586</v>
+        <v>45013.42783564814</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14891,14 +14891,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 25168-2023</t>
+          <t>A 47466-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45086.51451388889</v>
+        <v>45586</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14948,14 +14948,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 13669-2023</t>
+          <t>A 25168-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45006</v>
+        <v>45086.51451388889</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15005,14 +15005,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 52377-2023</t>
+          <t>A 4335-2026</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45224</v>
+        <v>46045</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15062,14 +15062,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 41942-2021</t>
+          <t>A 13669-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44425</v>
+        <v>45006</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15119,14 +15119,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 34834-2022</t>
+          <t>A 52377-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44796</v>
+        <v>45224</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15176,14 +15176,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 5472-2025</t>
+          <t>A 41942-2021</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45693.32910879629</v>
+        <v>44425</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15233,14 +15233,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 5476-2025</t>
+          <t>A 34834-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45693.33128472222</v>
+        <v>44796</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15290,14 +15290,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 62272-2023</t>
+          <t>A 5472-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45267.63773148148</v>
+        <v>45693.32910879629</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15347,14 +15347,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 23447-2023</t>
+          <t>A 5476-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45076.59756944444</v>
+        <v>45693.33128472222</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15404,14 +15404,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 48575-2024</t>
+          <t>A 62272-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45593.41140046297</v>
+        <v>45267.63773148148</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15461,14 +15461,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 5467-2025</t>
+          <t>A 23447-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45693.32645833334</v>
+        <v>45076.59756944444</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15481,7 +15481,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15518,14 +15518,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 5471-2025</t>
+          <t>A 48575-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45693.32864583333</v>
+        <v>45593.41140046297</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15575,14 +15575,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 5474-2025</t>
+          <t>A 5467-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45693.33061342593</v>
+        <v>45693.32645833334</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15632,14 +15632,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 5478-2025</t>
+          <t>A 5471-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45693.33496527778</v>
+        <v>45693.32864583333</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15689,14 +15689,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 5479-2025</t>
+          <t>A 5474-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45693.33540509259</v>
+        <v>45693.33061342593</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15746,14 +15746,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 13802-2024</t>
+          <t>A 5478-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45391</v>
+        <v>45693.33496527778</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>9.4</v>
+        <v>4.3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15803,14 +15803,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 14624-2025</t>
+          <t>A 5479-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45742.41969907407</v>
+        <v>45693.33540509259</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15860,14 +15860,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 5995-2022</t>
+          <t>A 13802-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44599.43216435185</v>
+        <v>45391</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15879,13 +15879,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G250" t="n">
-        <v>2.2</v>
+        <v>9.4</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15922,14 +15917,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 29217-2022</t>
+          <t>A 14624-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44750.58076388889</v>
+        <v>45742.41969907407</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15941,13 +15936,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G251" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15984,14 +15974,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 12162-2022</t>
+          <t>A 5995-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44636</v>
+        <v>44599.43216435185</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16003,8 +15993,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G252" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16041,14 +16036,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 51886-2021</t>
+          <t>A 29217-2022</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44462.82854166667</v>
+        <v>44750.58076388889</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16060,8 +16055,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G253" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16098,14 +16098,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 29248-2023</t>
+          <t>A 12162-2022</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45105.63884259259</v>
+        <v>44636</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16155,14 +16155,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 2708-2024</t>
+          <t>A 51886-2021</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45314</v>
+        <v>44462.82854166667</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16212,14 +16212,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 60587-2023</t>
+          <t>A 29248-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45259</v>
+        <v>45105.63884259259</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16269,14 +16269,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 1780-2023</t>
+          <t>A 2708-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44938.598125</v>
+        <v>45314</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16326,14 +16326,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 4316-2025</t>
+          <t>A 60587-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45685.70467592592</v>
+        <v>45259</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16383,14 +16383,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 21493-2021</t>
+          <t>A 1780-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44321.53975694445</v>
+        <v>44938.598125</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16440,14 +16440,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 40205-2022</t>
+          <t>A 4316-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44820</v>
+        <v>45685.70467592592</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>5.3</v>
+        <v>1.3</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16497,14 +16497,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 565-2024</t>
+          <t>A 21493-2021</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45299</v>
+        <v>44321.53975694445</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16554,14 +16554,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 40374-2023</t>
+          <t>A 40205-2022</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45169.74189814815</v>
+        <v>44820</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.5</v>
+        <v>5.3</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16611,14 +16611,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 26733-2023</t>
+          <t>A 565-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45093.41903935185</v>
+        <v>45299</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16668,14 +16668,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 16279-2021</t>
+          <t>A 40374-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44292.64375</v>
+        <v>45169.74189814815</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16725,14 +16725,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 48225-2024</t>
+          <t>A 26733-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45590.36800925926</v>
+        <v>45093.41903935185</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16782,14 +16782,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 40105-2021</t>
+          <t>A 16279-2021</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44418</v>
+        <v>44292.64375</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16839,14 +16839,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 47490-2024</t>
+          <t>A 48225-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45586</v>
+        <v>45590.36800925926</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16896,14 +16896,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 24476-2023</t>
+          <t>A 40105-2021</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45082</v>
+        <v>44418</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16953,14 +16953,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 4600-2025</t>
+          <t>A 47490-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45687</v>
+        <v>45586</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -17010,14 +17010,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 29011-2023</t>
+          <t>A 24476-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45104</v>
+        <v>45082</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17029,13 +17029,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G270" t="n">
-        <v>5.4</v>
+        <v>2.1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17072,14 +17067,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 5656-2024</t>
+          <t>A 4600-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45334</v>
+        <v>45687</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17092,7 +17087,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17129,14 +17124,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 34211-2023</t>
+          <t>A 29011-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45138</v>
+        <v>45104</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17148,8 +17143,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G272" t="n">
-        <v>0.7</v>
+        <v>5.4</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17186,14 +17186,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 34528-2023</t>
+          <t>A 5656-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45134</v>
+        <v>45334</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17243,14 +17243,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 48336-2024</t>
+          <t>A 34211-2023</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45590.54072916666</v>
+        <v>45138</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17300,14 +17300,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 17798-2024</t>
+          <t>A 34528-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45418</v>
+        <v>45134</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17357,14 +17357,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 952-2024</t>
+          <t>A 48336-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45301</v>
+        <v>45590.54072916666</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17414,14 +17414,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 13800-2024</t>
+          <t>A 17798-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45391</v>
+        <v>45418</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17471,14 +17471,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 5464-2025</t>
+          <t>A 952-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45693.32357638889</v>
+        <v>45301</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17528,14 +17528,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 5469-2025</t>
+          <t>A 13800-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45693.32758101852</v>
+        <v>45391</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17585,14 +17585,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 5473-2025</t>
+          <t>A 5464-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45693.33016203704</v>
+        <v>45693.32357638889</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17642,14 +17642,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 5477-2025</t>
+          <t>A 5469-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45693.33332175926</v>
+        <v>45693.32758101852</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17699,14 +17699,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 11917-2024</t>
+          <t>A 5473-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45376.60135416667</v>
+        <v>45693.33016203704</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17756,14 +17756,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 29222-2022</t>
+          <t>A 5477-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>44750</v>
+        <v>45693.33332175926</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17775,13 +17775,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G283" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17818,14 +17813,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 38048-2022</t>
+          <t>A 11917-2024</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44811</v>
+        <v>45376.60135416667</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17838,7 +17833,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17875,14 +17870,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 62269-2023</t>
+          <t>A 29222-2022</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45267.63450231482</v>
+        <v>44750</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17894,8 +17889,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G285" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17932,14 +17932,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 7869-2025</t>
+          <t>A 38048-2022</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45706.69854166666</v>
+        <v>44811</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17989,14 +17989,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 49300-2023</t>
+          <t>A 62269-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45210.88792824074</v>
+        <v>45267.63450231482</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>5.2</v>
+        <v>1.4</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -18046,14 +18046,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 13178-2023</t>
+          <t>A 7869-2025</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45002</v>
+        <v>45706.69854166666</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -18103,14 +18103,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 12817-2024</t>
+          <t>A 49300-2023</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45384</v>
+        <v>45210.88792824074</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -18160,14 +18160,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 7870-2025</t>
+          <t>A 13178-2023</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45706</v>
+        <v>45002</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -18217,14 +18217,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 40995-2022</t>
+          <t>A 12817-2024</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44825.49869212963</v>
+        <v>45384</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -18274,14 +18274,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 48338-2024</t>
+          <t>A 7870-2025</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45590.54170138889</v>
+        <v>45706</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -18331,14 +18331,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 15404-2023</t>
+          <t>A 40995-2022</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45019</v>
+        <v>44825.49869212963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -18388,14 +18388,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 36556-2022</t>
+          <t>A 48338-2024</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>44804</v>
+        <v>45590.54170138889</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -18445,14 +18445,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 37656-2023</t>
+          <t>A 15404-2023</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45159.51996527778</v>
+        <v>45019</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -18502,14 +18502,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 18132-2023</t>
+          <t>A 36556-2022</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45040</v>
+        <v>44804</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18559,14 +18559,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 17452-2023</t>
+          <t>A 37656-2023</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45036</v>
+        <v>45159.51996527778</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18616,14 +18616,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 1636-2024</t>
+          <t>A 18132-2023</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45306</v>
+        <v>45040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18673,14 +18673,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 10559-2025</t>
+          <t>A 17452-2023</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45721.52329861111</v>
+        <v>45036</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18730,14 +18730,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 58138-2024</t>
+          <t>A 1636-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45631</v>
+        <v>45306</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18787,14 +18787,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 2917-2024</t>
+          <t>A 10559-2025</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45315.58524305555</v>
+        <v>45721.52329861111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18844,14 +18844,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 13901-2025</t>
+          <t>A 58138-2024</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45737</v>
+        <v>45631</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18901,14 +18901,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 38903-2024</t>
+          <t>A 2917-2024</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45547</v>
+        <v>45315.58524305555</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18958,14 +18958,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 5386-2025</t>
+          <t>A 13901-2025</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45692.62754629629</v>
+        <v>45737</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -19015,14 +19015,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 20602-2025</t>
+          <t>A 38903-2024</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45775.79440972222</v>
+        <v>45547</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -19072,14 +19072,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 3948-2024</t>
+          <t>A 5386-2025</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45322</v>
+        <v>45692.62754629629</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>6.6</v>
+        <v>0.8</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -19129,14 +19129,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 22023-2025</t>
+          <t>A 20602-2025</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45784</v>
+        <v>45775.79440972222</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>6.3</v>
+        <v>0.8</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -19186,14 +19186,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 22021-2025</t>
+          <t>A 3948-2024</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45784</v>
+        <v>45322</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>3.3</v>
+        <v>6.6</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -19243,14 +19243,14 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 22022-2025</t>
+          <t>A 22023-2025</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
         <v>45784</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>12</v>
+        <v>6.3</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>

--- a/Översikt SKÖVDE.xlsx
+++ b/Översikt SKÖVDE.xlsx
@@ -575,7 +575,7 @@
         <v>46025</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44277</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45743</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>44595</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,14 +941,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 57163-2025</t>
+          <t>A 1630-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45979.53326388889</v>
+        <v>45306</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -961,10 +961,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -994,6 +994,102 @@
         <v>4</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Entita
+Motaggsvamp
+Grovticka</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 1630-2024 artfynd.xlsx", "A 1630-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 1630-2024 karta.png", "A 1630-2024")</f>
+        <v/>
+      </c>
+      <c r="U6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/knärot/A 1630-2024 karta knärot.png", "A 1630-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 1630-2024 FSC-klagomål.docx", "A 1630-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 1630-2024 FSC-klagomål mail.docx", "A 1630-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 1630-2024 tillsynsbegäran.docx", "A 1630-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 1630-2024 tillsynsbegäran mail.docx", "A 1630-2024")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/fåglar/A 1630-2024 prioriterade fågelarter.docx", "A 1630-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 57163-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45979.53326388889</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Motaggsvamp
@@ -1001,91 +1097,91 @@
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 57163-2025 artfynd.xlsx", "A 57163-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 57163-2025 karta.png", "A 57163-2025")</f>
         <v/>
       </c>
-      <c r="U6">
+      <c r="U7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/knärot/A 57163-2025 karta knärot.png", "A 57163-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 57163-2025 FSC-klagomål.docx", "A 57163-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 57163-2025 FSC-klagomål mail.docx", "A 57163-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 57163-2025 tillsynsbegäran.docx", "A 57163-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 57163-2025 tillsynsbegäran mail.docx", "A 57163-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 37358-2025</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>45876.88369212963</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C8" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>2.2</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>2</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>1</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q8" t="n">
         <v>4</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Trollsmultron
 Svart trolldruva
@@ -1093,127 +1189,31 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 37358-2025 artfynd.xlsx", "A 37358-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 37358-2025 karta.png", "A 37358-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 37358-2025 FSC-klagomål.docx", "A 37358-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 37358-2025 FSC-klagomål mail.docx", "A 37358-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 37358-2025 tillsynsbegäran.docx", "A 37358-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 37358-2025 tillsynsbegäran mail.docx", "A 37358-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 1630-2024</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45306</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>3</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Entita
-Motaggsvamp
-Grovticka</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 1630-2024 artfynd.xlsx", "A 1630-2024")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 1630-2024 karta.png", "A 1630-2024")</f>
-        <v/>
-      </c>
-      <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/knärot/A 1630-2024 karta knärot.png", "A 1630-2024")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 1630-2024 FSC-klagomål.docx", "A 1630-2024")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 1630-2024 FSC-klagomål mail.docx", "A 1630-2024")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 1630-2024 tillsynsbegäran.docx", "A 1630-2024")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 1630-2024 tillsynsbegäran mail.docx", "A 1630-2024")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/fåglar/A 1630-2024 prioriterade fågelarter.docx", "A 1630-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>46014.57848379629</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>45387</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1393,14 +1393,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 22268-2025</t>
+          <t>A 36627-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45785</v>
+        <v>44804</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1412,32 +1412,37 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>3</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1446,311 +1451,306 @@
         <v>3</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Skogsalm
+Kråka
+Myskbock</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 36627-2022 artfynd.xlsx", "A 36627-2022")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 36627-2022 karta.png", "A 36627-2022")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 36627-2022 FSC-klagomål.docx", "A 36627-2022")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 36627-2022 FSC-klagomål mail.docx", "A 36627-2022")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 36627-2022 tillsynsbegäran.docx", "A 36627-2022")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 36627-2022 tillsynsbegäran mail.docx", "A 36627-2022")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/fåglar/A 36627-2022 prioriterade fågelarter.docx", "A 36627-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 22268-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45785</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Motaggsvamp
 Svart taggsvamp</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 22268-2025 artfynd.xlsx", "A 22268-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 22268-2025 karta.png", "A 22268-2025")</f>
         <v/>
       </c>
-      <c r="U11">
+      <c r="U12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/knärot/A 22268-2025 karta knärot.png", "A 22268-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 22268-2025 FSC-klagomål.docx", "A 22268-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 22268-2025 FSC-klagomål mail.docx", "A 22268-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 22268-2025 tillsynsbegäran.docx", "A 22268-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 22268-2025 tillsynsbegäran mail.docx", "A 22268-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 31621-2024</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>45506.47185185185</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="C13" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>1.3</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K13" t="n">
         <v>1</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L13" t="n">
         <v>1</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>3</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P13" t="n">
         <v>2</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q13" t="n">
         <v>3</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Ask
 Plattsäv
 Majviva</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 31621-2024 artfynd.xlsx", "A 31621-2024")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 31621-2024 karta.png", "A 31621-2024")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 31621-2024 FSC-klagomål.docx", "A 31621-2024")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 31621-2024 FSC-klagomål mail.docx", "A 31621-2024")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 31621-2024 tillsynsbegäran.docx", "A 31621-2024")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 31621-2024 tillsynsbegäran mail.docx", "A 31621-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 47058-2023</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>45201</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C14" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>5.6</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>3</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>3</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Korallrot
 Grönvit nattviol
 Revlummer</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 47058-2023 artfynd.xlsx", "A 47058-2023")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 47058-2023 karta.png", "A 47058-2023")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 47058-2023 FSC-klagomål.docx", "A 47058-2023")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 47058-2023 FSC-klagomål mail.docx", "A 47058-2023")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 47058-2023 tillsynsbegäran.docx", "A 47058-2023")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 47058-2023 tillsynsbegäran mail.docx", "A 47058-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 36627-2022</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>44804</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Kråka
-Myskbock</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 36627-2022 artfynd.xlsx", "A 36627-2022")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 36627-2022 karta.png", "A 36627-2022")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 36627-2022 FSC-klagomål.docx", "A 36627-2022")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 36627-2022 FSC-klagomål mail.docx", "A 36627-2022")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 36627-2022 tillsynsbegäran.docx", "A 36627-2022")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 36627-2022 tillsynsbegäran mail.docx", "A 36627-2022")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/fåglar/A 36627-2022 prioriterade fågelarter.docx", "A 36627-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>44495</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>44447</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1927,14 +1927,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 2579-2023</t>
+          <t>A 3410-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44943</v>
+        <v>44949</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1946,8 +1946,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1981,32 +1986,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Svart trolldruva
-Fläcknycklar</t>
+          <t>Västlig hakmossa
+Revlummer</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 2579-2023 artfynd.xlsx", "A 2579-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 3410-2023 artfynd.xlsx", "A 3410-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 2579-2023 karta.png", "A 2579-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 3410-2023 karta.png", "A 3410-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 2579-2023 FSC-klagomål.docx", "A 2579-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 3410-2023 FSC-klagomål.docx", "A 3410-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 2579-2023 FSC-klagomål mail.docx", "A 2579-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 3410-2023 FSC-klagomål mail.docx", "A 3410-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 2579-2023 tillsynsbegäran.docx", "A 2579-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 3410-2023 tillsynsbegäran.docx", "A 3410-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 2579-2023 tillsynsbegäran mail.docx", "A 2579-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 3410-2023 tillsynsbegäran mail.docx", "A 3410-2023")</f>
         <v/>
       </c>
     </row>
@@ -2020,7 +2025,7 @@
         <v>45567.37613425926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2099,14 +2104,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 3410-2023</t>
+          <t>A 2579-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44949</v>
+        <v>44943</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2118,13 +2123,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2158,32 +2158,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Västlig hakmossa
-Revlummer</t>
+          <t>Svart trolldruva
+Fläcknycklar</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 3410-2023 artfynd.xlsx", "A 3410-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 2579-2023 artfynd.xlsx", "A 2579-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 3410-2023 karta.png", "A 3410-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 2579-2023 karta.png", "A 2579-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 3410-2023 FSC-klagomål.docx", "A 3410-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 2579-2023 FSC-klagomål.docx", "A 2579-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 3410-2023 FSC-klagomål mail.docx", "A 3410-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 2579-2023 FSC-klagomål mail.docx", "A 2579-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 3410-2023 tillsynsbegäran.docx", "A 3410-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 2579-2023 tillsynsbegäran.docx", "A 2579-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 3410-2023 tillsynsbegäran mail.docx", "A 3410-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 2579-2023 tillsynsbegäran mail.docx", "A 2579-2023")</f>
         <v/>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
         <v>45702.62541666667</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2276,14 +2276,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 10602-2023</t>
+          <t>A 58467-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44988.39806712963</v>
+        <v>45635.3708912037</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2305,13 +2305,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2323,52 +2323,52 @@
         <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Sommarfibbla</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 10602-2023 artfynd.xlsx", "A 10602-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 58467-2024 artfynd.xlsx", "A 58467-2024")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 10602-2023 karta.png", "A 10602-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 58467-2024 karta.png", "A 58467-2024")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 10602-2023 FSC-klagomål.docx", "A 10602-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 58467-2024 FSC-klagomål.docx", "A 58467-2024")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 10602-2023 FSC-klagomål mail.docx", "A 10602-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 58467-2024 FSC-klagomål mail.docx", "A 58467-2024")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 10602-2023 tillsynsbegäran.docx", "A 10602-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 58467-2024 tillsynsbegäran.docx", "A 58467-2024")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 10602-2023 tillsynsbegäran mail.docx", "A 10602-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 58467-2024 tillsynsbegäran mail.docx", "A 58467-2024")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 25936-2025</t>
+          <t>A 43859-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45804.59222222222</v>
+        <v>44837</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2381,17 +2381,17 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2415,31 +2415,31 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Gullklöver</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 25936-2025 artfynd.xlsx", "A 25936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 43859-2022 artfynd.xlsx", "A 43859-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 25936-2025 karta.png", "A 25936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 43859-2022 karta.png", "A 43859-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 25936-2025 FSC-klagomål.docx", "A 25936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 43859-2022 FSC-klagomål.docx", "A 43859-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 25936-2025 FSC-klagomål mail.docx", "A 25936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 43859-2022 FSC-klagomål mail.docx", "A 43859-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 25936-2025 tillsynsbegäran.docx", "A 25936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 43859-2022 tillsynsbegäran.docx", "A 43859-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 25936-2025 tillsynsbegäran mail.docx", "A 25936-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 43859-2022 tillsynsbegäran mail.docx", "A 43859-2022")</f>
         <v/>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
         <v>45903.58387731481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2536,14 +2536,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 100-2023</t>
+          <t>A 25936-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44928</v>
+        <v>45804.59222222222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2555,22 +2555,17 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2585,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2595,724 +2590,729 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
+          <t>Blodticka</t>
+        </is>
+      </c>
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 25936-2025 artfynd.xlsx", "A 25936-2025")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 25936-2025 karta.png", "A 25936-2025")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 25936-2025 FSC-klagomål.docx", "A 25936-2025")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 25936-2025 FSC-klagomål mail.docx", "A 25936-2025")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 25936-2025 tillsynsbegäran.docx", "A 25936-2025")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 25936-2025 tillsynsbegäran mail.docx", "A 25936-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A 60172-2021</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>44495</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 60172-2021 artfynd.xlsx", "A 60172-2021")</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 60172-2021 karta.png", "A 60172-2021")</f>
+        <v/>
+      </c>
+      <c r="V25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 60172-2021 FSC-klagomål.docx", "A 60172-2021")</f>
+        <v/>
+      </c>
+      <c r="W25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 60172-2021 FSC-klagomål mail.docx", "A 60172-2021")</f>
+        <v/>
+      </c>
+      <c r="X25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 60172-2021 tillsynsbegäran.docx", "A 60172-2021")</f>
+        <v/>
+      </c>
+      <c r="Y25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 60172-2021 tillsynsbegäran mail.docx", "A 60172-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A 4464-2026</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>46045.6518287037</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>Myskmadra</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 4464-2026 artfynd.xlsx", "A 4464-2026")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 4464-2026 karta.png", "A 4464-2026")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 4464-2026 FSC-klagomål.docx", "A 4464-2026")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 4464-2026 FSC-klagomål mail.docx", "A 4464-2026")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 4464-2026 tillsynsbegäran.docx", "A 4464-2026")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 4464-2026 tillsynsbegäran mail.docx", "A 4464-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 10602-2023</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>44988.39806712963</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>Ask</t>
+        </is>
+      </c>
+      <c r="S27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 10602-2023 artfynd.xlsx", "A 10602-2023")</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 10602-2023 karta.png", "A 10602-2023")</f>
+        <v/>
+      </c>
+      <c r="V27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 10602-2023 FSC-klagomål.docx", "A 10602-2023")</f>
+        <v/>
+      </c>
+      <c r="W27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 10602-2023 FSC-klagomål mail.docx", "A 10602-2023")</f>
+        <v/>
+      </c>
+      <c r="X27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 10602-2023 tillsynsbegäran.docx", "A 10602-2023")</f>
+        <v/>
+      </c>
+      <c r="Y27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 10602-2023 tillsynsbegäran mail.docx", "A 10602-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A 10610-2023</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>44988</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>8</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 10610-2023 artfynd.xlsx", "A 10610-2023")</f>
+        <v/>
+      </c>
+      <c r="T28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 10610-2023 karta.png", "A 10610-2023")</f>
+        <v/>
+      </c>
+      <c r="V28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 10610-2023 FSC-klagomål.docx", "A 10610-2023")</f>
+        <v/>
+      </c>
+      <c r="W28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 10610-2023 FSC-klagomål mail.docx", "A 10610-2023")</f>
+        <v/>
+      </c>
+      <c r="X28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 10610-2023 tillsynsbegäran.docx", "A 10610-2023")</f>
+        <v/>
+      </c>
+      <c r="Y28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 10610-2023 tillsynsbegäran mail.docx", "A 10610-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A 47898-2023</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>45204.49358796296</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>Erastia ochraceolateritia</t>
+        </is>
+      </c>
+      <c r="S29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 47898-2023 artfynd.xlsx", "A 47898-2023")</f>
+        <v/>
+      </c>
+      <c r="T29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 47898-2023 karta.png", "A 47898-2023")</f>
+        <v/>
+      </c>
+      <c r="V29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 47898-2023 FSC-klagomål.docx", "A 47898-2023")</f>
+        <v/>
+      </c>
+      <c r="W29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 47898-2023 FSC-klagomål mail.docx", "A 47898-2023")</f>
+        <v/>
+      </c>
+      <c r="X29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 47898-2023 tillsynsbegäran.docx", "A 47898-2023")</f>
+        <v/>
+      </c>
+      <c r="Y29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 47898-2023 tillsynsbegäran mail.docx", "A 47898-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>A 39092-2022</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>44817</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>Sårläka</t>
+        </is>
+      </c>
+      <c r="S30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 39092-2022 artfynd.xlsx", "A 39092-2022")</f>
+        <v/>
+      </c>
+      <c r="T30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 39092-2022 karta.png", "A 39092-2022")</f>
+        <v/>
+      </c>
+      <c r="V30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 39092-2022 FSC-klagomål.docx", "A 39092-2022")</f>
+        <v/>
+      </c>
+      <c r="W30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 39092-2022 FSC-klagomål mail.docx", "A 39092-2022")</f>
+        <v/>
+      </c>
+      <c r="X30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 39092-2022 tillsynsbegäran.docx", "A 39092-2022")</f>
+        <v/>
+      </c>
+      <c r="Y30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 39092-2022 tillsynsbegäran mail.docx", "A 39092-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>A 100-2023</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>44928</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
           <t>Borsttåg</t>
         </is>
       </c>
-      <c r="S24">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 100-2023 artfynd.xlsx", "A 100-2023")</f>
         <v/>
       </c>
-      <c r="T24">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 100-2023 karta.png", "A 100-2023")</f>
         <v/>
       </c>
-      <c r="V24">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 100-2023 FSC-klagomål.docx", "A 100-2023")</f>
         <v/>
       </c>
-      <c r="W24">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 100-2023 FSC-klagomål mail.docx", "A 100-2023")</f>
         <v/>
       </c>
-      <c r="X24">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 100-2023 tillsynsbegäran.docx", "A 100-2023")</f>
         <v/>
       </c>
-      <c r="Y24">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 100-2023 tillsynsbegäran mail.docx", "A 100-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 58467-2024</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>45635.3708912037</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>A 42904-2023</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H32" t="n">
         <v>1</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
         <v>1</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Sommarfibbla</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 58467-2024 artfynd.xlsx", "A 58467-2024")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 58467-2024 karta.png", "A 58467-2024")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 58467-2024 FSC-klagomål.docx", "A 58467-2024")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 58467-2024 FSC-klagomål mail.docx", "A 58467-2024")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 58467-2024 tillsynsbegäran.docx", "A 58467-2024")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 58467-2024 tillsynsbegäran mail.docx", "A 58467-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 47898-2023</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>45204.49358796296</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Erastia ochraceolateritia</t>
-        </is>
-      </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 47898-2023 artfynd.xlsx", "A 47898-2023")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 47898-2023 karta.png", "A 47898-2023")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 47898-2023 FSC-klagomål.docx", "A 47898-2023")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 47898-2023 FSC-klagomål mail.docx", "A 47898-2023")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 47898-2023 tillsynsbegäran.docx", "A 47898-2023")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 47898-2023 tillsynsbegäran mail.docx", "A 47898-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A 4464-2026</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>46045.6518287037</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1</v>
-      </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Myskmadra</t>
-        </is>
-      </c>
-      <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 4464-2026 artfynd.xlsx", "A 4464-2026")</f>
-        <v/>
-      </c>
-      <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 4464-2026 karta.png", "A 4464-2026")</f>
-        <v/>
-      </c>
-      <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 4464-2026 FSC-klagomål.docx", "A 4464-2026")</f>
-        <v/>
-      </c>
-      <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 4464-2026 FSC-klagomål mail.docx", "A 4464-2026")</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 4464-2026 tillsynsbegäran.docx", "A 4464-2026")</f>
-        <v/>
-      </c>
-      <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 4464-2026 tillsynsbegäran mail.docx", "A 4464-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>A 42904-2023</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>45182</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" s="2" t="inlineStr">
+      <c r="R32" s="2" t="inlineStr">
         <is>
           <t>Grönvit nattviol</t>
         </is>
       </c>
-      <c r="S28">
+      <c r="S32">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 42904-2023 artfynd.xlsx", "A 42904-2023")</f>
         <v/>
       </c>
-      <c r="T28">
+      <c r="T32">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 42904-2023 karta.png", "A 42904-2023")</f>
         <v/>
       </c>
-      <c r="V28">
+      <c r="V32">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 42904-2023 FSC-klagomål.docx", "A 42904-2023")</f>
         <v/>
       </c>
-      <c r="W28">
+      <c r="W32">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 42904-2023 FSC-klagomål mail.docx", "A 42904-2023")</f>
         <v/>
       </c>
-      <c r="X28">
+      <c r="X32">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 42904-2023 tillsynsbegäran.docx", "A 42904-2023")</f>
         <v/>
       </c>
-      <c r="Y28">
+      <c r="Y32">
         <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 42904-2023 tillsynsbegäran mail.docx", "A 42904-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>A 10610-2023</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>44988</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>8</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 10610-2023 artfynd.xlsx", "A 10610-2023")</f>
-        <v/>
-      </c>
-      <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 10610-2023 karta.png", "A 10610-2023")</f>
-        <v/>
-      </c>
-      <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 10610-2023 FSC-klagomål.docx", "A 10610-2023")</f>
-        <v/>
-      </c>
-      <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 10610-2023 FSC-klagomål mail.docx", "A 10610-2023")</f>
-        <v/>
-      </c>
-      <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 10610-2023 tillsynsbegäran.docx", "A 10610-2023")</f>
-        <v/>
-      </c>
-      <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 10610-2023 tillsynsbegäran mail.docx", "A 10610-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>A 60172-2021</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>44495</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 60172-2021 artfynd.xlsx", "A 60172-2021")</f>
-        <v/>
-      </c>
-      <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 60172-2021 karta.png", "A 60172-2021")</f>
-        <v/>
-      </c>
-      <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 60172-2021 FSC-klagomål.docx", "A 60172-2021")</f>
-        <v/>
-      </c>
-      <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 60172-2021 FSC-klagomål mail.docx", "A 60172-2021")</f>
-        <v/>
-      </c>
-      <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 60172-2021 tillsynsbegäran.docx", "A 60172-2021")</f>
-        <v/>
-      </c>
-      <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 60172-2021 tillsynsbegäran mail.docx", "A 60172-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>A 39092-2022</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>44817</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" s="2" t="inlineStr">
-        <is>
-          <t>Sårläka</t>
-        </is>
-      </c>
-      <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 39092-2022 artfynd.xlsx", "A 39092-2022")</f>
-        <v/>
-      </c>
-      <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 39092-2022 karta.png", "A 39092-2022")</f>
-        <v/>
-      </c>
-      <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 39092-2022 FSC-klagomål.docx", "A 39092-2022")</f>
-        <v/>
-      </c>
-      <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 39092-2022 FSC-klagomål mail.docx", "A 39092-2022")</f>
-        <v/>
-      </c>
-      <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 39092-2022 tillsynsbegäran.docx", "A 39092-2022")</f>
-        <v/>
-      </c>
-      <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 39092-2022 tillsynsbegäran mail.docx", "A 39092-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>A 43859-2022</t>
-        </is>
-      </c>
-      <c r="B32" s="1" t="n">
-        <v>44837</v>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>SKÖVDE</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1</v>
-      </c>
-      <c r="R32" s="2" t="inlineStr">
-        <is>
-          <t>Gullklöver</t>
-        </is>
-      </c>
-      <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/artfynd/A 43859-2022 artfynd.xlsx", "A 43859-2022")</f>
-        <v/>
-      </c>
-      <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/kartor/A 43859-2022 karta.png", "A 43859-2022")</f>
-        <v/>
-      </c>
-      <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomål/A 43859-2022 FSC-klagomål.docx", "A 43859-2022")</f>
-        <v/>
-      </c>
-      <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/klagomålsmail/A 43859-2022 FSC-klagomål mail.docx", "A 43859-2022")</f>
-        <v/>
-      </c>
-      <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsyn/A 43859-2022 tillsynsbegäran.docx", "A 43859-2022")</f>
-        <v/>
-      </c>
-      <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1496/tillsynsmail/A 43859-2022 tillsynsbegäran mail.docx", "A 43859-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44442.34412037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>44421</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44386</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44594</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>44609.60418981482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44445</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>44417.56894675926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>44391</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>44279.44748842593</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44543</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         <v>44516</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>44844.66291666667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44834</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>44567</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>44523.37583333333</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>44421</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44277</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>44748.33660879629</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44748.34445601852</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>44585</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44614</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4533,14 +4533,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 20279-2022</t>
+          <t>A 18345-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44698.71788194445</v>
+        <v>44305</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4590,14 +4590,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 55575-2021</t>
+          <t>A 20279-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44475</v>
+        <v>44698.71788194445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4647,14 +4647,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 34744-2021</t>
+          <t>A 55575-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44382.6750462963</v>
+        <v>44475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4704,14 +4704,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 18345-2021</t>
+          <t>A 34744-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44305</v>
+        <v>44382.6750462963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4768,7 +4768,7 @@
         <v>44740</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44530.87890046297</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>44698.72146990741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>44847</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44306</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>44299</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44635.4016087963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44823</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44629.92052083334</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44481.61975694444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44594</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>44762.55376157408</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44809</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5507,14 +5507,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 27671-2022</t>
+          <t>A 62290-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44743.39986111111</v>
+        <v>45267.659375</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5564,14 +5564,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 5308-2023</t>
+          <t>A 11917-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44959.55680555556</v>
+        <v>45376.60135416667</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5621,14 +5621,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 48149-2023</t>
+          <t>A 62272-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45201</v>
+        <v>45267.63773148148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>6.2</v>
+        <v>1.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5678,14 +5678,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 46401-2023</t>
+          <t>A 3946-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45197.49450231482</v>
+        <v>45322.65063657407</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5735,14 +5735,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 13422-2025</t>
+          <t>A 47892-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45736.32023148148</v>
+        <v>45932.47384259259</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5792,14 +5792,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 22021-2025</t>
+          <t>A 50829-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45784</v>
+        <v>44862</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5849,14 +5849,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 22022-2025</t>
+          <t>A 60588-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45784</v>
+        <v>45259</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>12</v>
+        <v>3.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5906,14 +5906,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 17326-2025</t>
+          <t>A 47869-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45756</v>
+        <v>45932.44273148148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5963,14 +5963,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 27577-2021</t>
+          <t>A 5469-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44353.76177083333</v>
+        <v>45693.32758101852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6020,14 +6020,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 63729-2025</t>
+          <t>A 5473-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>46010</v>
+        <v>45693.33016203704</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6039,13 +6039,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6082,14 +6077,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 63730-2025</t>
+          <t>A 16279-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>46010</v>
+        <v>44292.64375</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6101,13 +6096,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6144,14 +6134,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 55642-2025</t>
+          <t>A 34211-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45972.3575462963</v>
+        <v>45138</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6164,7 +6154,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6201,14 +6191,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 63375-2025</t>
+          <t>A 38499-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>46009</v>
+        <v>45884.37276620371</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6222,11 +6212,11 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.4</v>
+        <v>10</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6263,14 +6253,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 3946-2024</t>
+          <t>A 20602-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45322.65063657407</v>
+        <v>45775.79440972222</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6283,7 +6273,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6320,14 +6310,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 9640-2025</t>
+          <t>A 13802-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45715.83090277778</v>
+        <v>45391</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6340,7 +6330,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.9</v>
+        <v>9.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6377,14 +6367,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 14964-2025</t>
+          <t>A 48890-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45743.58701388889</v>
+        <v>45937.46953703704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6397,7 +6387,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6434,14 +6424,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 38499-2025</t>
+          <t>A 39073-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45884.37276620371</v>
+        <v>45888</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6459,7 +6449,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6496,14 +6486,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 63374-2025</t>
+          <t>A 3948-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>46009</v>
+        <v>45322</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6515,13 +6505,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>3.4</v>
+        <v>6.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6558,14 +6543,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 15417-2023</t>
+          <t>A 35199-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45019</v>
+        <v>45853</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6578,7 +6563,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6615,14 +6600,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 35199-2025</t>
+          <t>A 17326-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45853</v>
+        <v>45756</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6635,7 +6620,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6672,14 +6657,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 14969-2025</t>
+          <t>A 22021-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45743.5912962963</v>
+        <v>45784</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6692,7 +6677,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6729,14 +6714,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 8606-2025</t>
+          <t>A 22022-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45710.38600694444</v>
+        <v>45784</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6749,7 +6734,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.3</v>
+        <v>12</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6786,14 +6771,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 23487-2025</t>
+          <t>A 565-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45792.4653587963</v>
+        <v>45299</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6806,7 +6791,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6843,14 +6828,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 23544-2025</t>
+          <t>A 58456-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45792.56561342593</v>
+        <v>45635.36013888889</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6863,7 +6848,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6900,14 +6885,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 39073-2025</t>
+          <t>A 20600-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45888</v>
+        <v>45775.79165509259</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6919,13 +6904,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6962,14 +6942,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 39238-2025</t>
+          <t>A 22023-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45889.33467592593</v>
+        <v>45784</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6982,7 +6962,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7019,14 +6999,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 39243-2025</t>
+          <t>A 952-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45889.34508101852</v>
+        <v>45301</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7039,7 +7019,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>9.199999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7076,14 +7056,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 20600-2025</t>
+          <t>A 39238-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45775.79165509259</v>
+        <v>45889.33467592593</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7096,7 +7076,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.4</v>
+        <v>6.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7133,14 +7113,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 5658-2024</t>
+          <t>A 39243-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45334</v>
+        <v>45889.34508101852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7153,7 +7133,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7190,14 +7170,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 24383-2025</t>
+          <t>A 58342-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45797.62940972222</v>
+        <v>45245</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7209,13 +7189,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7252,14 +7227,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 58456-2024</t>
+          <t>A 2917-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45635.36013888889</v>
+        <v>45315.58524305555</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7272,7 +7247,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7309,14 +7284,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 35069-2023</t>
+          <t>A 13800-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45142</v>
+        <v>45391</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7329,7 +7304,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7366,14 +7341,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 12972-2025</t>
+          <t>A 8557-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45734.43846064815</v>
+        <v>45709</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7385,13 +7360,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7428,14 +7398,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 37204-2024</t>
+          <t>A 39993-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45539.67663194444</v>
+        <v>45894.31541666666</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7448,7 +7418,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7485,14 +7455,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 35919-2023</t>
+          <t>A 58929-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45148.64981481482</v>
+        <v>44903</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7504,8 +7474,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>6.6</v>
+        <v>0.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7542,14 +7517,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 24186-2025</t>
+          <t>A 3951-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45796.82644675926</v>
+        <v>45322</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7562,7 +7537,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>10.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7599,14 +7574,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 15952-2025</t>
+          <t>A 23487-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45749.50174768519</v>
+        <v>45792.4653587963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7618,13 +7593,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7661,14 +7631,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 10560-2025</t>
+          <t>A 2708-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45721.5255787037</v>
+        <v>45314</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7681,7 +7651,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7718,14 +7688,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 8557-2025</t>
+          <t>A 1641-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45709</v>
+        <v>45306.66873842593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7738,7 +7708,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7775,14 +7745,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 58929-2022</t>
+          <t>A 8606-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44903</v>
+        <v>45710.38600694444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7794,13 +7764,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7837,14 +7802,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 24996-2025</t>
+          <t>A 14969-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45799.61603009259</v>
+        <v>45743.5912962963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7856,13 +7821,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7899,14 +7859,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 39993-2025</t>
+          <t>A 14964-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45894.31541666666</v>
+        <v>45743.58701388889</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7919,7 +7879,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7956,14 +7916,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 24553-2025</t>
+          <t>A 23544-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45798.44869212963</v>
+        <v>45792.56561342593</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7975,13 +7935,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8018,14 +7973,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 24962-2025</t>
+          <t>A 9640-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45799.57716435185</v>
+        <v>45715.83090277778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8037,13 +7992,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8080,14 +8030,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 6598-2022</t>
+          <t>A 48766-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44601</v>
+        <v>45936.86329861111</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8099,13 +8049,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8142,14 +8087,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 16113-2021</t>
+          <t>A 35069-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44291.42980324074</v>
+        <v>45142</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8162,7 +8107,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8199,14 +8144,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 25003-2025</t>
+          <t>A 12972-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45799.62331018518</v>
+        <v>45734.43846064815</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8224,7 +8169,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8261,14 +8206,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 25642-2025</t>
+          <t>A 37656-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45803.60490740741</v>
+        <v>45159.51996527778</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8281,7 +8226,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8318,14 +8263,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 27109-2024</t>
+          <t>A 51193-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45471.49974537037</v>
+        <v>45947</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8338,7 +8283,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.7</v>
+        <v>7.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8375,14 +8320,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 25271-2025</t>
+          <t>A 51217-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45800.55153935185</v>
+        <v>45947.64515046297</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8394,13 +8339,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8437,14 +8377,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 53740-2023</t>
+          <t>A 51155-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45230</v>
+        <v>45947</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8457,7 +8397,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8494,14 +8434,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 25639-2025</t>
+          <t>A 1780-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45800</v>
+        <v>44938.598125</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8514,7 +8454,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8551,14 +8491,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 25093-2025</t>
+          <t>A 24553-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45800.33357638889</v>
+        <v>45798.44869212963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8572,11 +8512,11 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8613,14 +8553,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 25794-2025</t>
+          <t>A 35610-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45804.39341435185</v>
+        <v>45531</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8632,13 +8572,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>2.5</v>
+        <v>11.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8675,14 +8610,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 26712-2025</t>
+          <t>A 24186-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45810.46396990741</v>
+        <v>45796.82644675926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8694,13 +8629,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8737,14 +8667,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 26618-2025</t>
+          <t>A 24383-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45810.30840277778</v>
+        <v>45797.62940972222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8754,6 +8684,11 @@
       <c r="E126" t="inlineStr">
         <is>
           <t>SKÖVDE</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -8794,14 +8729,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 26737-2023</t>
+          <t>A 42837-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45093.42945601852</v>
+        <v>45908.58097222223</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8814,7 +8749,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8851,14 +8786,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 38750-2023</t>
+          <t>A 52172-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45163.40059027778</v>
+        <v>45953.37298611111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8870,8 +8805,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8908,14 +8848,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 17070-2025</t>
+          <t>A 5658-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45755.61774305555</v>
+        <v>45334</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8927,13 +8867,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8970,14 +8905,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 26620-2025</t>
+          <t>A 2858-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45810.31511574074</v>
+        <v>45315.43131944445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8990,7 +8925,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9027,14 +8962,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 44867-2022</t>
+          <t>A 53153-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44840</v>
+        <v>45958.48887731481</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9047,7 +8982,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9084,14 +9019,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 26614-2025</t>
+          <t>A 24996-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45810.30189814815</v>
+        <v>45799.61603009259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9103,8 +9038,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>12.3</v>
+        <v>1.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9141,14 +9081,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 60558-2023</t>
+          <t>A 24962-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45259.86798611111</v>
+        <v>45799.57716435185</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9160,8 +9100,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9198,14 +9143,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 42837-2025</t>
+          <t>A 25271-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45908.58097222223</v>
+        <v>45800.55153935185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9217,8 +9162,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9255,14 +9205,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 49954-2023</t>
+          <t>A 25639-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45215.37692129629</v>
+        <v>45800</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9275,7 +9225,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9312,14 +9262,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 38264-2023</t>
+          <t>A 25003-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45161</v>
+        <v>45799.62331018518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9331,8 +9281,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9369,14 +9324,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 29012-2025</t>
+          <t>A 25093-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45821.40665509259</v>
+        <v>45800.33357638889</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9388,8 +9343,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9426,14 +9386,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 29023-2025</t>
+          <t>A 25642-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45821.43002314815</v>
+        <v>45803.60490740741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9446,7 +9406,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9483,14 +9443,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 6419-2025</t>
+          <t>A 27109-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45699.47835648148</v>
+        <v>45471.49974537037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9502,13 +9462,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9545,14 +9500,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 29341-2025</t>
+          <t>A 25794-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45824.5056712963</v>
+        <v>45804.39341435185</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9566,11 +9521,11 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9607,14 +9562,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 29017-2025</t>
+          <t>A 55642-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45821.41775462963</v>
+        <v>45972.3575462963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9627,7 +9582,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9664,14 +9619,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 20912-2024</t>
+          <t>A 10560-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45439.49229166667</v>
+        <v>45721.5255787037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9684,7 +9639,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9721,14 +9676,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 29335-2025</t>
+          <t>A 26618-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45824.49121527778</v>
+        <v>45810.30840277778</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9740,13 +9695,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9783,14 +9733,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 29015-2025</t>
+          <t>A 48575-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45821.41212962963</v>
+        <v>45593.41140046297</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9803,7 +9753,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9840,14 +9790,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 30150-2025</t>
+          <t>A 26712-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45827.31333333333</v>
+        <v>45810.46396990741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9865,7 +9815,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9902,14 +9852,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 67134-2021</t>
+          <t>A 63729-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44523.37474537037</v>
+        <v>46010</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9923,11 +9873,11 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.8</v>
+        <v>4.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9964,14 +9914,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 9284-2025</t>
+          <t>A 63730-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45714</v>
+        <v>46010</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9985,11 +9935,11 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10026,14 +9976,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 12942-2024</t>
+          <t>A 44867-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45385.46519675926</v>
+        <v>44840</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10046,7 +9996,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10083,14 +10033,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 46923-2025</t>
+          <t>A 47466-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45929.43701388889</v>
+        <v>45586</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10103,7 +10053,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10140,14 +10090,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 16621-2025</t>
+          <t>A 47490-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45754.32112268519</v>
+        <v>45586</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10160,7 +10110,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>6.8</v>
+        <v>1.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10197,14 +10147,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 42579-2025</t>
+          <t>A 26620-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45905</v>
+        <v>45810.31511574074</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10217,7 +10167,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10254,14 +10204,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 47869-2025</t>
+          <t>A 1629-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45932.44273148148</v>
+        <v>45670.6265162037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10274,7 +10224,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.6</v>
+        <v>11.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10311,14 +10261,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 47892-2025</t>
+          <t>A 26614-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45932.47384259259</v>
+        <v>45810.30189814815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10331,7 +10281,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.6</v>
+        <v>12.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10368,14 +10318,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 32837-2025</t>
+          <t>A 38903-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45839.55925925926</v>
+        <v>45547</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10425,14 +10375,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 48890-2025</t>
+          <t>A 63375-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45937.46953703704</v>
+        <v>46009</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10444,8 +10394,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>2.4</v>
+        <v>4.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10482,14 +10437,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 33053-2025</t>
+          <t>A 1784-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45840.42666666667</v>
+        <v>44938.60303240741</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10502,7 +10457,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10539,14 +10494,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 48766-2025</t>
+          <t>A 15388-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45936.86329861111</v>
+        <v>45401.23033564815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10559,7 +10514,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10596,14 +10551,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 9281-2025</t>
+          <t>A 63374-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45714</v>
+        <v>46009</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10617,11 +10572,11 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10658,14 +10613,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 33861-2025</t>
+          <t>A 46923-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45842.52964120371</v>
+        <v>45929.43701388889</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10678,7 +10633,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10715,14 +10670,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 34416-2025</t>
+          <t>A 42579-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45846.6525462963</v>
+        <v>45905</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10735,7 +10690,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10772,14 +10727,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 62271-2023</t>
+          <t>A 5470-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45267.6362037037</v>
+        <v>45693.3281712963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10792,7 +10747,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10829,14 +10784,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 34410-2025</t>
+          <t>A 5995-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45846.64479166667</v>
+        <v>44599.43216435185</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10848,8 +10803,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10886,14 +10846,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 34414-2025</t>
+          <t>A 29341-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45846</v>
+        <v>45824.5056712963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10905,8 +10865,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10943,14 +10908,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 34412-2025</t>
+          <t>A 29015-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45846.64696759259</v>
+        <v>45821.41212962963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10963,7 +10928,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11000,14 +10965,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 34592-2025</t>
+          <t>A 29012-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45847.63085648148</v>
+        <v>45821.40665509259</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11020,7 +10985,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11057,14 +11022,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 50829-2022</t>
+          <t>A 29335-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44862</v>
+        <v>45824.49121527778</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11076,8 +11041,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11114,14 +11084,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 51217-2025</t>
+          <t>A 29017-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45947.64515046297</v>
+        <v>45821.41775462963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11134,7 +11104,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11171,14 +11141,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 51155-2025</t>
+          <t>A 29023-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45947</v>
+        <v>45821.43002314815</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11191,7 +11161,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11228,14 +11198,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 51193-2025</t>
+          <t>A 30150-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45947</v>
+        <v>45827.31333333333</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11247,8 +11217,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>7.2</v>
+        <v>4.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11285,14 +11260,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 19372-2025</t>
+          <t>A 20912-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45769.64199074074</v>
+        <v>45439.49229166667</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11305,7 +11280,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11342,14 +11317,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 52172-2025</t>
+          <t>A 5472-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45953.37298611111</v>
+        <v>45693.32910879629</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11361,13 +11336,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11404,14 +11374,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 60588-2023</t>
+          <t>A 5476-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45259</v>
+        <v>45693.33128472222</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11424,7 +11394,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11461,14 +11431,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 48983-2024</t>
+          <t>A 12817-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45594.46991898148</v>
+        <v>45384</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11481,7 +11451,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11518,14 +11488,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 62290-2023</t>
+          <t>A 41942-2021</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45267.659375</v>
+        <v>44425</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11538,7 +11508,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11575,14 +11545,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 53153-2025</t>
+          <t>A 32837-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45958.48887731481</v>
+        <v>45839.55925925926</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11595,7 +11565,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11632,14 +11602,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 1629-2025</t>
+          <t>A 29217-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45670.6265162037</v>
+        <v>44750.58076388889</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11651,8 +11621,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>11.8</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11689,14 +11664,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 59384-2025</t>
+          <t>A 33053-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45989.45657407407</v>
+        <v>45840.42666666667</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11708,13 +11683,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11751,14 +11721,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 59366-2025</t>
+          <t>A 48225-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45989.44545138889</v>
+        <v>45590.36800925926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11770,13 +11740,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11813,14 +11778,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 950-2024</t>
+          <t>A 33861-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45301</v>
+        <v>45842.52964120371</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11833,7 +11798,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11870,14 +11835,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 1844-2026</t>
+          <t>A 34410-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46035.40652777778</v>
+        <v>45846.64479166667</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11927,14 +11892,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 47900-2023</t>
+          <t>A 34414-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45204</v>
+        <v>45846</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11947,7 +11912,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11984,14 +11949,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 3951-2024</t>
+          <t>A 34412-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45322</v>
+        <v>45846.64696759259</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12004,7 +11969,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>10.7</v>
+        <v>2.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12041,14 +12006,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 49416-2023</t>
+          <t>A 34416-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45211.44688657407</v>
+        <v>45846.6525462963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12061,7 +12026,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12098,14 +12063,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 3670-2022</t>
+          <t>A 59366-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44586</v>
+        <v>45989.44545138889</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12117,8 +12082,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12155,14 +12125,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 59893-2025</t>
+          <t>A 34592-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45992</v>
+        <v>45847.63085648148</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12175,7 +12145,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12212,14 +12182,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 16277-2021</t>
+          <t>A 40712-2021</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44292.64259259259</v>
+        <v>44420</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12232,7 +12202,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12269,14 +12239,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 35280-2024</t>
+          <t>A 59384-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45530.63609953703</v>
+        <v>45989.45657407407</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12288,8 +12258,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12326,14 +12301,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 60968-2025</t>
+          <t>A 9281-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45999.68519675926</v>
+        <v>45714</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12345,8 +12320,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12383,14 +12363,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 15388-2024</t>
+          <t>A 48983-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45401.23033564815</v>
+        <v>45594.46991898148</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12403,7 +12383,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12440,14 +12420,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 61420-2025</t>
+          <t>A 19372-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46001.54215277778</v>
+        <v>45769.64199074074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12460,7 +12440,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12497,14 +12477,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 5808-2023</t>
+          <t>A 1844-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44963.48101851852</v>
+        <v>46035.40652777778</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12554,14 +12534,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 2259-2026</t>
+          <t>A 59893-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46036</v>
+        <v>45992</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12574,7 +12554,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>7.3</v>
+        <v>1.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12611,14 +12591,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 61421-2025</t>
+          <t>A 40995-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46001.54255787037</v>
+        <v>44825.49869212963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12631,7 +12611,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12668,14 +12648,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 61422-2025</t>
+          <t>A 23447-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46001.54291666667</v>
+        <v>45076.59756944444</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12688,7 +12668,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12725,14 +12705,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 1784-2023</t>
+          <t>A 15404-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44938.60303240741</v>
+        <v>45019</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12745,7 +12725,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12782,14 +12762,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 34248-2023</t>
+          <t>A 6419-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45138.55064814815</v>
+        <v>45699.47835648148</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12801,8 +12781,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12839,14 +12824,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 3481-2024</t>
+          <t>A 13669-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45320</v>
+        <v>45006</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12859,7 +12844,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>7.7</v>
+        <v>4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12896,14 +12881,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 61130-2025</t>
+          <t>A 38264-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46000.48894675926</v>
+        <v>45161</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12916,7 +12901,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12953,14 +12938,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 60117-2021</t>
+          <t>A 13178-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44495</v>
+        <v>45002</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12973,7 +12958,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>5.9</v>
+        <v>1.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13010,14 +12995,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 61699-2025</t>
+          <t>A 61336-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46002.53145833333</v>
+        <v>45645</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13030,7 +13015,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13067,14 +13052,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 61700-2025</t>
+          <t>A 48336-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46002.53287037037</v>
+        <v>45590.54072916666</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13087,7 +13072,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13124,14 +13109,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 61336-2024</t>
+          <t>A 61130-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45645</v>
+        <v>46000.48894675926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13144,7 +13129,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13181,14 +13166,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 6224-2022</t>
+          <t>A 61213-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44600.39609953704</v>
+        <v>45645.65461805555</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13201,7 +13186,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13238,14 +13223,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 26699-2022</t>
+          <t>A 60968-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44739.72042824074</v>
+        <v>45999.68519675926</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13258,7 +13243,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13295,14 +13280,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 41722-2024</t>
+          <t>A 13422-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45560</v>
+        <v>45736.32023148148</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13315,7 +13300,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>10.1</v>
+        <v>1.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13352,14 +13337,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 2901-2026</t>
+          <t>A 5464-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46038</v>
+        <v>45693.32357638889</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13372,7 +13357,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13409,14 +13394,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 62803-2025</t>
+          <t>A 2259-2026</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46008</v>
+        <v>46036</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13429,7 +13414,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13466,14 +13451,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 5785-2026</t>
+          <t>A 61421-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>46051.66454861111</v>
+        <v>46001.54255787037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13486,7 +13471,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13523,14 +13508,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 5465-2025</t>
+          <t>A 61699-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45693.32520833334</v>
+        <v>46002.53145833333</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13543,7 +13528,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13580,14 +13565,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 5466-2025</t>
+          <t>A 30034-2021</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45693.32571759259</v>
+        <v>44363</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13600,7 +13585,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13637,14 +13622,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 1641-2024</t>
+          <t>A 27577-2021</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45306.66873842593</v>
+        <v>44353.76177083333</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13657,7 +13642,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13694,14 +13679,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 62811-2025</t>
+          <t>A 61700-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46008</v>
+        <v>46002.53287037037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13714,7 +13699,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13751,14 +13736,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 6092-2026</t>
+          <t>A 61420-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46052</v>
+        <v>46001.54215277778</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13771,7 +13756,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13808,14 +13793,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 5470-2025</t>
+          <t>A 40205-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45693.3281712963</v>
+        <v>44820</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13828,7 +13813,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13865,14 +13850,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 35610-2024</t>
+          <t>A 61422-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45531</v>
+        <v>46001.54291666667</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13885,7 +13870,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>11.7</v>
+        <v>3.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13922,14 +13907,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 63428-2025</t>
+          <t>A 48149-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>46013.35648148148</v>
+        <v>45201</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13942,7 +13927,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.8</v>
+        <v>6.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13979,14 +13964,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 63449-2025</t>
+          <t>A 2901-2026</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46013.40626157408</v>
+        <v>46038</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14036,14 +14021,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 16716-2025</t>
+          <t>A 62811-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45754.48701388889</v>
+        <v>46008</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14056,7 +14041,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14093,14 +14078,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 4237-2024</t>
+          <t>A 62803-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45324</v>
+        <v>46008</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14113,7 +14098,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3.1</v>
+        <v>6.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14150,14 +14135,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 63453-2025</t>
+          <t>A 17070-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46013.41452546296</v>
+        <v>45755.61774305555</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14169,8 +14154,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14207,14 +14197,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 58342-2023</t>
+          <t>A 5785-2026</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45245</v>
+        <v>46051.66454861111</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14227,7 +14217,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14264,14 +14254,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 6093-2026</t>
+          <t>A 63453-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46052</v>
+        <v>46013.41452546296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14284,7 +14274,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>5.8</v>
+        <v>1.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14321,14 +14311,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 59053-2024</t>
+          <t>A 26699-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45636.80626157407</v>
+        <v>44739.72042824074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14341,7 +14331,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14378,14 +14368,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 40712-2021</t>
+          <t>A 6092-2026</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44420</v>
+        <v>46052</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14398,7 +14388,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14435,14 +14425,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 5714-2025</t>
+          <t>A 63449-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45694.46822916667</v>
+        <v>46013.40626157408</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14492,14 +14482,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 7748-2026</t>
+          <t>A 16716-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>46062.54561342593</v>
+        <v>45754.48701388889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14512,7 +14502,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>5.8</v>
+        <v>1.1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14549,14 +14539,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 63751-2025</t>
+          <t>A 7869-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>46017.75608796296</v>
+        <v>45706.69854166666</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14569,7 +14559,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14606,14 +14596,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 7746-2026</t>
+          <t>A 10559-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46062.54372685185</v>
+        <v>45721.52329861111</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14626,7 +14616,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>6.7</v>
+        <v>1.4</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14663,14 +14653,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 2858-2024</t>
+          <t>A 63428-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45315.43131944445</v>
+        <v>46013.35648148148</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14683,7 +14673,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14720,14 +14710,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 61213-2024</t>
+          <t>A 6093-2026</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45645.65461805555</v>
+        <v>46052</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14740,7 +14730,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.5</v>
+        <v>5.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14777,14 +14767,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 30034-2021</t>
+          <t>A 60587-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44363</v>
+        <v>45259</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14797,7 +14787,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14834,14 +14824,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 14552-2023</t>
+          <t>A 63751-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45013.42783564814</v>
+        <v>46017.75608796296</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14854,7 +14844,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14891,14 +14881,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 47466-2024</t>
+          <t>A 60558-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45586</v>
+        <v>45259.86798611111</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14911,7 +14901,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14948,14 +14938,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 25168-2023</t>
+          <t>A 36556-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45086.51451388889</v>
+        <v>44804</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14968,7 +14958,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15005,14 +14995,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 4335-2026</t>
+          <t>A 7748-2026</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>46045</v>
+        <v>46062.54561342593</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15025,7 +15015,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.9</v>
+        <v>5.8</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15062,14 +15052,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 13669-2023</t>
+          <t>A 7746-2026</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45006</v>
+        <v>46062.54372685185</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15082,7 +15072,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15119,14 +15109,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 52377-2023</t>
+          <t>A 29011-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45224</v>
+        <v>45104</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15138,8 +15128,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G237" t="n">
-        <v>0.7</v>
+        <v>5.4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15176,14 +15171,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 41942-2021</t>
+          <t>A 26737-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44425</v>
+        <v>45093.42945601852</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15196,7 +15191,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15233,14 +15228,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 34834-2022</t>
+          <t>A 51886-2021</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44796</v>
+        <v>44462.82854166667</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15253,7 +15248,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15290,14 +15285,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 5472-2025</t>
+          <t>A 15417-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45693.32910879629</v>
+        <v>45019</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15310,7 +15305,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15347,14 +15342,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 5476-2025</t>
+          <t>A 5308-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45693.33128472222</v>
+        <v>44959.55680555556</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15367,7 +15362,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15404,14 +15399,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 62272-2023</t>
+          <t>A 17798-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45267.63773148148</v>
+        <v>45418</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15424,7 +15419,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15461,14 +15456,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 23447-2023</t>
+          <t>A 5465-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45076.59756944444</v>
+        <v>45693.32520833334</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15481,7 +15476,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15518,14 +15513,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 48575-2024</t>
+          <t>A 5466-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45593.41140046297</v>
+        <v>45693.32571759259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15538,7 +15533,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15582,7 +15577,7 @@
         <v>45693.32645833334</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15639,7 +15634,7 @@
         <v>45693.32864583333</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15689,14 +15684,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 5474-2025</t>
+          <t>A 1636-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45693.33061342593</v>
+        <v>45306</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15709,7 +15704,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15746,14 +15741,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 5478-2025</t>
+          <t>A 4335-2026</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45693.33496527778</v>
+        <v>46045</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15766,7 +15761,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15803,14 +15798,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 5479-2025</t>
+          <t>A 37204-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45693.33540509259</v>
+        <v>45539.67663194444</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15823,7 +15818,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15860,14 +15855,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 13802-2024</t>
+          <t>A 5656-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45391</v>
+        <v>45334</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15880,7 +15875,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>9.4</v>
+        <v>5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15917,14 +15912,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 14624-2025</t>
+          <t>A 40374-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45742.41969907407</v>
+        <v>45169.74189814815</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15937,7 +15932,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15974,14 +15969,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 5995-2022</t>
+          <t>A 41722-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44599.43216435185</v>
+        <v>45560</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15993,13 +15988,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>2.2</v>
+        <v>10.1</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16036,14 +16026,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 29217-2022</t>
+          <t>A 58138-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44750.58076388889</v>
+        <v>45631</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16055,13 +16045,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16098,14 +16083,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 12162-2022</t>
+          <t>A 48338-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44636</v>
+        <v>45590.54170138889</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16118,7 +16103,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16155,14 +16140,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 51886-2021</t>
+          <t>A 53740-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44462.82854166667</v>
+        <v>45230</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16175,7 +16160,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16212,14 +16197,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 29248-2023</t>
+          <t>A 38750-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45105.63884259259</v>
+        <v>45163.40059027778</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16232,7 +16217,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16269,14 +16254,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 2708-2024</t>
+          <t>A 12942-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45314</v>
+        <v>45385.46519675926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16289,7 +16274,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16326,14 +16311,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 60587-2023</t>
+          <t>A 52377-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45259</v>
+        <v>45224</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16346,7 +16331,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16383,14 +16368,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 1780-2023</t>
+          <t>A 47900-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44938.598125</v>
+        <v>45204</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16403,7 +16388,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16440,14 +16425,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 4316-2025</t>
+          <t>A 16621-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45685.70467592592</v>
+        <v>45754.32112268519</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16460,7 +16445,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.3</v>
+        <v>6.8</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16497,14 +16482,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 21493-2021</t>
+          <t>A 15952-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44321.53975694445</v>
+        <v>45749.50174768519</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16516,8 +16501,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G261" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16554,14 +16544,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 40205-2022</t>
+          <t>A 38048-2022</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44820</v>
+        <v>44811</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16574,7 +16564,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16611,14 +16601,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 565-2024</t>
+          <t>A 34528-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45299</v>
+        <v>45134</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16631,7 +16621,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16668,14 +16658,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 40374-2023</t>
+          <t>A 5714-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45169.74189814815</v>
+        <v>45694.46822916667</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16688,7 +16678,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16725,14 +16715,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 26733-2023</t>
+          <t>A 49416-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45093.41903935185</v>
+        <v>45211.44688657407</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16745,7 +16735,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16782,14 +16772,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 16279-2021</t>
+          <t>A 3670-2022</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44292.64375</v>
+        <v>44586</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16802,7 +16792,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16839,14 +16829,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 48225-2024</t>
+          <t>A 950-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45590.36800925926</v>
+        <v>45301</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16859,7 +16849,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16896,14 +16886,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 40105-2021</t>
+          <t>A 34834-2022</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44418</v>
+        <v>44796</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16916,7 +16906,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16953,14 +16943,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 47490-2024</t>
+          <t>A 12162-2022</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45586</v>
+        <v>44636</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16973,7 +16963,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -17010,14 +17000,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 24476-2023</t>
+          <t>A 13901-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45082</v>
+        <v>45737</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17030,7 +17020,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17067,14 +17057,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 4600-2025</t>
+          <t>A 59053-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45687</v>
+        <v>45636.80626157407</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17087,7 +17077,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17124,14 +17114,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 29011-2023</t>
+          <t>A 21493-2021</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45104</v>
+        <v>44321.53975694445</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17143,13 +17133,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G272" t="n">
-        <v>5.4</v>
+        <v>2.3</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17186,14 +17171,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 5656-2024</t>
+          <t>A 6598-2022</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45334</v>
+        <v>44601</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17205,8 +17190,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G273" t="n">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17243,14 +17233,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 34211-2023</t>
+          <t>A 40105-2021</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45138</v>
+        <v>44418</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17263,7 +17253,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17300,14 +17290,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 34528-2023</t>
+          <t>A 5808-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45134</v>
+        <v>44963.48101851852</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17320,7 +17310,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17357,14 +17347,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 48336-2024</t>
+          <t>A 6224-2022</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45590.54072916666</v>
+        <v>44600.39609953704</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17377,7 +17367,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17414,14 +17404,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 17798-2024</t>
+          <t>A 62269-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45418</v>
+        <v>45267.63450231482</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17434,7 +17424,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17471,14 +17461,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 952-2024</t>
+          <t>A 17452-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45301</v>
+        <v>45036</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17491,7 +17481,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17528,14 +17518,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 13800-2024</t>
+          <t>A 34248-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45391</v>
+        <v>45138.55064814815</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17548,7 +17538,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17585,14 +17575,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 5464-2025</t>
+          <t>A 16277-2021</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45693.32357638889</v>
+        <v>44292.64259259259</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17605,7 +17595,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17642,14 +17632,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 5469-2025</t>
+          <t>A 62271-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45693.32758101852</v>
+        <v>45267.6362037037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17662,7 +17652,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17699,14 +17689,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 5473-2025</t>
+          <t>A 14552-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45693.33016203704</v>
+        <v>45013.42783564814</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17719,7 +17709,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17756,14 +17746,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 5477-2025</t>
+          <t>A 29222-2022</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45693.33332175926</v>
+        <v>44750</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17775,8 +17765,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G283" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17813,14 +17808,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 11917-2024</t>
+          <t>A 67134-2021</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45376.60135416667</v>
+        <v>44523.37474537037</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17832,8 +17827,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G284" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17870,14 +17870,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 29222-2022</t>
+          <t>A 16113-2021</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>44750</v>
+        <v>44291.42980324074</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17889,13 +17889,8 @@
           <t>SKÖVDE</t>
         </is>
       </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G285" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17932,14 +17927,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 38048-2022</t>
+          <t>A 29248-2023</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>44811</v>
+        <v>45105.63884259259</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17952,7 +17947,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17989,14 +17984,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 62269-2023</t>
+          <t>A 18132-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45267.63450231482</v>
+        <v>45040</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18009,7 +18004,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -18046,14 +18041,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 7869-2025</t>
+          <t>A 5386-2025</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45706.69854166666</v>
+        <v>45692.62754629629</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18066,7 +18061,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -18103,14 +18098,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 49300-2023</t>
+          <t>A 4237-2024</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45210.88792824074</v>
+        <v>45324</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18123,7 +18118,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>5.2</v>
+        <v>3.1</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -18160,14 +18155,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 13178-2023</t>
+          <t>A 4316-2025</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45002</v>
+        <v>45685.70467592592</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18180,7 +18175,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -18217,14 +18212,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 12817-2024</t>
+          <t>A 25168-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45384</v>
+        <v>45086.51451388889</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18237,7 +18232,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -18274,14 +18269,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 7870-2025</t>
+          <t>A 35919-2023</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45706</v>
+        <v>45148.64981481482</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18294,7 +18289,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>2.1</v>
+        <v>6.6</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -18331,14 +18326,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 40995-2022</t>
+          <t>A 60117-2021</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>44825.49869212963</v>
+        <v>44495</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18351,7 +18346,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -18388,14 +18383,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 48338-2024</t>
+          <t>A 35280-2024</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45590.54170138889</v>
+        <v>45530.63609953703</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18408,7 +18403,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -18445,14 +18440,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 15404-2023</t>
+          <t>A 49300-2023</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45019</v>
+        <v>45210.88792824074</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18465,7 +18460,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1.7</v>
+        <v>5.2</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -18502,14 +18497,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 36556-2022</t>
+          <t>A 5474-2025</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>44804</v>
+        <v>45693.33061342593</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18522,7 +18517,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18559,14 +18554,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 37656-2023</t>
+          <t>A 5478-2025</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45159.51996527778</v>
+        <v>45693.33496527778</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18579,7 +18574,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18616,14 +18611,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 18132-2023</t>
+          <t>A 5479-2025</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45040</v>
+        <v>45693.33540509259</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18636,7 +18631,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18673,14 +18668,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 17452-2023</t>
+          <t>A 3481-2024</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45036</v>
+        <v>45320</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18693,7 +18688,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.1</v>
+        <v>7.7</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18730,14 +18725,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 1636-2024</t>
+          <t>A 46401-2023</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45306</v>
+        <v>45197.49450231482</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18750,7 +18745,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18787,14 +18782,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 10559-2025</t>
+          <t>A 4600-2025</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45721.52329861111</v>
+        <v>45687</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18807,7 +18802,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18844,14 +18839,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 58138-2024</t>
+          <t>A 49954-2023</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45631</v>
+        <v>45215.37692129629</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18864,7 +18859,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18901,14 +18896,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 2917-2024</t>
+          <t>A 9284-2025</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45315.58524305555</v>
+        <v>45714</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18920,8 +18915,13 @@
           <t>SKÖVDE</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G303" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18958,14 +18958,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 13901-2025</t>
+          <t>A 27671-2022</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45737</v>
+        <v>44743.39986111111</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -19015,14 +19015,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 38903-2024</t>
+          <t>A 5477-2025</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45547</v>
+        <v>45693.33332175926</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -19072,14 +19072,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 5386-2025</t>
+          <t>A 7870-2025</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45692.62754629629</v>
+        <v>45706</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -19129,14 +19129,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 20602-2025</t>
+          <t>A 24476-2023</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45775.79440972222</v>
+        <v>45082</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -19186,14 +19186,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 3948-2024</t>
+          <t>A 14624-2025</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45322</v>
+        <v>45742.41969907407</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>6.6</v>
+        <v>0.7</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -19243,14 +19243,14 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 22023-2025</t>
+          <t>A 26733-2023</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45784</v>
+        <v>45093.41903935185</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>6.3</v>
+        <v>1.5</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>

--- a/Översikt SKÖVDE.xlsx
+++ b/Översikt SKÖVDE.xlsx
@@ -575,7 +575,7 @@
         <v>46025</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44277</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45743</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>44595</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>45876.88369212963</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45306</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>45979.53326388889</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>46014.57848379629</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>45387</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45201</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>44804</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>44495</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45785</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         <v>45506.47185185185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>44447</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45567.37613425926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>44949</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>45702.62541666667</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>44988.39806712963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>45903.58387731481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>44928</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>45635.3708912037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>45204.49358796296</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>45182</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44988</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>46045.6518287037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44495</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>44817</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>44837</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45804.59222222222</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44442.34412037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>44421</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44386</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>44594</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>44609.60418981482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44445</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>44417.56894675926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>44391</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>44279.44748842593</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44543</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         <v>44516</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>44844.66291666667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44834</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>44567</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         <v>44523.37583333333</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>44421</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>44277</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>44748.33660879629</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44748.34445601852</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>44585</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44614</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         <v>44305</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44698.71788194445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44475</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44382.6750462963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>44740</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44530.87890046297</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>44698.72146990741</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>44847</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44306</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>44299</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44635.4016087963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>44823</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44629.92052083334</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44481.61975694444</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44594</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>44762.55376157408</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44809</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44743.39986111111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>44959.55680555556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>45201</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>45197.49450231482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>45736.32023148148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44353.76177083333</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>45322.65063657407</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>45019</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>45148.64981481482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
         <v>45749.50174768519</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>45539.67663194444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>45721.5255787037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>44903</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>45230</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         <v>44601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>44291.42980324074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>45755.61774305555</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>45093.42945601852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>45259.86798611111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>45163.40059027778</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45215.37692129629</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>45161</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45699.47835648148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>44523.37474537037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
         <v>45439.49229166667</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>45714</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>45385.46519675926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>45884.37276620371</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>45853</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>45821.40665509259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>45821.43002314815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>45824.5056712963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>45754.32112268519</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>45888</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>45889.33467592593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>45889.34508101852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>45775.79165509259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>45821.41775462963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>45635.36013888889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>45824.49121527778</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>45821.41212962963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>45827.31333333333</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>45709</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>45894.31541666666</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>45714</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>45267.6362037037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45839.55925925926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44862</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>45840.42666666667</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>45908.58097222223</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>45842.52964120371</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>45846.6525462963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>45846.64479166667</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>45846</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>45846.64696759259</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>45847.63085648148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>45259</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
         <v>45594.46991898148</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>45267.659375</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8942,7 +8942,7 @@
         <v>45769.64199074074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
         <v>45670.6265162037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9056,7 +9056,7 @@
         <v>45929.43701388889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9113,7 +9113,7 @@
         <v>45301</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9170,7 +9170,7 @@
         <v>45905</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>45204</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>45932.44273148148</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45932.47384259259</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>45322</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>45937.46953703704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>45936.86329861111</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>45211.44688657407</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44586</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>44292.64259259259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>45530.63609953703</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45756</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>45947.64515046297</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>45401.23033564815</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>45947</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>45947</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>44963.48101851852</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>44938.60303240741</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>45138.55064814815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>45320</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>45953.37298611111</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>44495</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
         <v>45645</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         <v>45958.48887731481</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>44600.39609953704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>44739.72042824074</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>45560</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>45693.32520833334</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>45693.32571759259</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>45306.66873842593</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>46010</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>46010</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>45972.3575462963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11066,7 +11066,7 @@
         <v>46009</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>45693.3281712963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>45531</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>46009</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>45754.48701388889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>45324</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>45245</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>45636.80626157407</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>44420</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11589,7 +11589,7 @@
         <v>45694.46822916667</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11646,7 +11646,7 @@
         <v>45989.45657407407</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>45989.44545138889</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11770,7 +11770,7 @@
         <v>46035.40652777778</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>45315.43131944445</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11884,7 +11884,7 @@
         <v>45645.65461805555</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>44363</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>45013.42783564814</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>45992</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>45586</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>45086.51451388889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>45999.68519675926</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>45006</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>45224</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>46001.54215277778</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>46036</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>46001.54255787037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>46001.54291666667</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>46000.48894675926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>44425</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44796</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>46002.53145833333</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>46002.53287037037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>45693.32910879629</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>45693.33128472222</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>45267.63773148148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>46038</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45076.59756944444</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>45593.41140046297</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>45693.32645833334</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>45693.32864583333</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>45693.33061342593</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>45693.33496527778</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>45693.33540509259</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>46008</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>46051.66454861111</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>45391</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>45742.41969907407</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>46008</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>44599.43216435185</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>46052</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         <v>44750.58076388889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14003,7 +14003,7 @@
         <v>46013.35648148148</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         <v>44636</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14117,7 +14117,7 @@
         <v>46013.40626157408</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>46013.41452546296</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         <v>44462.82854166667</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14288,7 +14288,7 @@
         <v>45105.63884259259</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>46052</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>45314</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14459,7 +14459,7 @@
         <v>45259</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14516,7 +14516,7 @@
         <v>46062.54561342593</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>46017.75608796296</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>46062.54372685185</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14687,7 +14687,7 @@
         <v>44938.598125</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14744,7 +14744,7 @@
         <v>45685.70467592592</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14801,7 +14801,7 @@
         <v>44321.53975694445</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14858,7 +14858,7 @@
         <v>44820</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>45299</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>45169.74189814815</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>46045</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>45093.41903935185</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>44292.64375</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15200,7 +15200,7 @@
         <v>45590.36800925926</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15257,7 +15257,7 @@
         <v>44418</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15314,7 +15314,7 @@
         <v>45586</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15371,7 +15371,7 @@
         <v>45082</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15428,7 +15428,7 @@
         <v>45687</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15485,7 +15485,7 @@
         <v>45104</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>45334</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>45138</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>45134</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>45590.54072916666</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>45418</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>45301</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>45391</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>45693.32357638889</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>45693.32758101852</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>45693.33016203704</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>45693.33332175926</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>45376.60135416667</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>44750</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>44811</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16350,7 +16350,7 @@
         <v>45267.63450231482</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16407,7 +16407,7 @@
         <v>45706.69854166666</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16464,7 +16464,7 @@
         <v>45210.88792824074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>45002</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16578,7 +16578,7 @@
         <v>45384</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>45706</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>44825.49869212963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>45590.54170138889</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>45019</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44804</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>45159.51996527778</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>45040</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>45036</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17091,7 +17091,7 @@
         <v>45306</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>45721.52329861111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>45631</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>45315.58524305555</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>45737</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>45547</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>45692.62754629629</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>45775.79440972222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>45322</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>45784</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>45784</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>45784</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>45715.83090277778</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>45743.58701388889</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>45743.5912962963</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>45710.38600694444</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>45792.4653587963</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>45792.56561342593</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>45334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45797.62940972222</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>45142</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>45734.43846064815</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18355,7 +18355,7 @@
         <v>45796.82644675926</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18412,7 +18412,7 @@
         <v>45799.61603009259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18474,7 +18474,7 @@
         <v>45798.44869212963</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>45799.57716435185</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>45799.62331018518</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18660,7 +18660,7 @@
         <v>45803.60490740741</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18717,7 +18717,7 @@
         <v>45471.49974537037</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18774,7 +18774,7 @@
         <v>45800.55153935185</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>45800</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18893,7 +18893,7 @@
         <v>45800.33357638889</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>45804.39341435185</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>45810.46396990741</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>45810.30840277778</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>45810.31511574074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         <v>44840</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         <v>45810.30189814815</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
